--- a/database/industries/methanol/shefan/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/shefan/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shefan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FBB325-194E-4A62-98BF-62D5F0EF1406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C15180-1A43-4DE6-A61B-542DE05EFA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1513,38 +1513,38 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>7145</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>7052</v>
       </c>
       <c r="AA11" s="11">
-        <v>7145</v>
+        <v>6706</v>
       </c>
       <c r="AB11" s="11">
-        <v>7052</v>
+        <v>4730</v>
       </c>
       <c r="AC11" s="11">
-        <v>6706</v>
+        <v>3519</v>
       </c>
       <c r="AD11" s="11">
-        <v>4730</v>
+        <v>6590</v>
       </c>
       <c r="AE11" s="11">
-        <v>3519</v>
+        <v>2192</v>
       </c>
       <c r="AF11" s="11">
-        <v>6590</v>
+        <v>5232</v>
       </c>
       <c r="AG11" s="11">
-        <v>2192</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>5232</v>
-      </c>
-      <c r="AI11" s="11">
         <v>5491</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ11" s="11" t="s">
         <v>58</v>
@@ -1672,95 +1672,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>8769</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>8659</v>
       </c>
       <c r="AA12" s="13">
-        <v>8769</v>
+        <v>9259</v>
       </c>
       <c r="AB12" s="13">
-        <v>8659</v>
+        <v>9187</v>
       </c>
       <c r="AC12" s="13">
-        <v>9259</v>
+        <v>9394</v>
       </c>
       <c r="AD12" s="13">
-        <v>9187</v>
+        <v>9058</v>
       </c>
       <c r="AE12" s="13">
-        <v>9394</v>
+        <v>9659</v>
       </c>
       <c r="AF12" s="13">
-        <v>9058</v>
+        <v>9662</v>
       </c>
       <c r="AG12" s="13">
-        <v>9659</v>
+        <v>9440</v>
       </c>
       <c r="AH12" s="13">
-        <v>9662</v>
+        <v>9678</v>
       </c>
       <c r="AI12" s="13">
-        <v>9440</v>
+        <v>6314</v>
       </c>
       <c r="AJ12" s="13">
-        <v>9678</v>
+        <v>8038</v>
       </c>
       <c r="AK12" s="13">
-        <v>6314</v>
+        <v>8363</v>
       </c>
       <c r="AL12" s="13">
-        <v>8038</v>
+        <v>8156</v>
       </c>
       <c r="AM12" s="13">
-        <v>8363</v>
+        <v>8988</v>
       </c>
       <c r="AN12" s="13">
-        <v>8156</v>
+        <v>9257</v>
       </c>
       <c r="AO12" s="13">
-        <v>8988</v>
+        <v>9178</v>
       </c>
       <c r="AP12" s="13">
-        <v>9257</v>
+        <v>9420</v>
       </c>
       <c r="AQ12" s="13">
-        <v>9178</v>
+        <v>8814</v>
       </c>
       <c r="AR12" s="13">
-        <v>9420</v>
+        <v>9533</v>
       </c>
       <c r="AS12" s="13">
-        <v>8814</v>
+        <v>9123</v>
       </c>
       <c r="AT12" s="13">
-        <v>9533</v>
+        <v>8406</v>
       </c>
       <c r="AU12" s="13">
-        <v>9123</v>
+        <v>8039</v>
       </c>
       <c r="AV12" s="13">
-        <v>8406</v>
+        <v>2656</v>
       </c>
       <c r="AW12" s="13">
-        <v>8039</v>
+        <v>6992</v>
       </c>
       <c r="AX12" s="13">
-        <v>2656</v>
+        <v>7692</v>
       </c>
       <c r="AY12" s="13">
-        <v>6992</v>
+        <v>9280</v>
       </c>
       <c r="AZ12" s="13">
-        <v>7692</v>
+        <v>8800</v>
       </c>
       <c r="BA12" s="13">
-        <v>9280</v>
+        <v>9781</v>
       </c>
       <c r="BB12" s="13">
-        <v>8800</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1885,41 +1885,41 @@
       <c r="AP13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR13" s="11" t="s">
-        <v>58</v>
+      <c r="AQ13" s="11">
+        <v>19150</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>14012</v>
       </c>
       <c r="AS13" s="11">
-        <v>19150</v>
+        <v>35132</v>
       </c>
       <c r="AT13" s="11">
-        <v>14012</v>
+        <v>18165</v>
       </c>
       <c r="AU13" s="11">
-        <v>35132</v>
+        <v>42627</v>
       </c>
       <c r="AV13" s="11">
-        <v>18165</v>
+        <v>22442</v>
       </c>
       <c r="AW13" s="11">
-        <v>42627</v>
+        <v>19095</v>
       </c>
       <c r="AX13" s="11">
-        <v>22442</v>
+        <v>10734</v>
       </c>
       <c r="AY13" s="11">
-        <v>19095</v>
+        <v>20610</v>
       </c>
       <c r="AZ13" s="11">
-        <v>10734</v>
+        <v>24491</v>
       </c>
       <c r="BA13" s="11">
-        <v>20610</v>
+        <v>27753</v>
       </c>
       <c r="BB13" s="11">
-        <v>24491</v>
+        <v>39470</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2044,41 +2044,41 @@
       <c r="AP14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
+      <c r="AQ14" s="13">
+        <v>10739</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>5959</v>
       </c>
       <c r="AS14" s="13">
-        <v>10739</v>
+        <v>11546</v>
       </c>
       <c r="AT14" s="13">
-        <v>5959</v>
+        <v>6612</v>
       </c>
       <c r="AU14" s="13">
-        <v>11546</v>
+        <v>8651</v>
       </c>
       <c r="AV14" s="13">
-        <v>6612</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="13">
-        <v>8651</v>
+        <v>8701</v>
       </c>
       <c r="AX14" s="13">
-        <v>0</v>
+        <v>10708</v>
       </c>
       <c r="AY14" s="13">
-        <v>8701</v>
+        <v>13311</v>
       </c>
       <c r="AZ14" s="13">
-        <v>10708</v>
+        <v>13465</v>
       </c>
       <c r="BA14" s="13">
-        <v>13311</v>
+        <v>14051</v>
       </c>
       <c r="BB14" s="13">
-        <v>13465</v>
+        <v>11959</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2149,65 +2149,65 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>6638</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>9186</v>
       </c>
       <c r="AA15" s="11">
-        <v>6638</v>
+        <v>10542</v>
       </c>
       <c r="AB15" s="11">
-        <v>9186</v>
+        <v>6633</v>
       </c>
       <c r="AC15" s="11">
-        <v>10542</v>
+        <v>6169</v>
       </c>
       <c r="AD15" s="11">
-        <v>6633</v>
+        <v>5074</v>
       </c>
       <c r="AE15" s="11">
-        <v>6169</v>
+        <v>6669</v>
       </c>
       <c r="AF15" s="11">
-        <v>5074</v>
+        <v>6761</v>
       </c>
       <c r="AG15" s="11">
-        <v>6669</v>
+        <v>5675</v>
       </c>
       <c r="AH15" s="11">
-        <v>6761</v>
+        <v>12973</v>
       </c>
       <c r="AI15" s="11">
-        <v>5675</v>
+        <v>3505</v>
       </c>
       <c r="AJ15" s="11">
-        <v>12973</v>
+        <v>6005</v>
       </c>
       <c r="AK15" s="11">
-        <v>3505</v>
+        <v>6092</v>
       </c>
       <c r="AL15" s="11">
-        <v>6005</v>
+        <v>11728</v>
       </c>
       <c r="AM15" s="11">
-        <v>6092</v>
+        <v>6371</v>
       </c>
       <c r="AN15" s="11">
-        <v>11728</v>
+        <v>7252</v>
       </c>
       <c r="AO15" s="11">
-        <v>6371</v>
+        <v>7207</v>
       </c>
       <c r="AP15" s="11">
-        <v>7252</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>7207</v>
-      </c>
-      <c r="AR15" s="11">
         <v>6506</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS15" s="11" t="s">
         <v>58</v>
@@ -2308,65 +2308,65 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>10931</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>16111</v>
       </c>
       <c r="AA16" s="13">
-        <v>10931</v>
+        <v>21312</v>
       </c>
       <c r="AB16" s="13">
-        <v>16111</v>
+        <v>19485</v>
       </c>
       <c r="AC16" s="13">
-        <v>21312</v>
+        <v>16785</v>
       </c>
       <c r="AD16" s="13">
-        <v>19485</v>
+        <v>20795</v>
       </c>
       <c r="AE16" s="13">
-        <v>16785</v>
+        <v>34861</v>
       </c>
       <c r="AF16" s="13">
-        <v>20795</v>
+        <v>17511</v>
       </c>
       <c r="AG16" s="13">
-        <v>34861</v>
+        <v>27370</v>
       </c>
       <c r="AH16" s="13">
-        <v>17511</v>
+        <v>11532</v>
       </c>
       <c r="AI16" s="13">
-        <v>27370</v>
+        <v>44965</v>
       </c>
       <c r="AJ16" s="13">
-        <v>11532</v>
+        <v>20251</v>
       </c>
       <c r="AK16" s="13">
-        <v>44965</v>
+        <v>23457</v>
       </c>
       <c r="AL16" s="13">
-        <v>20251</v>
+        <v>14147</v>
       </c>
       <c r="AM16" s="13">
-        <v>23457</v>
+        <v>25698</v>
       </c>
       <c r="AN16" s="13">
-        <v>14147</v>
+        <v>17713</v>
       </c>
       <c r="AO16" s="13">
-        <v>25698</v>
+        <v>17073</v>
       </c>
       <c r="AP16" s="13">
-        <v>17713</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>17073</v>
-      </c>
-      <c r="AR16" s="13">
         <v>18028</v>
+      </c>
+      <c r="AQ16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS16" s="13" t="s">
         <v>58</v>
@@ -2494,68 +2494,68 @@
       <c r="AG17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>58</v>
+      <c r="AH17" s="11">
+        <v>3267</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>5331</v>
       </c>
       <c r="AJ17" s="11">
-        <v>3267</v>
+        <v>5166</v>
       </c>
       <c r="AK17" s="11">
-        <v>5331</v>
+        <v>2853</v>
       </c>
       <c r="AL17" s="11">
-        <v>5166</v>
+        <v>5236</v>
       </c>
       <c r="AM17" s="11">
-        <v>2853</v>
+        <v>3199</v>
       </c>
       <c r="AN17" s="11">
-        <v>5236</v>
+        <v>2414</v>
       </c>
       <c r="AO17" s="11">
-        <v>3199</v>
+        <v>97</v>
       </c>
       <c r="AP17" s="11">
-        <v>2414</v>
+        <v>2249</v>
       </c>
       <c r="AQ17" s="11">
-        <v>97</v>
+        <v>1802</v>
       </c>
       <c r="AR17" s="11">
-        <v>2249</v>
+        <v>4211</v>
       </c>
       <c r="AS17" s="11">
-        <v>1802</v>
+        <v>2696</v>
       </c>
       <c r="AT17" s="11">
-        <v>4211</v>
+        <v>2863</v>
       </c>
       <c r="AU17" s="11">
-        <v>2696</v>
+        <v>5403</v>
       </c>
       <c r="AV17" s="11">
-        <v>2863</v>
+        <v>4071</v>
       </c>
       <c r="AW17" s="11">
-        <v>5403</v>
+        <v>1363</v>
       </c>
       <c r="AX17" s="11">
-        <v>4071</v>
+        <v>4248</v>
       </c>
       <c r="AY17" s="11">
-        <v>1363</v>
+        <v>4159</v>
       </c>
       <c r="AZ17" s="11">
-        <v>4447</v>
+        <v>1681</v>
       </c>
       <c r="BA17" s="11">
-        <v>4159</v>
+        <v>4564</v>
       </c>
       <c r="BB17" s="11">
-        <v>1681</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2625,94 +2625,94 @@
         <v>0</v>
       </c>
       <c r="Y18" s="15">
-        <v>0</v>
+        <v>33483</v>
       </c>
       <c r="Z18" s="15">
-        <v>0</v>
+        <v>41008</v>
       </c>
       <c r="AA18" s="15">
-        <v>33483</v>
+        <v>47819</v>
       </c>
       <c r="AB18" s="15">
-        <v>41008</v>
+        <v>40035</v>
       </c>
       <c r="AC18" s="15">
-        <v>47819</v>
+        <v>35867</v>
       </c>
       <c r="AD18" s="15">
-        <v>40035</v>
+        <v>41517</v>
       </c>
       <c r="AE18" s="15">
-        <v>35867</v>
+        <v>53381</v>
       </c>
       <c r="AF18" s="15">
-        <v>41517</v>
+        <v>39166</v>
       </c>
       <c r="AG18" s="15">
-        <v>53381</v>
+        <v>47976</v>
       </c>
       <c r="AH18" s="15">
-        <v>39166</v>
+        <v>37450</v>
       </c>
       <c r="AI18" s="15">
-        <v>47976</v>
+        <v>60115</v>
       </c>
       <c r="AJ18" s="15">
-        <v>37450</v>
+        <v>39460</v>
       </c>
       <c r="AK18" s="15">
-        <v>60115</v>
+        <v>40765</v>
       </c>
       <c r="AL18" s="15">
-        <v>39460</v>
+        <v>39267</v>
       </c>
       <c r="AM18" s="15">
-        <v>40765</v>
+        <v>44256</v>
       </c>
       <c r="AN18" s="15">
-        <v>39267</v>
+        <v>36636</v>
       </c>
       <c r="AO18" s="15">
-        <v>44256</v>
+        <v>33555</v>
       </c>
       <c r="AP18" s="15">
-        <v>36636</v>
+        <v>36203</v>
       </c>
       <c r="AQ18" s="15">
-        <v>33555</v>
+        <v>40505</v>
       </c>
       <c r="AR18" s="15">
-        <v>36203</v>
+        <v>33715</v>
       </c>
       <c r="AS18" s="15">
-        <v>40505</v>
+        <v>58497</v>
       </c>
       <c r="AT18" s="15">
-        <v>33715</v>
+        <v>36046</v>
       </c>
       <c r="AU18" s="15">
-        <v>58497</v>
+        <v>64720</v>
       </c>
       <c r="AV18" s="15">
-        <v>36046</v>
+        <v>29169</v>
       </c>
       <c r="AW18" s="15">
-        <v>64720</v>
+        <v>36151</v>
       </c>
       <c r="AX18" s="15">
-        <v>29169</v>
+        <v>33382</v>
       </c>
       <c r="AY18" s="15">
-        <v>36151</v>
+        <v>47360</v>
       </c>
       <c r="AZ18" s="15">
-        <v>33581</v>
+        <v>48437</v>
       </c>
       <c r="BA18" s="15">
-        <v>47360</v>
+        <v>56149</v>
       </c>
       <c r="BB18" s="15">
-        <v>48437</v>
+        <v>64559</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2894,41 +2894,41 @@
       <c r="AP20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR20" s="11" t="s">
-        <v>58</v>
+      <c r="AQ20" s="11">
+        <v>60643</v>
+      </c>
+      <c r="AR20" s="11">
+        <v>69852</v>
       </c>
       <c r="AS20" s="11">
-        <v>60643</v>
+        <v>41645</v>
       </c>
       <c r="AT20" s="11">
-        <v>69852</v>
+        <v>60128</v>
       </c>
       <c r="AU20" s="11">
-        <v>41645</v>
+        <v>39855</v>
       </c>
       <c r="AV20" s="11">
-        <v>60128</v>
+        <v>58493</v>
       </c>
       <c r="AW20" s="11">
-        <v>39855</v>
+        <v>52625</v>
       </c>
       <c r="AX20" s="11">
-        <v>58493</v>
+        <v>64975</v>
       </c>
       <c r="AY20" s="11">
-        <v>52625</v>
+        <v>55153</v>
       </c>
       <c r="AZ20" s="11">
-        <v>64975</v>
+        <v>30369</v>
       </c>
       <c r="BA20" s="11">
-        <v>55153</v>
+        <v>41134</v>
       </c>
       <c r="BB20" s="11">
-        <v>30369</v>
+        <v>32294</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3053,41 +3053,41 @@
       <c r="AP21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR21" s="13" t="s">
-        <v>58</v>
+      <c r="AQ21" s="13">
+        <v>1465</v>
+      </c>
+      <c r="AR21" s="13">
+        <v>6605</v>
       </c>
       <c r="AS21" s="13">
-        <v>1465</v>
+        <v>85</v>
       </c>
       <c r="AT21" s="13">
-        <v>6605</v>
+        <v>5269</v>
       </c>
       <c r="AU21" s="13">
-        <v>85</v>
+        <v>2123</v>
       </c>
       <c r="AV21" s="13">
-        <v>5269</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="13">
-        <v>2123</v>
+        <v>700</v>
       </c>
       <c r="AX21" s="13">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="AY21" s="13">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="AZ21" s="13">
-        <v>301</v>
+        <v>58</v>
       </c>
       <c r="BA21" s="13">
-        <v>636</v>
+        <v>147</v>
       </c>
       <c r="BB21" s="13">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3158,65 +3158,65 @@
       <c r="X22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z22" s="11" t="s">
-        <v>58</v>
+      <c r="Y22" s="11">
+        <v>66455</v>
+      </c>
+      <c r="Z22" s="11">
+        <v>60310</v>
       </c>
       <c r="AA22" s="11">
-        <v>66455</v>
+        <v>62424</v>
       </c>
       <c r="AB22" s="11">
-        <v>60310</v>
+        <v>58844</v>
       </c>
       <c r="AC22" s="11">
-        <v>62424</v>
+        <v>64256</v>
       </c>
       <c r="AD22" s="11">
-        <v>58844</v>
+        <v>58813</v>
       </c>
       <c r="AE22" s="11">
-        <v>64256</v>
+        <v>42062</v>
       </c>
       <c r="AF22" s="11">
-        <v>58813</v>
+        <v>61872</v>
       </c>
       <c r="AG22" s="11">
-        <v>42062</v>
+        <v>45416</v>
       </c>
       <c r="AH22" s="11">
-        <v>61872</v>
+        <v>38497</v>
       </c>
       <c r="AI22" s="11">
-        <v>45416</v>
+        <v>37751</v>
       </c>
       <c r="AJ22" s="11">
-        <v>38497</v>
+        <v>65527</v>
       </c>
       <c r="AK22" s="11">
-        <v>37751</v>
+        <v>58200</v>
       </c>
       <c r="AL22" s="11">
-        <v>65527</v>
+        <v>68051</v>
       </c>
       <c r="AM22" s="11">
-        <v>58200</v>
+        <v>54147</v>
       </c>
       <c r="AN22" s="11">
-        <v>68051</v>
+        <v>60735</v>
       </c>
       <c r="AO22" s="11">
-        <v>54147</v>
+        <v>61740</v>
       </c>
       <c r="AP22" s="11">
-        <v>60735</v>
-      </c>
-      <c r="AQ22" s="11">
-        <v>61740</v>
-      </c>
-      <c r="AR22" s="11">
         <v>61853</v>
+      </c>
+      <c r="AQ22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS22" s="11" t="s">
         <v>58</v>
@@ -3317,65 +3317,65 @@
       <c r="X23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>58</v>
+      <c r="Y23" s="13">
+        <v>5754</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>2635</v>
       </c>
       <c r="AA23" s="13">
-        <v>5754</v>
+        <v>3459</v>
       </c>
       <c r="AB23" s="13">
-        <v>2635</v>
+        <v>6943</v>
       </c>
       <c r="AC23" s="13">
-        <v>3459</v>
+        <v>7323</v>
       </c>
       <c r="AD23" s="13">
-        <v>6943</v>
+        <v>2842</v>
       </c>
       <c r="AE23" s="13">
-        <v>7323</v>
+        <v>6769</v>
       </c>
       <c r="AF23" s="13">
-        <v>2842</v>
+        <v>6879</v>
       </c>
       <c r="AG23" s="13">
-        <v>6769</v>
+        <v>7498</v>
       </c>
       <c r="AH23" s="13">
-        <v>6879</v>
+        <v>1116</v>
       </c>
       <c r="AI23" s="13">
-        <v>7498</v>
+        <v>5790</v>
       </c>
       <c r="AJ23" s="13">
-        <v>1116</v>
+        <v>5768</v>
       </c>
       <c r="AK23" s="13">
-        <v>5790</v>
+        <v>5230</v>
       </c>
       <c r="AL23" s="13">
-        <v>5768</v>
+        <v>344</v>
       </c>
       <c r="AM23" s="13">
-        <v>5230</v>
+        <v>6796</v>
       </c>
       <c r="AN23" s="13">
-        <v>344</v>
+        <v>5767</v>
       </c>
       <c r="AO23" s="13">
-        <v>6796</v>
+        <v>6426</v>
       </c>
       <c r="AP23" s="13">
-        <v>5767</v>
-      </c>
-      <c r="AQ23" s="13">
-        <v>6426</v>
-      </c>
-      <c r="AR23" s="13">
         <v>3386</v>
+      </c>
+      <c r="AQ23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS23" s="13" t="s">
         <v>58</v>
@@ -3475,94 +3475,94 @@
         <v>0</v>
       </c>
       <c r="Y24" s="17">
-        <v>0</v>
+        <v>72209</v>
       </c>
       <c r="Z24" s="17">
-        <v>0</v>
+        <v>62945</v>
       </c>
       <c r="AA24" s="17">
-        <v>72209</v>
+        <v>65883</v>
       </c>
       <c r="AB24" s="17">
-        <v>62945</v>
+        <v>65787</v>
       </c>
       <c r="AC24" s="17">
-        <v>65883</v>
+        <v>71579</v>
       </c>
       <c r="AD24" s="17">
-        <v>65787</v>
+        <v>61655</v>
       </c>
       <c r="AE24" s="17">
-        <v>71579</v>
+        <v>48831</v>
       </c>
       <c r="AF24" s="17">
-        <v>61655</v>
+        <v>68751</v>
       </c>
       <c r="AG24" s="17">
-        <v>48831</v>
+        <v>52914</v>
       </c>
       <c r="AH24" s="17">
-        <v>68751</v>
+        <v>39613</v>
       </c>
       <c r="AI24" s="17">
-        <v>52914</v>
+        <v>43541</v>
       </c>
       <c r="AJ24" s="17">
-        <v>39613</v>
+        <v>71295</v>
       </c>
       <c r="AK24" s="17">
-        <v>43541</v>
+        <v>63430</v>
       </c>
       <c r="AL24" s="17">
-        <v>71295</v>
+        <v>68395</v>
       </c>
       <c r="AM24" s="17">
-        <v>63430</v>
+        <v>60943</v>
       </c>
       <c r="AN24" s="17">
-        <v>68395</v>
+        <v>66502</v>
       </c>
       <c r="AO24" s="17">
-        <v>60943</v>
+        <v>68166</v>
       </c>
       <c r="AP24" s="17">
-        <v>66502</v>
+        <v>65239</v>
       </c>
       <c r="AQ24" s="17">
-        <v>68166</v>
+        <v>62108</v>
       </c>
       <c r="AR24" s="17">
-        <v>65239</v>
+        <v>76457</v>
       </c>
       <c r="AS24" s="17">
-        <v>62108</v>
+        <v>41730</v>
       </c>
       <c r="AT24" s="17">
-        <v>76457</v>
+        <v>65397</v>
       </c>
       <c r="AU24" s="17">
-        <v>41730</v>
+        <v>41978</v>
       </c>
       <c r="AV24" s="17">
-        <v>65397</v>
+        <v>58493</v>
       </c>
       <c r="AW24" s="17">
-        <v>41978</v>
+        <v>53325</v>
       </c>
       <c r="AX24" s="17">
-        <v>58493</v>
+        <v>65276</v>
       </c>
       <c r="AY24" s="17">
-        <v>53325</v>
+        <v>55789</v>
       </c>
       <c r="AZ24" s="17">
-        <v>65276</v>
+        <v>30427</v>
       </c>
       <c r="BA24" s="17">
-        <v>55789</v>
+        <v>41281</v>
       </c>
       <c r="BB24" s="17">
-        <v>30427</v>
+        <v>32318</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3688,11 +3688,11 @@
       <c r="X26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z26" s="17" t="s">
-        <v>58</v>
+      <c r="Y26" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="17">
+        <v>0</v>
       </c>
       <c r="AA26" s="17">
         <v>0</v>
@@ -3846,94 +3846,94 @@
         <v>0</v>
       </c>
       <c r="Y27" s="15">
-        <v>0</v>
+        <v>105692</v>
       </c>
       <c r="Z27" s="15">
-        <v>0</v>
+        <v>103953</v>
       </c>
       <c r="AA27" s="15">
-        <v>105692</v>
+        <v>113702</v>
       </c>
       <c r="AB27" s="15">
-        <v>103953</v>
+        <v>105822</v>
       </c>
       <c r="AC27" s="15">
-        <v>113702</v>
+        <v>107446</v>
       </c>
       <c r="AD27" s="15">
-        <v>105822</v>
+        <v>103172</v>
       </c>
       <c r="AE27" s="15">
-        <v>107446</v>
+        <v>102212</v>
       </c>
       <c r="AF27" s="15">
-        <v>103172</v>
+        <v>107917</v>
       </c>
       <c r="AG27" s="15">
-        <v>102212</v>
+        <v>100890</v>
       </c>
       <c r="AH27" s="15">
-        <v>107917</v>
+        <v>77063</v>
       </c>
       <c r="AI27" s="15">
-        <v>100890</v>
+        <v>103656</v>
       </c>
       <c r="AJ27" s="15">
-        <v>77063</v>
+        <v>110755</v>
       </c>
       <c r="AK27" s="15">
-        <v>103656</v>
+        <v>104195</v>
       </c>
       <c r="AL27" s="15">
-        <v>110755</v>
+        <v>107662</v>
       </c>
       <c r="AM27" s="15">
-        <v>104195</v>
+        <v>105199</v>
       </c>
       <c r="AN27" s="15">
-        <v>107662</v>
+        <v>103138</v>
       </c>
       <c r="AO27" s="15">
-        <v>105199</v>
+        <v>101721</v>
       </c>
       <c r="AP27" s="15">
-        <v>103138</v>
+        <v>101442</v>
       </c>
       <c r="AQ27" s="15">
-        <v>101721</v>
+        <v>102613</v>
       </c>
       <c r="AR27" s="15">
-        <v>101442</v>
+        <v>110172</v>
       </c>
       <c r="AS27" s="15">
-        <v>102613</v>
+        <v>100227</v>
       </c>
       <c r="AT27" s="15">
-        <v>110172</v>
+        <v>101443</v>
       </c>
       <c r="AU27" s="15">
-        <v>100227</v>
+        <v>106698</v>
       </c>
       <c r="AV27" s="15">
-        <v>101443</v>
+        <v>87662</v>
       </c>
       <c r="AW27" s="15">
-        <v>106698</v>
+        <v>89476</v>
       </c>
       <c r="AX27" s="15">
-        <v>87662</v>
+        <v>98658</v>
       </c>
       <c r="AY27" s="15">
-        <v>89476</v>
+        <v>103149</v>
       </c>
       <c r="AZ27" s="15">
-        <v>98857</v>
+        <v>78864</v>
       </c>
       <c r="BA27" s="15">
-        <v>103149</v>
+        <v>97430</v>
       </c>
       <c r="BB27" s="15">
-        <v>78864</v>
+        <v>96877</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -4438,38 +4438,38 @@
       <c r="X34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z34" s="11" t="s">
-        <v>58</v>
+      <c r="Y34" s="11">
+        <v>7144</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>7012</v>
       </c>
       <c r="AA34" s="11">
-        <v>7144</v>
+        <v>6655</v>
       </c>
       <c r="AB34" s="11">
-        <v>7012</v>
+        <v>4729</v>
       </c>
       <c r="AC34" s="11">
-        <v>6655</v>
+        <v>3519</v>
       </c>
       <c r="AD34" s="11">
-        <v>4729</v>
+        <v>6590</v>
       </c>
       <c r="AE34" s="11">
-        <v>3519</v>
+        <v>2193</v>
       </c>
       <c r="AF34" s="11">
-        <v>6590</v>
+        <v>5233</v>
       </c>
       <c r="AG34" s="11">
-        <v>2193</v>
-      </c>
-      <c r="AH34" s="11">
-        <v>5233</v>
-      </c>
-      <c r="AI34" s="11">
         <v>5491</v>
+      </c>
+      <c r="AH34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI34" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ34" s="11" t="s">
         <v>58</v>
@@ -4597,95 +4597,95 @@
       <c r="X35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z35" s="13" t="s">
-        <v>58</v>
+      <c r="Y35" s="13">
+        <v>1397</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>1426</v>
       </c>
       <c r="AA35" s="13">
-        <v>1397</v>
+        <v>1481</v>
       </c>
       <c r="AB35" s="13">
-        <v>1426</v>
+        <v>1467</v>
       </c>
       <c r="AC35" s="13">
+        <v>1577</v>
+      </c>
+      <c r="AD35" s="13">
+        <v>1446</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>1786</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>1764</v>
+      </c>
+      <c r="AG35" s="13">
+        <v>1517</v>
+      </c>
+      <c r="AH35" s="13">
+        <v>1680</v>
+      </c>
+      <c r="AI35" s="13">
+        <v>858</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>1371</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>1424</v>
+      </c>
+      <c r="AL35" s="13">
+        <v>1266</v>
+      </c>
+      <c r="AM35" s="13">
+        <v>1605</v>
+      </c>
+      <c r="AN35" s="13">
         <v>1481</v>
       </c>
-      <c r="AD35" s="13">
-        <v>1467</v>
-      </c>
-      <c r="AE35" s="13">
-        <v>1577</v>
-      </c>
-      <c r="AF35" s="13">
-        <v>1446</v>
-      </c>
-      <c r="AG35" s="13">
-        <v>1786</v>
-      </c>
-      <c r="AH35" s="13">
-        <v>1764</v>
-      </c>
-      <c r="AI35" s="13">
-        <v>1517</v>
-      </c>
-      <c r="AJ35" s="13">
-        <v>1680</v>
-      </c>
-      <c r="AK35" s="13">
-        <v>858</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>1371</v>
-      </c>
-      <c r="AM35" s="13">
-        <v>1424</v>
-      </c>
-      <c r="AN35" s="13">
-        <v>1266</v>
-      </c>
       <c r="AO35" s="13">
-        <v>1605</v>
+        <v>1076</v>
       </c>
       <c r="AP35" s="13">
-        <v>1481</v>
+        <v>1204</v>
       </c>
       <c r="AQ35" s="13">
-        <v>1076</v>
+        <v>579</v>
       </c>
       <c r="AR35" s="13">
-        <v>1204</v>
+        <v>1014</v>
       </c>
       <c r="AS35" s="13">
-        <v>579</v>
+        <v>929</v>
       </c>
       <c r="AT35" s="13">
-        <v>1014</v>
+        <v>883</v>
       </c>
       <c r="AU35" s="13">
-        <v>929</v>
+        <v>1243</v>
       </c>
       <c r="AV35" s="13">
-        <v>883</v>
+        <v>78</v>
       </c>
       <c r="AW35" s="13">
-        <v>1243</v>
+        <v>757</v>
       </c>
       <c r="AX35" s="13">
-        <v>78</v>
+        <v>1172</v>
       </c>
       <c r="AY35" s="13">
-        <v>757</v>
+        <v>1142</v>
       </c>
       <c r="AZ35" s="13">
-        <v>1172</v>
+        <v>1339</v>
       </c>
       <c r="BA35" s="13">
-        <v>1142</v>
+        <v>1587</v>
       </c>
       <c r="BB35" s="13">
-        <v>1339</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4810,41 +4810,41 @@
       <c r="AP36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR36" s="11" t="s">
-        <v>58</v>
+      <c r="AQ36" s="11">
+        <v>17789</v>
+      </c>
+      <c r="AR36" s="11">
+        <v>16192</v>
       </c>
       <c r="AS36" s="11">
-        <v>17789</v>
+        <v>16766</v>
       </c>
       <c r="AT36" s="11">
-        <v>16192</v>
+        <v>18021</v>
       </c>
       <c r="AU36" s="11">
-        <v>16766</v>
+        <v>19267</v>
       </c>
       <c r="AV36" s="11">
-        <v>18021</v>
+        <v>17022</v>
       </c>
       <c r="AW36" s="11">
-        <v>19267</v>
+        <v>16605</v>
       </c>
       <c r="AX36" s="11">
-        <v>17022</v>
+        <v>21493</v>
       </c>
       <c r="AY36" s="11">
-        <v>16605</v>
+        <v>20210</v>
       </c>
       <c r="AZ36" s="11">
-        <v>21493</v>
+        <v>14477</v>
       </c>
       <c r="BA36" s="11">
-        <v>20210</v>
+        <v>21750</v>
       </c>
       <c r="BB36" s="11">
-        <v>14477</v>
+        <v>25812</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4969,41 +4969,41 @@
       <c r="AP37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR37" s="13" t="s">
-        <v>58</v>
+      <c r="AQ37" s="13">
+        <v>8060</v>
+      </c>
+      <c r="AR37" s="13">
+        <v>9127</v>
       </c>
       <c r="AS37" s="13">
-        <v>8060</v>
+        <v>5824</v>
       </c>
       <c r="AT37" s="13">
-        <v>9127</v>
+        <v>7621</v>
       </c>
       <c r="AU37" s="13">
-        <v>5824</v>
+        <v>6799</v>
       </c>
       <c r="AV37" s="13">
-        <v>7621</v>
+        <v>7194</v>
       </c>
       <c r="AW37" s="13">
-        <v>6799</v>
+        <v>6162</v>
       </c>
       <c r="AX37" s="13">
-        <v>7194</v>
+        <v>9923</v>
       </c>
       <c r="AY37" s="13">
-        <v>6162</v>
+        <v>9506</v>
       </c>
       <c r="AZ37" s="13">
-        <v>9923</v>
+        <v>8995</v>
       </c>
       <c r="BA37" s="13">
-        <v>9506</v>
+        <v>10841</v>
       </c>
       <c r="BB37" s="13">
-        <v>8995</v>
+        <v>9747</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5074,65 +5074,65 @@
       <c r="X38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z38" s="11" t="s">
-        <v>58</v>
+      <c r="Y38" s="11">
+        <v>7885</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>8712</v>
       </c>
       <c r="AA38" s="11">
-        <v>7885</v>
+        <v>9172</v>
       </c>
       <c r="AB38" s="11">
-        <v>8712</v>
+        <v>7665</v>
       </c>
       <c r="AC38" s="11">
-        <v>9172</v>
+        <v>6756</v>
       </c>
       <c r="AD38" s="11">
-        <v>7665</v>
+        <v>5791</v>
       </c>
       <c r="AE38" s="11">
-        <v>6756</v>
+        <v>6061</v>
       </c>
       <c r="AF38" s="11">
-        <v>5791</v>
+        <v>6108</v>
       </c>
       <c r="AG38" s="11">
-        <v>6061</v>
+        <v>7300</v>
       </c>
       <c r="AH38" s="11">
-        <v>6108</v>
+        <v>5361</v>
       </c>
       <c r="AI38" s="11">
-        <v>7300</v>
+        <v>6135</v>
       </c>
       <c r="AJ38" s="11">
-        <v>5361</v>
+        <v>6838</v>
       </c>
       <c r="AK38" s="11">
-        <v>6135</v>
+        <v>6276</v>
       </c>
       <c r="AL38" s="11">
-        <v>6838</v>
+        <v>7093</v>
       </c>
       <c r="AM38" s="11">
-        <v>6276</v>
+        <v>7612</v>
       </c>
       <c r="AN38" s="11">
-        <v>7093</v>
+        <v>7140</v>
       </c>
       <c r="AO38" s="11">
-        <v>7612</v>
+        <v>6167</v>
       </c>
       <c r="AP38" s="11">
-        <v>7140</v>
-      </c>
-      <c r="AQ38" s="11">
-        <v>6167</v>
-      </c>
-      <c r="AR38" s="11">
         <v>6851</v>
+      </c>
+      <c r="AQ38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS38" s="11" t="s">
         <v>58</v>
@@ -5233,65 +5233,65 @@
       <c r="X39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z39" s="13" t="s">
-        <v>58</v>
+      <c r="Y39" s="13">
+        <v>13617</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>16798</v>
       </c>
       <c r="AA39" s="13">
-        <v>13617</v>
+        <v>18409</v>
       </c>
       <c r="AB39" s="13">
-        <v>16798</v>
+        <v>19437</v>
       </c>
       <c r="AC39" s="13">
-        <v>18409</v>
+        <v>16405</v>
       </c>
       <c r="AD39" s="13">
-        <v>19437</v>
+        <v>18030</v>
       </c>
       <c r="AE39" s="13">
-        <v>16405</v>
+        <v>23442</v>
       </c>
       <c r="AF39" s="13">
-        <v>18030</v>
+        <v>19989</v>
       </c>
       <c r="AG39" s="13">
-        <v>23442</v>
+        <v>26480</v>
       </c>
       <c r="AH39" s="13">
-        <v>19989</v>
+        <v>11565</v>
       </c>
       <c r="AI39" s="13">
-        <v>26480</v>
+        <v>21495</v>
       </c>
       <c r="AJ39" s="13">
-        <v>11565</v>
+        <v>17629</v>
       </c>
       <c r="AK39" s="13">
-        <v>21495</v>
+        <v>18553</v>
       </c>
       <c r="AL39" s="13">
-        <v>17629</v>
+        <v>19804</v>
       </c>
       <c r="AM39" s="13">
-        <v>18553</v>
+        <v>20352</v>
       </c>
       <c r="AN39" s="13">
-        <v>19804</v>
+        <v>16571</v>
       </c>
       <c r="AO39" s="13">
-        <v>20352</v>
+        <v>19913</v>
       </c>
       <c r="AP39" s="13">
-        <v>16571</v>
-      </c>
-      <c r="AQ39" s="13">
-        <v>19913</v>
-      </c>
-      <c r="AR39" s="13">
         <v>20351</v>
+      </c>
+      <c r="AQ39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS39" s="13" t="s">
         <v>58</v>
@@ -5419,68 +5419,68 @@
       <c r="AG40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI40" s="11" t="s">
-        <v>58</v>
+      <c r="AH40" s="11">
+        <v>3267</v>
+      </c>
+      <c r="AI40" s="11">
+        <v>5331</v>
       </c>
       <c r="AJ40" s="11">
-        <v>3267</v>
+        <v>5166</v>
       </c>
       <c r="AK40" s="11">
-        <v>5331</v>
+        <v>2853</v>
       </c>
       <c r="AL40" s="11">
-        <v>5166</v>
+        <v>5236</v>
       </c>
       <c r="AM40" s="11">
-        <v>2853</v>
+        <v>3199</v>
       </c>
       <c r="AN40" s="11">
-        <v>5236</v>
+        <v>2414</v>
       </c>
       <c r="AO40" s="11">
-        <v>3199</v>
+        <v>97</v>
       </c>
       <c r="AP40" s="11">
-        <v>2414</v>
+        <v>2249</v>
       </c>
       <c r="AQ40" s="11">
-        <v>97</v>
+        <v>1802</v>
       </c>
       <c r="AR40" s="11">
-        <v>2249</v>
+        <v>4576</v>
       </c>
       <c r="AS40" s="11">
-        <v>1802</v>
+        <v>2696</v>
       </c>
       <c r="AT40" s="11">
-        <v>4211</v>
+        <v>2863</v>
       </c>
       <c r="AU40" s="11">
-        <v>2696</v>
+        <v>5403</v>
       </c>
       <c r="AV40" s="11">
-        <v>2863</v>
+        <v>4071</v>
       </c>
       <c r="AW40" s="11">
-        <v>5403</v>
+        <v>1363</v>
       </c>
       <c r="AX40" s="11">
-        <v>4071</v>
+        <v>4248</v>
       </c>
       <c r="AY40" s="11">
-        <v>1363</v>
+        <v>4159</v>
       </c>
       <c r="AZ40" s="11">
-        <v>4248</v>
+        <v>1681</v>
       </c>
       <c r="BA40" s="11">
-        <v>4159</v>
+        <v>4564</v>
       </c>
       <c r="BB40" s="11">
-        <v>1681</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5550,94 +5550,94 @@
         <v>0</v>
       </c>
       <c r="Y41" s="15">
-        <v>0</v>
+        <v>30043</v>
       </c>
       <c r="Z41" s="15">
-        <v>0</v>
+        <v>33948</v>
       </c>
       <c r="AA41" s="15">
-        <v>30043</v>
+        <v>35717</v>
       </c>
       <c r="AB41" s="15">
-        <v>33948</v>
+        <v>33298</v>
       </c>
       <c r="AC41" s="15">
-        <v>35717</v>
+        <v>28257</v>
       </c>
       <c r="AD41" s="15">
-        <v>33298</v>
+        <v>31857</v>
       </c>
       <c r="AE41" s="15">
-        <v>28257</v>
+        <v>33482</v>
       </c>
       <c r="AF41" s="15">
-        <v>31857</v>
+        <v>33094</v>
       </c>
       <c r="AG41" s="15">
-        <v>33482</v>
+        <v>40788</v>
       </c>
       <c r="AH41" s="15">
-        <v>33094</v>
+        <v>21873</v>
       </c>
       <c r="AI41" s="15">
-        <v>40788</v>
+        <v>33819</v>
       </c>
       <c r="AJ41" s="15">
-        <v>21873</v>
+        <v>31004</v>
       </c>
       <c r="AK41" s="15">
-        <v>33819</v>
+        <v>29106</v>
       </c>
       <c r="AL41" s="15">
-        <v>31004</v>
+        <v>33399</v>
       </c>
       <c r="AM41" s="15">
-        <v>29106</v>
+        <v>32768</v>
       </c>
       <c r="AN41" s="15">
-        <v>33399</v>
+        <v>27606</v>
       </c>
       <c r="AO41" s="15">
-        <v>32768</v>
+        <v>27253</v>
       </c>
       <c r="AP41" s="15">
-        <v>27606</v>
+        <v>30655</v>
       </c>
       <c r="AQ41" s="15">
-        <v>27253</v>
+        <v>28230</v>
       </c>
       <c r="AR41" s="15">
-        <v>30655</v>
+        <v>30909</v>
       </c>
       <c r="AS41" s="15">
-        <v>28230</v>
+        <v>26215</v>
       </c>
       <c r="AT41" s="15">
-        <v>30544</v>
+        <v>29388</v>
       </c>
       <c r="AU41" s="15">
-        <v>26215</v>
+        <v>32712</v>
       </c>
       <c r="AV41" s="15">
-        <v>29388</v>
+        <v>28365</v>
       </c>
       <c r="AW41" s="15">
-        <v>32712</v>
+        <v>24887</v>
       </c>
       <c r="AX41" s="15">
-        <v>28365</v>
+        <v>36836</v>
       </c>
       <c r="AY41" s="15">
-        <v>24887</v>
+        <v>35017</v>
       </c>
       <c r="AZ41" s="15">
-        <v>36836</v>
+        <v>26492</v>
       </c>
       <c r="BA41" s="15">
-        <v>35017</v>
+        <v>38742</v>
       </c>
       <c r="BB41" s="15">
-        <v>26492</v>
+        <v>40169</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5819,41 +5819,41 @@
       <c r="AP43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR43" s="11" t="s">
-        <v>58</v>
+      <c r="AQ43" s="11">
+        <v>57571</v>
+      </c>
+      <c r="AR43" s="11">
+        <v>80721</v>
       </c>
       <c r="AS43" s="11">
-        <v>57571</v>
+        <v>19874</v>
       </c>
       <c r="AT43" s="11">
-        <v>80721</v>
+        <v>59653</v>
       </c>
       <c r="AU43" s="11">
-        <v>19874</v>
+        <v>18014</v>
       </c>
       <c r="AV43" s="11">
-        <v>59653</v>
+        <v>63889</v>
       </c>
       <c r="AW43" s="11">
-        <v>18014</v>
+        <v>45763</v>
       </c>
       <c r="AX43" s="11">
-        <v>63889</v>
+        <v>130110</v>
       </c>
       <c r="AY43" s="11">
-        <v>45763</v>
+        <v>54084</v>
       </c>
       <c r="AZ43" s="11">
-        <v>130110</v>
+        <v>17952</v>
       </c>
       <c r="BA43" s="11">
-        <v>54084</v>
+        <v>32238</v>
       </c>
       <c r="BB43" s="11">
-        <v>17952</v>
+        <v>21101</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5978,41 +5978,41 @@
       <c r="AP44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR44" s="13" t="s">
-        <v>58</v>
+      <c r="AQ44" s="13">
+        <v>1122</v>
+      </c>
+      <c r="AR44" s="13">
+        <v>10116</v>
       </c>
       <c r="AS44" s="13">
-        <v>1122</v>
+        <v>43</v>
       </c>
       <c r="AT44" s="13">
-        <v>10116</v>
+        <v>6373</v>
       </c>
       <c r="AU44" s="13">
-        <v>43</v>
+        <v>1668</v>
       </c>
       <c r="AV44" s="13">
-        <v>6373</v>
+        <v>115</v>
       </c>
       <c r="AW44" s="13">
-        <v>1668</v>
+        <v>495</v>
       </c>
       <c r="AX44" s="13">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="AY44" s="13">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="AZ44" s="13">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="BA44" s="13">
-        <v>454</v>
+        <v>113</v>
       </c>
       <c r="BB44" s="13">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6083,65 +6083,65 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>82786</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>62879</v>
       </c>
       <c r="AA45" s="11">
-        <v>82786</v>
+        <v>53921</v>
       </c>
       <c r="AB45" s="11">
-        <v>62879</v>
+        <v>58700</v>
       </c>
       <c r="AC45" s="11">
-        <v>53921</v>
+        <v>62799</v>
       </c>
       <c r="AD45" s="11">
-        <v>58700</v>
+        <v>50992</v>
       </c>
       <c r="AE45" s="11">
-        <v>62799</v>
+        <v>28284</v>
       </c>
       <c r="AF45" s="11">
-        <v>50992</v>
+        <v>70625</v>
       </c>
       <c r="AG45" s="11">
-        <v>28284</v>
+        <v>43939</v>
       </c>
       <c r="AH45" s="11">
-        <v>70625</v>
+        <v>38605</v>
       </c>
       <c r="AI45" s="11">
-        <v>43939</v>
+        <v>18047</v>
       </c>
       <c r="AJ45" s="11">
-        <v>38605</v>
+        <v>57043</v>
       </c>
       <c r="AK45" s="11">
-        <v>18047</v>
+        <v>46033</v>
       </c>
       <c r="AL45" s="11">
-        <v>57043</v>
+        <v>75127</v>
       </c>
       <c r="AM45" s="11">
-        <v>46033</v>
+        <v>42883</v>
       </c>
       <c r="AN45" s="11">
-        <v>75127</v>
+        <v>30033</v>
       </c>
       <c r="AO45" s="11">
-        <v>42883</v>
+        <v>72010</v>
       </c>
       <c r="AP45" s="11">
-        <v>30033</v>
-      </c>
-      <c r="AQ45" s="11">
-        <v>72010</v>
-      </c>
-      <c r="AR45" s="11">
         <v>69825</v>
+      </c>
+      <c r="AQ45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS45" s="11" t="s">
         <v>58</v>
@@ -6242,65 +6242,65 @@
       <c r="X46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z46" s="13" t="s">
-        <v>58</v>
+      <c r="Y46" s="13">
+        <v>6835</v>
+      </c>
+      <c r="Z46" s="13">
+        <v>2499</v>
       </c>
       <c r="AA46" s="13">
-        <v>6835</v>
+        <v>3009</v>
       </c>
       <c r="AB46" s="13">
-        <v>2499</v>
+        <v>8023</v>
       </c>
       <c r="AC46" s="13">
-        <v>3009</v>
+        <v>8019</v>
       </c>
       <c r="AD46" s="13">
-        <v>8023</v>
+        <v>3344</v>
       </c>
       <c r="AE46" s="13">
-        <v>8019</v>
+        <v>6152</v>
       </c>
       <c r="AF46" s="13">
-        <v>3344</v>
+        <v>6212</v>
       </c>
       <c r="AG46" s="13">
-        <v>6152</v>
+        <v>9646</v>
       </c>
       <c r="AH46" s="13">
-        <v>6212</v>
+        <v>461</v>
       </c>
       <c r="AI46" s="13">
-        <v>9646</v>
+        <v>10133</v>
       </c>
       <c r="AJ46" s="13">
-        <v>461</v>
+        <v>6570</v>
       </c>
       <c r="AK46" s="13">
-        <v>10133</v>
+        <v>5388</v>
       </c>
       <c r="AL46" s="13">
-        <v>6570</v>
+        <v>208</v>
       </c>
       <c r="AM46" s="13">
-        <v>5388</v>
+        <v>8119</v>
       </c>
       <c r="AN46" s="13">
-        <v>208</v>
+        <v>5677</v>
       </c>
       <c r="AO46" s="13">
-        <v>8119</v>
+        <v>5499</v>
       </c>
       <c r="AP46" s="13">
-        <v>5677</v>
-      </c>
-      <c r="AQ46" s="13">
-        <v>5499</v>
-      </c>
-      <c r="AR46" s="13">
         <v>3565</v>
+      </c>
+      <c r="AQ46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS46" s="13" t="s">
         <v>58</v>
@@ -6400,94 +6400,94 @@
         <v>0</v>
       </c>
       <c r="Y47" s="17">
-        <v>0</v>
+        <v>89621</v>
       </c>
       <c r="Z47" s="17">
-        <v>0</v>
+        <v>65378</v>
       </c>
       <c r="AA47" s="17">
-        <v>89621</v>
+        <v>56930</v>
       </c>
       <c r="AB47" s="17">
-        <v>65378</v>
+        <v>66723</v>
       </c>
       <c r="AC47" s="17">
-        <v>56930</v>
+        <v>70818</v>
       </c>
       <c r="AD47" s="17">
-        <v>66723</v>
+        <v>54336</v>
       </c>
       <c r="AE47" s="17">
-        <v>70818</v>
+        <v>34436</v>
       </c>
       <c r="AF47" s="17">
-        <v>54336</v>
+        <v>76837</v>
       </c>
       <c r="AG47" s="17">
-        <v>34436</v>
+        <v>53585</v>
       </c>
       <c r="AH47" s="17">
-        <v>76837</v>
+        <v>39066</v>
       </c>
       <c r="AI47" s="17">
-        <v>53585</v>
+        <v>28180</v>
       </c>
       <c r="AJ47" s="17">
-        <v>39066</v>
+        <v>63613</v>
       </c>
       <c r="AK47" s="17">
-        <v>28180</v>
+        <v>51421</v>
       </c>
       <c r="AL47" s="17">
-        <v>63613</v>
+        <v>75335</v>
       </c>
       <c r="AM47" s="17">
-        <v>51421</v>
+        <v>51002</v>
       </c>
       <c r="AN47" s="17">
-        <v>75335</v>
+        <v>35710</v>
       </c>
       <c r="AO47" s="17">
-        <v>51002</v>
+        <v>77509</v>
       </c>
       <c r="AP47" s="17">
-        <v>35710</v>
+        <v>73390</v>
       </c>
       <c r="AQ47" s="17">
-        <v>77509</v>
+        <v>58693</v>
       </c>
       <c r="AR47" s="17">
-        <v>73390</v>
+        <v>90837</v>
       </c>
       <c r="AS47" s="17">
-        <v>58693</v>
+        <v>19917</v>
       </c>
       <c r="AT47" s="17">
-        <v>90837</v>
+        <v>66026</v>
       </c>
       <c r="AU47" s="17">
-        <v>19917</v>
+        <v>19682</v>
       </c>
       <c r="AV47" s="17">
-        <v>66026</v>
+        <v>64004</v>
       </c>
       <c r="AW47" s="17">
-        <v>19682</v>
+        <v>46258</v>
       </c>
       <c r="AX47" s="17">
-        <v>64004</v>
+        <v>130389</v>
       </c>
       <c r="AY47" s="17">
-        <v>46259</v>
+        <v>54538</v>
       </c>
       <c r="AZ47" s="17">
-        <v>130389</v>
+        <v>17991</v>
       </c>
       <c r="BA47" s="17">
-        <v>54538</v>
+        <v>32351</v>
       </c>
       <c r="BB47" s="17">
-        <v>17991</v>
+        <v>21120</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6613,11 +6613,11 @@
       <c r="X49" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z49" s="17" t="s">
-        <v>58</v>
+      <c r="Y49" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="17">
+        <v>0</v>
       </c>
       <c r="AA49" s="17">
         <v>0</v>
@@ -6827,11 +6827,11 @@
       <c r="X51" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z51" s="17" t="s">
-        <v>58</v>
+      <c r="Y51" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="17">
+        <v>0</v>
       </c>
       <c r="AA51" s="17">
         <v>0</v>
@@ -6985,94 +6985,94 @@
         <v>0</v>
       </c>
       <c r="Y52" s="15">
-        <v>0</v>
+        <v>119664</v>
       </c>
       <c r="Z52" s="15">
-        <v>0</v>
+        <v>99326</v>
       </c>
       <c r="AA52" s="15">
-        <v>119664</v>
+        <v>92647</v>
       </c>
       <c r="AB52" s="15">
-        <v>99326</v>
+        <v>100021</v>
       </c>
       <c r="AC52" s="15">
-        <v>92647</v>
+        <v>99075</v>
       </c>
       <c r="AD52" s="15">
-        <v>100021</v>
+        <v>86193</v>
       </c>
       <c r="AE52" s="15">
-        <v>99075</v>
+        <v>67918</v>
       </c>
       <c r="AF52" s="15">
-        <v>86193</v>
+        <v>109931</v>
       </c>
       <c r="AG52" s="15">
-        <v>67918</v>
+        <v>94373</v>
       </c>
       <c r="AH52" s="15">
-        <v>109931</v>
+        <v>60939</v>
       </c>
       <c r="AI52" s="15">
-        <v>94373</v>
+        <v>61999</v>
       </c>
       <c r="AJ52" s="15">
-        <v>60939</v>
+        <v>94617</v>
       </c>
       <c r="AK52" s="15">
-        <v>61999</v>
+        <v>80527</v>
       </c>
       <c r="AL52" s="15">
-        <v>94617</v>
+        <v>108734</v>
       </c>
       <c r="AM52" s="15">
-        <v>80527</v>
+        <v>83770</v>
       </c>
       <c r="AN52" s="15">
-        <v>108734</v>
+        <v>63316</v>
       </c>
       <c r="AO52" s="15">
-        <v>83770</v>
+        <v>104762</v>
       </c>
       <c r="AP52" s="15">
-        <v>63316</v>
+        <v>104045</v>
       </c>
       <c r="AQ52" s="15">
-        <v>104762</v>
+        <v>86923</v>
       </c>
       <c r="AR52" s="15">
-        <v>104045</v>
+        <v>121746</v>
       </c>
       <c r="AS52" s="15">
-        <v>86923</v>
+        <v>46132</v>
       </c>
       <c r="AT52" s="15">
-        <v>121381</v>
+        <v>95414</v>
       </c>
       <c r="AU52" s="15">
-        <v>46132</v>
+        <v>52394</v>
       </c>
       <c r="AV52" s="15">
-        <v>95414</v>
+        <v>92369</v>
       </c>
       <c r="AW52" s="15">
-        <v>52394</v>
+        <v>71145</v>
       </c>
       <c r="AX52" s="15">
-        <v>92369</v>
+        <v>167225</v>
       </c>
       <c r="AY52" s="15">
-        <v>71146</v>
+        <v>89555</v>
       </c>
       <c r="AZ52" s="15">
-        <v>167225</v>
+        <v>44483</v>
       </c>
       <c r="BA52" s="15">
-        <v>89555</v>
+        <v>71093</v>
       </c>
       <c r="BB52" s="15">
-        <v>44483</v>
+        <v>61289</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7577,38 +7577,38 @@
       <c r="X59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z59" s="11" t="s">
-        <v>58</v>
+      <c r="Y59" s="11">
+        <v>38445</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>35402</v>
       </c>
       <c r="AA59" s="11">
-        <v>38445</v>
+        <v>33346</v>
       </c>
       <c r="AB59" s="11">
-        <v>35402</v>
+        <v>26747</v>
       </c>
       <c r="AC59" s="11">
-        <v>33346</v>
+        <v>19738</v>
       </c>
       <c r="AD59" s="11">
-        <v>26747</v>
+        <v>38442</v>
       </c>
       <c r="AE59" s="11">
-        <v>19738</v>
+        <v>17918</v>
       </c>
       <c r="AF59" s="11">
-        <v>38442</v>
+        <v>35604</v>
       </c>
       <c r="AG59" s="11">
-        <v>17918</v>
-      </c>
-      <c r="AH59" s="11">
-        <v>35604</v>
-      </c>
-      <c r="AI59" s="11">
         <v>36166</v>
+      </c>
+      <c r="AH59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ59" s="11" t="s">
         <v>58</v>
@@ -7736,95 +7736,95 @@
       <c r="X60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z60" s="13" t="s">
-        <v>58</v>
+      <c r="Y60" s="13">
+        <v>31144</v>
+      </c>
+      <c r="Z60" s="13">
+        <v>31791</v>
       </c>
       <c r="AA60" s="13">
-        <v>31144</v>
+        <v>33017</v>
       </c>
       <c r="AB60" s="13">
-        <v>31791</v>
+        <v>33556</v>
       </c>
       <c r="AC60" s="13">
-        <v>33017</v>
+        <v>36072</v>
       </c>
       <c r="AD60" s="13">
-        <v>33556</v>
+        <v>33075</v>
       </c>
       <c r="AE60" s="13">
-        <v>36072</v>
+        <v>40852</v>
       </c>
       <c r="AF60" s="13">
-        <v>33075</v>
+        <v>40349</v>
       </c>
       <c r="AG60" s="13">
-        <v>40852</v>
+        <v>39120</v>
       </c>
       <c r="AH60" s="13">
-        <v>40349</v>
+        <v>43324</v>
       </c>
       <c r="AI60" s="13">
-        <v>39120</v>
+        <v>22126</v>
       </c>
       <c r="AJ60" s="13">
-        <v>43324</v>
+        <v>35355</v>
       </c>
       <c r="AK60" s="13">
-        <v>22126</v>
+        <v>36722</v>
       </c>
       <c r="AL60" s="13">
-        <v>35355</v>
+        <v>32648</v>
       </c>
       <c r="AM60" s="13">
-        <v>36722</v>
+        <v>48830</v>
       </c>
       <c r="AN60" s="13">
-        <v>32648</v>
+        <v>45058</v>
       </c>
       <c r="AO60" s="13">
-        <v>48830</v>
+        <v>32736</v>
       </c>
       <c r="AP60" s="13">
-        <v>45058</v>
+        <v>36630</v>
       </c>
       <c r="AQ60" s="13">
-        <v>32736</v>
+        <v>473151</v>
       </c>
       <c r="AR60" s="13">
-        <v>36630</v>
+        <v>67673</v>
       </c>
       <c r="AS60" s="13">
-        <v>473151</v>
+        <v>62001</v>
       </c>
       <c r="AT60" s="13">
-        <v>67673</v>
+        <v>58930</v>
       </c>
       <c r="AU60" s="13">
-        <v>62001</v>
+        <v>82957</v>
       </c>
       <c r="AV60" s="13">
-        <v>58930</v>
+        <v>51873</v>
       </c>
       <c r="AW60" s="13">
-        <v>82957</v>
+        <v>373298</v>
       </c>
       <c r="AX60" s="13">
-        <v>5206</v>
+        <v>103034</v>
       </c>
       <c r="AY60" s="13">
-        <v>373298</v>
+        <v>100397</v>
       </c>
       <c r="AZ60" s="13">
-        <v>103034</v>
+        <v>117716</v>
       </c>
       <c r="BA60" s="13">
-        <v>100397</v>
+        <v>139518</v>
       </c>
       <c r="BB60" s="13">
-        <v>117716</v>
+        <v>118683</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7949,41 +7949,41 @@
       <c r="AP61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR61" s="11" t="s">
-        <v>58</v>
+      <c r="AQ61" s="11">
+        <v>1420312</v>
+      </c>
+      <c r="AR61" s="11">
+        <v>1316272</v>
       </c>
       <c r="AS61" s="11">
-        <v>1420312</v>
+        <v>1441702</v>
       </c>
       <c r="AT61" s="11">
-        <v>1347175</v>
+        <v>1573960</v>
       </c>
       <c r="AU61" s="11">
-        <v>1441702</v>
+        <v>1608028</v>
       </c>
       <c r="AV61" s="11">
-        <v>1532663</v>
+        <v>1281746</v>
       </c>
       <c r="AW61" s="11">
-        <v>1573948</v>
+        <v>1217845</v>
       </c>
       <c r="AX61" s="11">
-        <v>1281746</v>
+        <v>1520834</v>
       </c>
       <c r="AY61" s="11">
-        <v>1167238</v>
+        <v>1427104</v>
       </c>
       <c r="AZ61" s="11">
-        <v>1502170</v>
+        <v>1058956</v>
       </c>
       <c r="BA61" s="11">
-        <v>1427104</v>
+        <v>1617836</v>
       </c>
       <c r="BB61" s="11">
-        <v>1055075</v>
+        <v>1850560</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8108,41 +8108,41 @@
       <c r="AP62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR62" s="13" t="s">
-        <v>58</v>
+      <c r="AQ62" s="13">
+        <v>1769991</v>
+      </c>
+      <c r="AR62" s="13">
+        <v>1719763</v>
       </c>
       <c r="AS62" s="13">
-        <v>1769991</v>
+        <v>976472</v>
       </c>
       <c r="AT62" s="13">
-        <v>1833585</v>
+        <v>1168959</v>
       </c>
       <c r="AU62" s="13">
-        <v>976472</v>
+        <v>1059718</v>
       </c>
       <c r="AV62" s="13">
-        <v>1234312</v>
+        <v>1149219</v>
       </c>
       <c r="AW62" s="13">
-        <v>1108399</v>
+        <v>936720</v>
       </c>
       <c r="AX62" s="13">
-        <v>1149219</v>
+        <v>1448267</v>
       </c>
       <c r="AY62" s="13">
-        <v>999647</v>
+        <v>1153211</v>
       </c>
       <c r="AZ62" s="13">
-        <v>1482239</v>
+        <v>1011010</v>
       </c>
       <c r="BA62" s="13">
-        <v>1153211</v>
+        <v>1221997</v>
       </c>
       <c r="BB62" s="13">
-        <v>1015054</v>
+        <v>1098105</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8213,65 +8213,65 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>435689</v>
+      </c>
+      <c r="Z63" s="11">
+        <v>553109</v>
       </c>
       <c r="AA63" s="11">
-        <v>435689</v>
+        <v>603606</v>
       </c>
       <c r="AB63" s="11">
-        <v>553109</v>
+        <v>569205</v>
       </c>
       <c r="AC63" s="11">
-        <v>603606</v>
+        <v>571932</v>
       </c>
       <c r="AD63" s="11">
-        <v>569205</v>
+        <v>647533</v>
       </c>
       <c r="AE63" s="11">
-        <v>571932</v>
+        <v>849798</v>
       </c>
       <c r="AF63" s="11">
-        <v>647533</v>
+        <v>918286</v>
       </c>
       <c r="AG63" s="11">
-        <v>849798</v>
+        <v>1445115</v>
       </c>
       <c r="AH63" s="11">
-        <v>918286</v>
+        <v>1130561</v>
       </c>
       <c r="AI63" s="11">
-        <v>1445115</v>
+        <v>1343226</v>
       </c>
       <c r="AJ63" s="11">
-        <v>1130561</v>
+        <v>1523780</v>
       </c>
       <c r="AK63" s="11">
-        <v>1343226</v>
+        <v>1373354</v>
       </c>
       <c r="AL63" s="11">
-        <v>1523780</v>
+        <v>1444826</v>
       </c>
       <c r="AM63" s="11">
-        <v>1373354</v>
+        <v>1465388</v>
       </c>
       <c r="AN63" s="11">
-        <v>1444826</v>
+        <v>1423552</v>
       </c>
       <c r="AO63" s="11">
-        <v>1465388</v>
+        <v>1639686</v>
       </c>
       <c r="AP63" s="11">
-        <v>1423552</v>
-      </c>
-      <c r="AQ63" s="11">
-        <v>1639686</v>
-      </c>
-      <c r="AR63" s="11">
         <v>1658718</v>
+      </c>
+      <c r="AQ63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS63" s="11" t="s">
         <v>58</v>
@@ -8372,65 +8372,65 @@
       <c r="X64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z64" s="13" t="s">
-        <v>58</v>
+      <c r="Y64" s="13">
+        <v>278211</v>
+      </c>
+      <c r="Z64" s="13">
+        <v>441538</v>
       </c>
       <c r="AA64" s="13">
-        <v>278211</v>
+        <v>604775</v>
       </c>
       <c r="AB64" s="13">
-        <v>441538</v>
+        <v>789968</v>
       </c>
       <c r="AC64" s="13">
-        <v>604775</v>
+        <v>864147</v>
       </c>
       <c r="AD64" s="13">
-        <v>789968</v>
+        <v>1237129</v>
       </c>
       <c r="AE64" s="13">
-        <v>864147</v>
+        <v>1824325</v>
       </c>
       <c r="AF64" s="13">
-        <v>1237129</v>
+        <v>1535872</v>
       </c>
       <c r="AG64" s="13">
-        <v>1824325</v>
+        <v>1912111</v>
       </c>
       <c r="AH64" s="13">
-        <v>1535872</v>
+        <v>778629</v>
       </c>
       <c r="AI64" s="13">
-        <v>1912111</v>
+        <v>1450130</v>
       </c>
       <c r="AJ64" s="13">
-        <v>778629</v>
+        <v>1117612</v>
       </c>
       <c r="AK64" s="13">
-        <v>1450130</v>
+        <v>1158599</v>
       </c>
       <c r="AL64" s="13">
-        <v>1117612</v>
+        <v>1413869</v>
       </c>
       <c r="AM64" s="13">
-        <v>1158599</v>
+        <v>1545620</v>
       </c>
       <c r="AN64" s="13">
-        <v>1413869</v>
+        <v>1494975</v>
       </c>
       <c r="AO64" s="13">
-        <v>1545620</v>
+        <v>1805768</v>
       </c>
       <c r="AP64" s="13">
-        <v>1494975</v>
-      </c>
-      <c r="AQ64" s="13">
-        <v>1805768</v>
-      </c>
-      <c r="AR64" s="13">
         <v>1732450</v>
+      </c>
+      <c r="AQ64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS64" s="13" t="s">
         <v>58</v>
@@ -8558,68 +8558,68 @@
       <c r="AG65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI65" s="11" t="s">
-        <v>58</v>
+      <c r="AH65" s="11">
+        <v>27908</v>
+      </c>
+      <c r="AI65" s="11">
+        <v>30195</v>
       </c>
       <c r="AJ65" s="11">
-        <v>27908</v>
+        <v>33675</v>
       </c>
       <c r="AK65" s="11">
-        <v>30195</v>
+        <v>20111</v>
       </c>
       <c r="AL65" s="11">
-        <v>33675</v>
+        <v>33468</v>
       </c>
       <c r="AM65" s="11">
-        <v>20111</v>
+        <v>25039</v>
       </c>
       <c r="AN65" s="11">
-        <v>33468</v>
+        <v>19829</v>
       </c>
       <c r="AO65" s="11">
-        <v>25039</v>
+        <v>13095</v>
       </c>
       <c r="AP65" s="11">
-        <v>19829</v>
+        <v>26090</v>
       </c>
       <c r="AQ65" s="11">
-        <v>13095</v>
+        <v>20377</v>
       </c>
       <c r="AR65" s="11">
-        <v>26090</v>
+        <v>57660</v>
       </c>
       <c r="AS65" s="11">
-        <v>20377</v>
+        <v>38712</v>
       </c>
       <c r="AT65" s="11">
-        <v>54634</v>
+        <v>37441</v>
       </c>
       <c r="AU65" s="11">
-        <v>38712</v>
+        <v>33987</v>
       </c>
       <c r="AV65" s="11">
-        <v>37441</v>
+        <v>20511</v>
       </c>
       <c r="AW65" s="11">
-        <v>33987</v>
+        <v>29938</v>
       </c>
       <c r="AX65" s="11">
-        <v>14455</v>
+        <v>26810</v>
       </c>
       <c r="AY65" s="11">
-        <v>29938</v>
+        <v>22228</v>
       </c>
       <c r="AZ65" s="11">
-        <v>26810</v>
+        <v>13018</v>
       </c>
       <c r="BA65" s="11">
-        <v>22228</v>
+        <v>52215</v>
       </c>
       <c r="BB65" s="11">
-        <v>13018</v>
+        <v>22570</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8689,94 +8689,94 @@
         <v>0</v>
       </c>
       <c r="Y66" s="15">
-        <v>0</v>
+        <v>783489</v>
       </c>
       <c r="Z66" s="15">
-        <v>0</v>
+        <v>1061840</v>
       </c>
       <c r="AA66" s="15">
-        <v>783489</v>
+        <v>1274744</v>
       </c>
       <c r="AB66" s="15">
-        <v>1061840</v>
+        <v>1419476</v>
       </c>
       <c r="AC66" s="15">
-        <v>1274744</v>
+        <v>1491889</v>
       </c>
       <c r="AD66" s="15">
-        <v>1419476</v>
+        <v>1956179</v>
       </c>
       <c r="AE66" s="15">
-        <v>1491889</v>
+        <v>2732893</v>
       </c>
       <c r="AF66" s="15">
-        <v>1956179</v>
+        <v>2530111</v>
       </c>
       <c r="AG66" s="15">
-        <v>2732893</v>
+        <v>3432512</v>
       </c>
       <c r="AH66" s="15">
-        <v>2530111</v>
+        <v>1980422</v>
       </c>
       <c r="AI66" s="15">
-        <v>3432512</v>
+        <v>2845677</v>
       </c>
       <c r="AJ66" s="15">
-        <v>1980422</v>
+        <v>2710422</v>
       </c>
       <c r="AK66" s="15">
-        <v>2845677</v>
+        <v>2588786</v>
       </c>
       <c r="AL66" s="15">
-        <v>2710422</v>
+        <v>2924811</v>
       </c>
       <c r="AM66" s="15">
-        <v>2588786</v>
+        <v>3084877</v>
       </c>
       <c r="AN66" s="15">
-        <v>2924811</v>
+        <v>2983414</v>
       </c>
       <c r="AO66" s="15">
-        <v>3084877</v>
+        <v>3491285</v>
       </c>
       <c r="AP66" s="15">
-        <v>2983414</v>
+        <v>3453888</v>
       </c>
       <c r="AQ66" s="15">
-        <v>3491285</v>
+        <v>3683831</v>
       </c>
       <c r="AR66" s="15">
-        <v>3453888</v>
+        <v>3161368</v>
       </c>
       <c r="AS66" s="15">
-        <v>3683831</v>
+        <v>2518887</v>
       </c>
       <c r="AT66" s="15">
-        <v>3303067</v>
+        <v>2839290</v>
       </c>
       <c r="AU66" s="15">
-        <v>2518887</v>
+        <v>2784690</v>
       </c>
       <c r="AV66" s="15">
-        <v>2863346</v>
+        <v>2503349</v>
       </c>
       <c r="AW66" s="15">
-        <v>2799291</v>
+        <v>2557801</v>
       </c>
       <c r="AX66" s="15">
-        <v>2450626</v>
+        <v>3098945</v>
       </c>
       <c r="AY66" s="15">
-        <v>2570121</v>
+        <v>2702940</v>
       </c>
       <c r="AZ66" s="15">
-        <v>3114253</v>
+        <v>2200700</v>
       </c>
       <c r="BA66" s="15">
-        <v>2702940</v>
+        <v>3031566</v>
       </c>
       <c r="BB66" s="15">
-        <v>2200863</v>
+        <v>3089918</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8958,41 +8958,41 @@
       <c r="AP68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR68" s="11" t="s">
-        <v>58</v>
+      <c r="AQ68" s="11">
+        <v>4509712</v>
+      </c>
+      <c r="AR68" s="11">
+        <v>6462713</v>
       </c>
       <c r="AS68" s="11">
-        <v>4509712</v>
+        <v>1729454</v>
       </c>
       <c r="AT68" s="11">
-        <v>6462713</v>
+        <v>5069814</v>
       </c>
       <c r="AU68" s="11">
-        <v>1729454</v>
+        <v>1552602</v>
       </c>
       <c r="AV68" s="11">
-        <v>5069814</v>
+        <v>5163430</v>
       </c>
       <c r="AW68" s="11">
-        <v>1552602</v>
+        <v>2904123</v>
       </c>
       <c r="AX68" s="11">
-        <v>5163430</v>
+        <v>8384174</v>
       </c>
       <c r="AY68" s="11">
-        <v>2904123</v>
+        <v>4514798</v>
       </c>
       <c r="AZ68" s="11">
-        <v>8384174</v>
+        <v>1298755</v>
       </c>
       <c r="BA68" s="11">
-        <v>4514798</v>
+        <v>2726788</v>
       </c>
       <c r="BB68" s="11">
-        <v>1298755</v>
+        <v>1838425</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9117,41 +9117,41 @@
       <c r="AP69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR69" s="13" t="s">
-        <v>58</v>
+      <c r="AQ69" s="13">
+        <v>318393</v>
+      </c>
+      <c r="AR69" s="13">
+        <v>1652189</v>
       </c>
       <c r="AS69" s="13">
-        <v>318393</v>
+        <v>8191</v>
       </c>
       <c r="AT69" s="13">
-        <v>1652189</v>
+        <v>858244</v>
       </c>
       <c r="AU69" s="13">
-        <v>8191</v>
+        <v>285174</v>
       </c>
       <c r="AV69" s="13">
-        <v>858244</v>
+        <v>21764</v>
       </c>
       <c r="AW69" s="13">
-        <v>285174</v>
+        <v>88640</v>
       </c>
       <c r="AX69" s="13">
-        <v>21764</v>
+        <v>48701</v>
       </c>
       <c r="AY69" s="13">
-        <v>88640</v>
+        <v>80298</v>
       </c>
       <c r="AZ69" s="13">
-        <v>48701</v>
+        <v>9349</v>
       </c>
       <c r="BA69" s="13">
-        <v>80298</v>
+        <v>23809</v>
       </c>
       <c r="BB69" s="13">
-        <v>9349</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9222,65 +9222,65 @@
       <c r="X70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z70" s="11" t="s">
-        <v>58</v>
+      <c r="Y70" s="11">
+        <v>2200597</v>
+      </c>
+      <c r="Z70" s="11">
+        <v>1805396</v>
       </c>
       <c r="AA70" s="11">
-        <v>2200597</v>
+        <v>2190348</v>
       </c>
       <c r="AB70" s="11">
-        <v>1805396</v>
+        <v>2898861</v>
       </c>
       <c r="AC70" s="11">
-        <v>2190348</v>
+        <v>3544445</v>
       </c>
       <c r="AD70" s="11">
-        <v>2898861</v>
+        <v>3637652</v>
       </c>
       <c r="AE70" s="11">
-        <v>3544445</v>
+        <v>2407726</v>
       </c>
       <c r="AF70" s="11">
-        <v>3637652</v>
+        <v>5088953</v>
       </c>
       <c r="AG70" s="11">
-        <v>2407726</v>
+        <v>3186582</v>
       </c>
       <c r="AH70" s="11">
-        <v>5088953</v>
+        <v>2727468</v>
       </c>
       <c r="AI70" s="11">
-        <v>3186582</v>
+        <v>1236943</v>
       </c>
       <c r="AJ70" s="11">
-        <v>2727468</v>
+        <v>3858315</v>
       </c>
       <c r="AK70" s="11">
-        <v>1236943</v>
+        <v>3116442</v>
       </c>
       <c r="AL70" s="11">
-        <v>3858315</v>
+        <v>5448160</v>
       </c>
       <c r="AM70" s="11">
-        <v>3116442</v>
+        <v>3262658</v>
       </c>
       <c r="AN70" s="11">
-        <v>5448160</v>
+        <v>3191926</v>
       </c>
       <c r="AO70" s="11">
-        <v>3262658</v>
+        <v>6465175</v>
       </c>
       <c r="AP70" s="11">
-        <v>3191926</v>
-      </c>
-      <c r="AQ70" s="11">
-        <v>6465175</v>
-      </c>
-      <c r="AR70" s="11">
         <v>5389795</v>
+      </c>
+      <c r="AQ70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS70" s="11" t="s">
         <v>58</v>
@@ -9381,65 +9381,65 @@
       <c r="X71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z71" s="13" t="s">
-        <v>58</v>
+      <c r="Y71" s="13">
+        <v>219072</v>
+      </c>
+      <c r="Z71" s="13">
+        <v>81453</v>
       </c>
       <c r="AA71" s="13">
-        <v>219072</v>
+        <v>119530</v>
       </c>
       <c r="AB71" s="13">
-        <v>81453</v>
+        <v>485619</v>
       </c>
       <c r="AC71" s="13">
-        <v>119530</v>
+        <v>482148</v>
       </c>
       <c r="AD71" s="13">
-        <v>485619</v>
+        <v>288304</v>
       </c>
       <c r="AE71" s="13">
-        <v>482148</v>
+        <v>512378</v>
       </c>
       <c r="AF71" s="13">
-        <v>288304</v>
+        <v>874025</v>
       </c>
       <c r="AG71" s="13">
-        <v>512378</v>
+        <v>1703412</v>
       </c>
       <c r="AH71" s="13">
-        <v>874025</v>
+        <v>94440</v>
       </c>
       <c r="AI71" s="13">
-        <v>1703412</v>
+        <v>1755105</v>
       </c>
       <c r="AJ71" s="13">
-        <v>94440</v>
+        <v>1206345</v>
       </c>
       <c r="AK71" s="13">
-        <v>1755105</v>
+        <v>943922</v>
       </c>
       <c r="AL71" s="13">
-        <v>1206345</v>
+        <v>43857</v>
       </c>
       <c r="AM71" s="13">
-        <v>943922</v>
+        <v>1568866</v>
       </c>
       <c r="AN71" s="13">
-        <v>43857</v>
+        <v>1019491</v>
       </c>
       <c r="AO71" s="13">
-        <v>1568866</v>
+        <v>1509322</v>
       </c>
       <c r="AP71" s="13">
-        <v>1019491</v>
-      </c>
-      <c r="AQ71" s="13">
-        <v>1509322</v>
-      </c>
-      <c r="AR71" s="13">
         <v>946369</v>
+      </c>
+      <c r="AQ71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS71" s="13" t="s">
         <v>58</v>
@@ -9539,94 +9539,94 @@
         <v>0</v>
       </c>
       <c r="Y72" s="17">
-        <v>0</v>
+        <v>2419669</v>
       </c>
       <c r="Z72" s="17">
-        <v>0</v>
+        <v>1886849</v>
       </c>
       <c r="AA72" s="17">
-        <v>2419669</v>
+        <v>2309878</v>
       </c>
       <c r="AB72" s="17">
-        <v>1886849</v>
+        <v>3384480</v>
       </c>
       <c r="AC72" s="17">
-        <v>2309878</v>
+        <v>4026593</v>
       </c>
       <c r="AD72" s="17">
-        <v>3384480</v>
+        <v>3925956</v>
       </c>
       <c r="AE72" s="17">
-        <v>4026593</v>
+        <v>2920104</v>
       </c>
       <c r="AF72" s="17">
-        <v>3925956</v>
+        <v>5962978</v>
       </c>
       <c r="AG72" s="17">
-        <v>2920104</v>
+        <v>4889994</v>
       </c>
       <c r="AH72" s="17">
-        <v>5962978</v>
+        <v>2821908</v>
       </c>
       <c r="AI72" s="17">
-        <v>4889994</v>
+        <v>2992048</v>
       </c>
       <c r="AJ72" s="17">
-        <v>2821908</v>
+        <v>5064660</v>
       </c>
       <c r="AK72" s="17">
-        <v>2992048</v>
+        <v>4060364</v>
       </c>
       <c r="AL72" s="17">
-        <v>5064660</v>
+        <v>5492017</v>
       </c>
       <c r="AM72" s="17">
-        <v>4060364</v>
+        <v>4831524</v>
       </c>
       <c r="AN72" s="17">
-        <v>5492017</v>
+        <v>4211417</v>
       </c>
       <c r="AO72" s="17">
-        <v>4831524</v>
+        <v>7974497</v>
       </c>
       <c r="AP72" s="17">
-        <v>4211417</v>
+        <v>6336164</v>
       </c>
       <c r="AQ72" s="17">
-        <v>7974497</v>
+        <v>4828105</v>
       </c>
       <c r="AR72" s="17">
-        <v>6336164</v>
+        <v>8114902</v>
       </c>
       <c r="AS72" s="17">
-        <v>4828105</v>
+        <v>1737645</v>
       </c>
       <c r="AT72" s="17">
-        <v>8114902</v>
+        <v>5928058</v>
       </c>
       <c r="AU72" s="17">
-        <v>1737645</v>
+        <v>1837776</v>
       </c>
       <c r="AV72" s="17">
-        <v>5928058</v>
+        <v>5185194</v>
       </c>
       <c r="AW72" s="17">
-        <v>1837776</v>
+        <v>2992763</v>
       </c>
       <c r="AX72" s="17">
-        <v>5185194</v>
+        <v>8432875</v>
       </c>
       <c r="AY72" s="17">
-        <v>2992763</v>
+        <v>4595096</v>
       </c>
       <c r="AZ72" s="17">
-        <v>8432875</v>
+        <v>1308104</v>
       </c>
       <c r="BA72" s="17">
-        <v>4595096</v>
+        <v>2750597</v>
       </c>
       <c r="BB72" s="17">
-        <v>1308104</v>
+        <v>1843325</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9754,11 +9754,11 @@
       <c r="X74" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z74" s="17" t="s">
-        <v>58</v>
+      <c r="Y74" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="17">
+        <v>0</v>
       </c>
       <c r="AA74" s="17">
         <v>0</v>
@@ -9970,11 +9970,11 @@
       <c r="X76" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y76" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z76" s="17" t="s">
-        <v>58</v>
+      <c r="Y76" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="17">
+        <v>0</v>
       </c>
       <c r="AA76" s="17">
         <v>0</v>
@@ -10186,11 +10186,11 @@
       <c r="X78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z78" s="11" t="s">
-        <v>58</v>
+      <c r="Y78" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="11">
+        <v>0</v>
       </c>
       <c r="AA78" s="11">
         <v>0</v>
@@ -10344,94 +10344,94 @@
         <v>0</v>
       </c>
       <c r="Y79" s="15">
-        <v>0</v>
+        <v>3203158</v>
       </c>
       <c r="Z79" s="15">
-        <v>0</v>
+        <v>2948689</v>
       </c>
       <c r="AA79" s="15">
-        <v>3203158</v>
+        <v>3584622</v>
       </c>
       <c r="AB79" s="15">
-        <v>2948689</v>
+        <v>4803956</v>
       </c>
       <c r="AC79" s="15">
-        <v>3584622</v>
+        <v>5518482</v>
       </c>
       <c r="AD79" s="15">
-        <v>4803956</v>
+        <v>5882135</v>
       </c>
       <c r="AE79" s="15">
-        <v>5518482</v>
+        <v>5652997</v>
       </c>
       <c r="AF79" s="15">
-        <v>5882135</v>
+        <v>8493089</v>
       </c>
       <c r="AG79" s="15">
-        <v>5652997</v>
+        <v>8322506</v>
       </c>
       <c r="AH79" s="15">
-        <v>8493089</v>
+        <v>4802330</v>
       </c>
       <c r="AI79" s="15">
-        <v>8322506</v>
+        <v>5837725</v>
       </c>
       <c r="AJ79" s="15">
-        <v>4802330</v>
+        <v>7775082</v>
       </c>
       <c r="AK79" s="15">
-        <v>5837725</v>
+        <v>6649150</v>
       </c>
       <c r="AL79" s="15">
-        <v>7775082</v>
+        <v>8416828</v>
       </c>
       <c r="AM79" s="15">
-        <v>6649150</v>
+        <v>7916401</v>
       </c>
       <c r="AN79" s="15">
-        <v>8416828</v>
+        <v>7194831</v>
       </c>
       <c r="AO79" s="15">
-        <v>7916401</v>
+        <v>11465782</v>
       </c>
       <c r="AP79" s="15">
-        <v>7194831</v>
+        <v>9790052</v>
       </c>
       <c r="AQ79" s="15">
-        <v>11465782</v>
+        <v>8511936</v>
       </c>
       <c r="AR79" s="15">
-        <v>9790052</v>
+        <v>11276270</v>
       </c>
       <c r="AS79" s="15">
-        <v>8511936</v>
+        <v>4256532</v>
       </c>
       <c r="AT79" s="15">
-        <v>11417969</v>
+        <v>8767348</v>
       </c>
       <c r="AU79" s="15">
-        <v>4256532</v>
+        <v>4622466</v>
       </c>
       <c r="AV79" s="15">
-        <v>8791404</v>
+        <v>7688543</v>
       </c>
       <c r="AW79" s="15">
-        <v>4637067</v>
+        <v>5550564</v>
       </c>
       <c r="AX79" s="15">
-        <v>7635820</v>
+        <v>11531820</v>
       </c>
       <c r="AY79" s="15">
-        <v>5562884</v>
+        <v>7298036</v>
       </c>
       <c r="AZ79" s="15">
-        <v>11547128</v>
+        <v>3508804</v>
       </c>
       <c r="BA79" s="15">
-        <v>7298036</v>
+        <v>5782163</v>
       </c>
       <c r="BB79" s="15">
-        <v>3508967</v>
+        <v>4933243</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10936,38 +10936,38 @@
       <c r="X86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z86" s="11" t="s">
-        <v>58</v>
+      <c r="Y86" s="11">
+        <v>5381439</v>
+      </c>
+      <c r="Z86" s="11">
+        <v>5048774</v>
       </c>
       <c r="AA86" s="11">
-        <v>5381439</v>
+        <v>5010669</v>
       </c>
       <c r="AB86" s="11">
-        <v>5048774</v>
+        <v>5655953</v>
       </c>
       <c r="AC86" s="11">
-        <v>5010669</v>
+        <v>5608980</v>
       </c>
       <c r="AD86" s="11">
-        <v>5655953</v>
+        <v>5833384</v>
       </c>
       <c r="AE86" s="11">
-        <v>5608980</v>
+        <v>8170543</v>
       </c>
       <c r="AF86" s="11">
-        <v>5833384</v>
+        <v>6803745</v>
       </c>
       <c r="AG86" s="11">
-        <v>8170543</v>
-      </c>
-      <c r="AH86" s="11">
-        <v>6803745</v>
-      </c>
-      <c r="AI86" s="11">
         <v>6586414</v>
+      </c>
+      <c r="AH86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI86" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ86" s="11" t="s">
         <v>58</v>
@@ -11095,95 +11095,95 @@
       <c r="X87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z87" s="13" t="s">
-        <v>58</v>
+      <c r="Y87" s="13">
+        <v>22293486</v>
+      </c>
+      <c r="Z87" s="13">
+        <v>22293829</v>
       </c>
       <c r="AA87" s="13">
-        <v>22293486</v>
+        <v>22293720</v>
       </c>
       <c r="AB87" s="13">
-        <v>22293829</v>
+        <v>22873892</v>
       </c>
       <c r="AC87" s="13">
-        <v>22293720</v>
+        <v>22873811</v>
       </c>
       <c r="AD87" s="13">
-        <v>22873892</v>
+        <v>22873444</v>
       </c>
       <c r="AE87" s="13">
-        <v>22873811</v>
+        <v>22873460</v>
       </c>
       <c r="AF87" s="13">
-        <v>22873444</v>
+        <v>22873583</v>
       </c>
       <c r="AG87" s="13">
-        <v>22873460</v>
+        <v>25787739</v>
       </c>
       <c r="AH87" s="13">
-        <v>22873583</v>
+        <v>25788095</v>
       </c>
       <c r="AI87" s="13">
-        <v>25787739</v>
+        <v>25787879</v>
       </c>
       <c r="AJ87" s="13">
-        <v>25788095</v>
+        <v>25787746</v>
       </c>
       <c r="AK87" s="13">
-        <v>25787879</v>
+        <v>25787921</v>
       </c>
       <c r="AL87" s="13">
-        <v>25787746</v>
+        <v>25788310</v>
       </c>
       <c r="AM87" s="13">
-        <v>25787921</v>
+        <v>30423676</v>
       </c>
       <c r="AN87" s="13">
-        <v>25788310</v>
+        <v>30424038</v>
       </c>
       <c r="AO87" s="13">
-        <v>30423676</v>
+        <v>30423792</v>
       </c>
       <c r="AP87" s="13">
-        <v>30424038</v>
+        <v>30423588</v>
       </c>
       <c r="AQ87" s="13">
-        <v>30423792</v>
+        <v>817186529</v>
       </c>
       <c r="AR87" s="13">
-        <v>30423588</v>
+        <v>66738659</v>
       </c>
       <c r="AS87" s="13">
-        <v>817186529</v>
+        <v>66739505</v>
       </c>
       <c r="AT87" s="13">
-        <v>66738659</v>
+        <v>66738392</v>
       </c>
       <c r="AU87" s="13">
-        <v>66739505</v>
+        <v>66739340</v>
       </c>
       <c r="AV87" s="13">
-        <v>66738392</v>
+        <v>87917365</v>
       </c>
       <c r="AW87" s="13">
-        <v>66739340</v>
+        <v>493128137</v>
       </c>
       <c r="AX87" s="13">
-        <v>66743590</v>
+        <v>87912969</v>
       </c>
       <c r="AY87" s="13">
-        <v>493128137</v>
+        <v>87913310</v>
       </c>
       <c r="AZ87" s="13">
-        <v>87912969</v>
+        <v>87913368</v>
       </c>
       <c r="BA87" s="13">
-        <v>87913310</v>
+        <v>87913043</v>
       </c>
       <c r="BB87" s="13">
-        <v>87913368</v>
+        <v>87913333</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11308,41 +11308,41 @@
       <c r="AP88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR88" s="11" t="s">
-        <v>58</v>
+      <c r="AQ88" s="11">
+        <v>79842150</v>
+      </c>
+      <c r="AR88" s="11">
+        <v>83045687</v>
       </c>
       <c r="AS88" s="11">
-        <v>79842150</v>
+        <v>85989622</v>
       </c>
       <c r="AT88" s="11">
-        <v>83200037</v>
+        <v>87340325</v>
       </c>
       <c r="AU88" s="11">
-        <v>85989622</v>
+        <v>82605356</v>
       </c>
       <c r="AV88" s="11">
-        <v>85048721</v>
+        <v>75299377</v>
       </c>
       <c r="AW88" s="11">
-        <v>81691389</v>
+        <v>71007998</v>
       </c>
       <c r="AX88" s="11">
-        <v>75299377</v>
+        <v>70093101</v>
       </c>
       <c r="AY88" s="11">
-        <v>70294369</v>
+        <v>70613756</v>
       </c>
       <c r="AZ88" s="11">
-        <v>69891127</v>
+        <v>72909931</v>
       </c>
       <c r="BA88" s="11">
-        <v>70613756</v>
+        <v>74383264</v>
       </c>
       <c r="BB88" s="11">
-        <v>72879395</v>
+        <v>71693786</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11467,41 +11467,41 @@
       <c r="AP89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR89" s="13" t="s">
-        <v>58</v>
+      <c r="AQ89" s="13">
+        <v>219601861</v>
+      </c>
+      <c r="AR89" s="13">
+        <v>199412026</v>
       </c>
       <c r="AS89" s="13">
-        <v>219601861</v>
+        <v>167663462</v>
       </c>
       <c r="AT89" s="13">
-        <v>200896790</v>
+        <v>153386563</v>
       </c>
       <c r="AU89" s="13">
-        <v>167663462</v>
+        <v>159647891</v>
       </c>
       <c r="AV89" s="13">
-        <v>161961947</v>
+        <v>159746872</v>
       </c>
       <c r="AW89" s="13">
-        <v>163023827</v>
+        <v>159962169</v>
       </c>
       <c r="AX89" s="13">
-        <v>159746872</v>
+        <v>148472942</v>
       </c>
       <c r="AY89" s="13">
-        <v>162227686</v>
+        <v>121314012</v>
       </c>
       <c r="AZ89" s="13">
-        <v>149374080</v>
+        <v>112774513</v>
       </c>
       <c r="BA89" s="13">
-        <v>121314012</v>
+        <v>112719952</v>
       </c>
       <c r="BB89" s="13">
-        <v>112846470</v>
+        <v>112660819</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11572,65 +11572,65 @@
       <c r="X90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z90" s="11" t="s">
-        <v>58</v>
+      <c r="Y90" s="11">
+        <v>55255422</v>
+      </c>
+      <c r="Z90" s="11">
+        <v>63488177</v>
       </c>
       <c r="AA90" s="11">
-        <v>55255422</v>
+        <v>65809638</v>
       </c>
       <c r="AB90" s="11">
-        <v>63488177</v>
+        <v>74260274</v>
       </c>
       <c r="AC90" s="11">
-        <v>65809638</v>
+        <v>84655417</v>
       </c>
       <c r="AD90" s="11">
-        <v>74260274</v>
+        <v>111817130</v>
       </c>
       <c r="AE90" s="11">
-        <v>84655417</v>
+        <v>140207557</v>
       </c>
       <c r="AF90" s="11">
-        <v>111817130</v>
+        <v>150341519</v>
       </c>
       <c r="AG90" s="11">
-        <v>140207557</v>
+        <v>197960959</v>
       </c>
       <c r="AH90" s="11">
-        <v>150341519</v>
+        <v>210886215</v>
       </c>
       <c r="AI90" s="11">
-        <v>197960959</v>
+        <v>218944743</v>
       </c>
       <c r="AJ90" s="11">
-        <v>210886215</v>
+        <v>222840012</v>
       </c>
       <c r="AK90" s="11">
-        <v>218944743</v>
+        <v>218826323</v>
       </c>
       <c r="AL90" s="11">
-        <v>222840012</v>
+        <v>203697448</v>
       </c>
       <c r="AM90" s="11">
-        <v>218826323</v>
+        <v>192510247</v>
       </c>
       <c r="AN90" s="11">
-        <v>203697448</v>
+        <v>199377031</v>
       </c>
       <c r="AO90" s="11">
-        <v>192510247</v>
+        <v>265880655</v>
       </c>
       <c r="AP90" s="11">
-        <v>199377031</v>
-      </c>
-      <c r="AQ90" s="11">
-        <v>265880655</v>
-      </c>
-      <c r="AR90" s="11">
         <v>242113268</v>
+      </c>
+      <c r="AQ90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR90" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS90" s="11" t="s">
         <v>58</v>
@@ -11731,65 +11731,65 @@
       <c r="X91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z91" s="13" t="s">
-        <v>58</v>
+      <c r="Y91" s="13">
+        <v>20431152</v>
+      </c>
+      <c r="Z91" s="13">
+        <v>26285153</v>
       </c>
       <c r="AA91" s="13">
-        <v>20431152</v>
+        <v>32852138</v>
       </c>
       <c r="AB91" s="13">
-        <v>26285153</v>
+        <v>40642486</v>
       </c>
       <c r="AC91" s="13">
-        <v>32852138</v>
+        <v>52675831</v>
       </c>
       <c r="AD91" s="13">
-        <v>40642486</v>
+        <v>68615031</v>
       </c>
       <c r="AE91" s="13">
-        <v>52675831</v>
+        <v>77822925</v>
       </c>
       <c r="AF91" s="13">
-        <v>68615031</v>
+        <v>76835860</v>
       </c>
       <c r="AG91" s="13">
-        <v>77822925</v>
+        <v>72209630</v>
       </c>
       <c r="AH91" s="13">
-        <v>76835860</v>
+        <v>67326329</v>
       </c>
       <c r="AI91" s="13">
-        <v>72209630</v>
+        <v>67463596</v>
       </c>
       <c r="AJ91" s="13">
-        <v>67326329</v>
+        <v>63396222</v>
       </c>
       <c r="AK91" s="13">
-        <v>67463596</v>
+        <v>62448068</v>
       </c>
       <c r="AL91" s="13">
-        <v>63396222</v>
+        <v>71393102</v>
       </c>
       <c r="AM91" s="13">
-        <v>62448068</v>
+        <v>75944379</v>
       </c>
       <c r="AN91" s="13">
-        <v>71393102</v>
+        <v>90216342</v>
       </c>
       <c r="AO91" s="13">
-        <v>75944379</v>
+        <v>90682870</v>
       </c>
       <c r="AP91" s="13">
-        <v>90216342</v>
-      </c>
-      <c r="AQ91" s="13">
-        <v>90682870</v>
-      </c>
-      <c r="AR91" s="13">
         <v>85128495</v>
+      </c>
+      <c r="AQ91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS91" s="13" t="s">
         <v>58</v>
@@ -11917,68 +11917,68 @@
       <c r="AG92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI92" s="11" t="s">
-        <v>58</v>
+      <c r="AH92" s="11">
+        <v>8542394</v>
+      </c>
+      <c r="AI92" s="11">
+        <v>5664041</v>
       </c>
       <c r="AJ92" s="11">
-        <v>8542394</v>
+        <v>6518583</v>
       </c>
       <c r="AK92" s="11">
-        <v>5664041</v>
+        <v>7049071</v>
       </c>
       <c r="AL92" s="11">
-        <v>6518583</v>
+        <v>6391902</v>
       </c>
       <c r="AM92" s="11">
-        <v>7049071</v>
+        <v>7827133</v>
       </c>
       <c r="AN92" s="11">
-        <v>6391902</v>
+        <v>8214167</v>
       </c>
       <c r="AO92" s="11">
-        <v>7827133</v>
+        <v>135000000</v>
       </c>
       <c r="AP92" s="11">
-        <v>8214167</v>
+        <v>11600711</v>
       </c>
       <c r="AQ92" s="11">
-        <v>135000000</v>
+        <v>11307991</v>
       </c>
       <c r="AR92" s="11">
-        <v>11600711</v>
+        <v>12971438</v>
       </c>
       <c r="AS92" s="11">
-        <v>11307991</v>
+        <v>14359050</v>
       </c>
       <c r="AT92" s="11">
-        <v>12974115</v>
+        <v>13077541</v>
       </c>
       <c r="AU92" s="11">
-        <v>14359050</v>
+        <v>6290394</v>
       </c>
       <c r="AV92" s="11">
-        <v>13077541</v>
+        <v>4041606</v>
       </c>
       <c r="AW92" s="11">
-        <v>6290394</v>
+        <v>21964784</v>
       </c>
       <c r="AX92" s="11">
-        <v>3550725</v>
+        <v>6311205</v>
       </c>
       <c r="AY92" s="11">
-        <v>21964784</v>
+        <v>5344554</v>
       </c>
       <c r="AZ92" s="11">
-        <v>6311205</v>
+        <v>7744200</v>
       </c>
       <c r="BA92" s="11">
-        <v>5344554</v>
+        <v>11440622</v>
       </c>
       <c r="BB92" s="11">
-        <v>7744200</v>
+        <v>6923313</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -12160,41 +12160,41 @@
       <c r="AP94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR94" s="11" t="s">
-        <v>58</v>
+      <c r="AQ94" s="11">
+        <v>78333050</v>
+      </c>
+      <c r="AR94" s="11">
+        <v>80062351</v>
       </c>
       <c r="AS94" s="11">
-        <v>78333050</v>
+        <v>87020932</v>
       </c>
       <c r="AT94" s="11">
-        <v>80062351</v>
+        <v>84988416</v>
       </c>
       <c r="AU94" s="11">
-        <v>87020932</v>
+        <v>86188631</v>
       </c>
       <c r="AV94" s="11">
-        <v>84988416</v>
+        <v>80818764</v>
       </c>
       <c r="AW94" s="11">
-        <v>86188631</v>
+        <v>63460066</v>
       </c>
       <c r="AX94" s="11">
-        <v>80818764</v>
+        <v>64439121</v>
       </c>
       <c r="AY94" s="11">
-        <v>63460066</v>
+        <v>83477516</v>
       </c>
       <c r="AZ94" s="11">
-        <v>64439121</v>
+        <v>72345978</v>
       </c>
       <c r="BA94" s="11">
-        <v>83477516</v>
+        <v>84583039</v>
       </c>
       <c r="BB94" s="11">
-        <v>72345978</v>
+        <v>87125018</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -12319,41 +12319,41 @@
       <c r="AP95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR95" s="13" t="s">
-        <v>58</v>
+      <c r="AQ95" s="13">
+        <v>283772727</v>
+      </c>
+      <c r="AR95" s="13">
+        <v>163324338</v>
       </c>
       <c r="AS95" s="13">
-        <v>283772727</v>
+        <v>190488372</v>
       </c>
       <c r="AT95" s="13">
-        <v>163324338</v>
+        <v>134668759</v>
       </c>
       <c r="AU95" s="13">
-        <v>190488372</v>
+        <v>170967626</v>
       </c>
       <c r="AV95" s="13">
-        <v>134668759</v>
+        <v>189252174</v>
       </c>
       <c r="AW95" s="13">
-        <v>170967626</v>
+        <v>178726429</v>
       </c>
       <c r="AX95" s="13">
-        <v>189252174</v>
+        <v>174555556</v>
       </c>
       <c r="AY95" s="13">
-        <v>178709677</v>
+        <v>176867841</v>
       </c>
       <c r="AZ95" s="13">
-        <v>174555556</v>
+        <v>239717949</v>
       </c>
       <c r="BA95" s="13">
-        <v>176867841</v>
+        <v>210699115</v>
       </c>
       <c r="BB95" s="13">
-        <v>239717949</v>
+        <v>257894737</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -12424,65 +12424,65 @@
       <c r="X96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z96" s="11" t="s">
-        <v>58</v>
+      <c r="Y96" s="11">
+        <v>26581753</v>
+      </c>
+      <c r="Z96" s="11">
+        <v>28712225</v>
       </c>
       <c r="AA96" s="11">
-        <v>26581753</v>
+        <v>40621428</v>
       </c>
       <c r="AB96" s="11">
-        <v>28712225</v>
+        <v>49384344</v>
       </c>
       <c r="AC96" s="11">
-        <v>40621428</v>
+        <v>56441106</v>
       </c>
       <c r="AD96" s="11">
-        <v>49384344</v>
+        <v>71337700</v>
       </c>
       <c r="AE96" s="11">
-        <v>56441106</v>
+        <v>85126785</v>
       </c>
       <c r="AF96" s="11">
-        <v>71337700</v>
+        <v>72055972</v>
       </c>
       <c r="AG96" s="11">
-        <v>85126785</v>
+        <v>72522861</v>
       </c>
       <c r="AH96" s="11">
-        <v>72055972</v>
+        <v>70650641</v>
       </c>
       <c r="AI96" s="11">
-        <v>72522861</v>
+        <v>68540090</v>
       </c>
       <c r="AJ96" s="11">
-        <v>70650641</v>
+        <v>67638711</v>
       </c>
       <c r="AK96" s="11">
-        <v>68540090</v>
+        <v>67700172</v>
       </c>
       <c r="AL96" s="11">
-        <v>67638711</v>
+        <v>72519334</v>
       </c>
       <c r="AM96" s="11">
-        <v>67700172</v>
+        <v>76082783</v>
       </c>
       <c r="AN96" s="11">
-        <v>72519334</v>
+        <v>106280625</v>
       </c>
       <c r="AO96" s="11">
-        <v>76082783</v>
+        <v>89781628</v>
       </c>
       <c r="AP96" s="11">
-        <v>106280625</v>
-      </c>
-      <c r="AQ96" s="11">
-        <v>89781628</v>
-      </c>
-      <c r="AR96" s="11">
         <v>77190047</v>
+      </c>
+      <c r="AQ96" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR96" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS96" s="11" t="s">
         <v>58</v>
@@ -12583,65 +12583,65 @@
       <c r="X97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z97" s="13" t="s">
-        <v>58</v>
+      <c r="Y97" s="13">
+        <v>32051500</v>
+      </c>
+      <c r="Z97" s="13">
+        <v>32594238</v>
       </c>
       <c r="AA97" s="13">
-        <v>32051500</v>
+        <v>39724161</v>
       </c>
       <c r="AB97" s="13">
-        <v>32594238</v>
+        <v>60528356</v>
       </c>
       <c r="AC97" s="13">
-        <v>39724161</v>
+        <v>60125701</v>
       </c>
       <c r="AD97" s="13">
-        <v>60528356</v>
+        <v>86215311</v>
       </c>
       <c r="AE97" s="13">
-        <v>60125701</v>
+        <v>83286411</v>
       </c>
       <c r="AF97" s="13">
-        <v>86215311</v>
+        <v>140699453</v>
       </c>
       <c r="AG97" s="13">
-        <v>83286411</v>
+        <v>176592577</v>
       </c>
       <c r="AH97" s="13">
-        <v>140699453</v>
+        <v>204859002</v>
       </c>
       <c r="AI97" s="13">
-        <v>176592577</v>
+        <v>173206849</v>
       </c>
       <c r="AJ97" s="13">
-        <v>204859002</v>
+        <v>183614155</v>
       </c>
       <c r="AK97" s="13">
-        <v>173206849</v>
+        <v>175189681</v>
       </c>
       <c r="AL97" s="13">
-        <v>183614155</v>
+        <v>210850962</v>
       </c>
       <c r="AM97" s="13">
-        <v>175189681</v>
+        <v>193233896</v>
       </c>
       <c r="AN97" s="13">
-        <v>210850962</v>
+        <v>179582702</v>
       </c>
       <c r="AO97" s="13">
-        <v>193233896</v>
+        <v>274472086</v>
       </c>
       <c r="AP97" s="13">
-        <v>179582702</v>
-      </c>
-      <c r="AQ97" s="13">
-        <v>274472086</v>
-      </c>
-      <c r="AR97" s="13">
         <v>265461150</v>
+      </c>
+      <c r="AQ97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS97" s="13" t="s">
         <v>58</v>

--- a/database/industries/methanol/shefan/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/shefan/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shefan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C15180-1A43-4DE6-A61B-542DE05EFA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D492DCE-E062-4DCF-B633-A647B7CB5940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شفن-پتروشیمی فناوران</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -778,12 +778,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -838,7 +838,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1007,7 +1007,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1176,7 +1176,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1388,7 +1388,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1507,39 +1507,39 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>7145</v>
+      </c>
+      <c r="X11" s="11">
+        <v>7052</v>
       </c>
       <c r="Y11" s="11">
-        <v>7145</v>
+        <v>6706</v>
       </c>
       <c r="Z11" s="11">
-        <v>7052</v>
+        <v>4730</v>
       </c>
       <c r="AA11" s="11">
-        <v>6706</v>
+        <v>3519</v>
       </c>
       <c r="AB11" s="11">
-        <v>4730</v>
+        <v>6590</v>
       </c>
       <c r="AC11" s="11">
-        <v>3519</v>
+        <v>2192</v>
       </c>
       <c r="AD11" s="11">
-        <v>6590</v>
+        <v>5232</v>
       </c>
       <c r="AE11" s="11">
-        <v>2192</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>5232</v>
-      </c>
-      <c r="AG11" s="11">
         <v>5491</v>
       </c>
+      <c r="AF11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1666,104 +1666,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>8769</v>
+      </c>
+      <c r="X12" s="13">
+        <v>8659</v>
       </c>
       <c r="Y12" s="13">
-        <v>8769</v>
+        <v>9259</v>
       </c>
       <c r="Z12" s="13">
-        <v>8659</v>
+        <v>9187</v>
       </c>
       <c r="AA12" s="13">
-        <v>9259</v>
+        <v>9394</v>
       </c>
       <c r="AB12" s="13">
-        <v>9187</v>
+        <v>9058</v>
       </c>
       <c r="AC12" s="13">
-        <v>9394</v>
+        <v>9659</v>
       </c>
       <c r="AD12" s="13">
-        <v>9058</v>
+        <v>9662</v>
       </c>
       <c r="AE12" s="13">
-        <v>9659</v>
+        <v>9440</v>
       </c>
       <c r="AF12" s="13">
-        <v>9662</v>
+        <v>9678</v>
       </c>
       <c r="AG12" s="13">
-        <v>9440</v>
+        <v>6314</v>
       </c>
       <c r="AH12" s="13">
-        <v>9678</v>
+        <v>8038</v>
       </c>
       <c r="AI12" s="13">
-        <v>6314</v>
+        <v>8363</v>
       </c>
       <c r="AJ12" s="13">
-        <v>8038</v>
+        <v>8156</v>
       </c>
       <c r="AK12" s="13">
-        <v>8363</v>
+        <v>8988</v>
       </c>
       <c r="AL12" s="13">
-        <v>8156</v>
+        <v>9257</v>
       </c>
       <c r="AM12" s="13">
-        <v>8988</v>
+        <v>9178</v>
       </c>
       <c r="AN12" s="13">
-        <v>9257</v>
+        <v>9420</v>
       </c>
       <c r="AO12" s="13">
-        <v>9178</v>
+        <v>8814</v>
       </c>
       <c r="AP12" s="13">
-        <v>9420</v>
+        <v>9533</v>
       </c>
       <c r="AQ12" s="13">
-        <v>8814</v>
+        <v>9123</v>
       </c>
       <c r="AR12" s="13">
-        <v>9533</v>
+        <v>8406</v>
       </c>
       <c r="AS12" s="13">
-        <v>9123</v>
+        <v>8039</v>
       </c>
       <c r="AT12" s="13">
-        <v>8406</v>
+        <v>2656</v>
       </c>
       <c r="AU12" s="13">
-        <v>8039</v>
+        <v>6992</v>
       </c>
       <c r="AV12" s="13">
-        <v>2656</v>
+        <v>7692</v>
       </c>
       <c r="AW12" s="13">
-        <v>6992</v>
+        <v>9280</v>
       </c>
       <c r="AX12" s="13">
-        <v>7692</v>
+        <v>8800</v>
       </c>
       <c r="AY12" s="13">
-        <v>9280</v>
+        <v>9781</v>
       </c>
       <c r="AZ12" s="13">
-        <v>8800</v>
+        <v>9870</v>
       </c>
       <c r="BA12" s="13">
-        <v>9781</v>
+        <v>9098</v>
       </c>
       <c r="BB12" s="13">
-        <v>9870</v>
+        <v>6978</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1879,50 +1879,50 @@
       <c r="AN13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP13" s="11" t="s">
-        <v>58</v>
+      <c r="AO13" s="11">
+        <v>19150</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>14012</v>
       </c>
       <c r="AQ13" s="11">
-        <v>19150</v>
+        <v>35132</v>
       </c>
       <c r="AR13" s="11">
-        <v>14012</v>
+        <v>18165</v>
       </c>
       <c r="AS13" s="11">
-        <v>35132</v>
+        <v>42627</v>
       </c>
       <c r="AT13" s="11">
-        <v>18165</v>
+        <v>22442</v>
       </c>
       <c r="AU13" s="11">
-        <v>42627</v>
+        <v>19095</v>
       </c>
       <c r="AV13" s="11">
-        <v>22442</v>
+        <v>10734</v>
       </c>
       <c r="AW13" s="11">
-        <v>19095</v>
+        <v>20610</v>
       </c>
       <c r="AX13" s="11">
-        <v>10734</v>
+        <v>24491</v>
       </c>
       <c r="AY13" s="11">
-        <v>20610</v>
+        <v>68887</v>
       </c>
       <c r="AZ13" s="11">
-        <v>24491</v>
+        <v>39470</v>
       </c>
       <c r="BA13" s="11">
-        <v>27753</v>
+        <v>6701</v>
       </c>
       <c r="BB13" s="11">
-        <v>39470</v>
+        <v>57065</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2038,50 +2038,50 @@
       <c r="AN14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP14" s="13" t="s">
-        <v>58</v>
+      <c r="AO14" s="13">
+        <v>10739</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>5959</v>
       </c>
       <c r="AQ14" s="13">
-        <v>10739</v>
+        <v>11546</v>
       </c>
       <c r="AR14" s="13">
-        <v>5959</v>
+        <v>6612</v>
       </c>
       <c r="AS14" s="13">
-        <v>11546</v>
+        <v>8651</v>
       </c>
       <c r="AT14" s="13">
-        <v>6612</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="13">
-        <v>8651</v>
+        <v>8701</v>
       </c>
       <c r="AV14" s="13">
-        <v>0</v>
+        <v>10708</v>
       </c>
       <c r="AW14" s="13">
-        <v>8701</v>
+        <v>13311</v>
       </c>
       <c r="AX14" s="13">
-        <v>10708</v>
+        <v>13465</v>
       </c>
       <c r="AY14" s="13">
-        <v>13311</v>
+        <v>14051</v>
       </c>
       <c r="AZ14" s="13">
-        <v>13465</v>
+        <v>11959</v>
       </c>
       <c r="BA14" s="13">
-        <v>14051</v>
+        <v>7472</v>
       </c>
       <c r="BB14" s="13">
-        <v>11959</v>
+        <v>6369</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2143,66 +2143,66 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>6638</v>
+      </c>
+      <c r="X15" s="11">
+        <v>9186</v>
       </c>
       <c r="Y15" s="11">
-        <v>6638</v>
+        <v>10542</v>
       </c>
       <c r="Z15" s="11">
-        <v>9186</v>
+        <v>6633</v>
       </c>
       <c r="AA15" s="11">
-        <v>10542</v>
+        <v>6169</v>
       </c>
       <c r="AB15" s="11">
-        <v>6633</v>
+        <v>5074</v>
       </c>
       <c r="AC15" s="11">
-        <v>6169</v>
+        <v>6669</v>
       </c>
       <c r="AD15" s="11">
-        <v>5074</v>
+        <v>6761</v>
       </c>
       <c r="AE15" s="11">
-        <v>6669</v>
+        <v>5675</v>
       </c>
       <c r="AF15" s="11">
-        <v>6761</v>
+        <v>12973</v>
       </c>
       <c r="AG15" s="11">
-        <v>5675</v>
+        <v>3505</v>
       </c>
       <c r="AH15" s="11">
-        <v>12973</v>
+        <v>6005</v>
       </c>
       <c r="AI15" s="11">
-        <v>3505</v>
+        <v>6092</v>
       </c>
       <c r="AJ15" s="11">
-        <v>6005</v>
+        <v>11728</v>
       </c>
       <c r="AK15" s="11">
-        <v>6092</v>
+        <v>6371</v>
       </c>
       <c r="AL15" s="11">
-        <v>11728</v>
+        <v>7252</v>
       </c>
       <c r="AM15" s="11">
-        <v>6371</v>
+        <v>7207</v>
       </c>
       <c r="AN15" s="11">
-        <v>7252</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>7207</v>
-      </c>
-      <c r="AP15" s="11">
         <v>6506</v>
       </c>
+      <c r="AO15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ15" s="11" t="s">
         <v>58</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2302,66 +2302,66 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>10931</v>
+      </c>
+      <c r="X16" s="13">
+        <v>16111</v>
       </c>
       <c r="Y16" s="13">
-        <v>10931</v>
+        <v>21312</v>
       </c>
       <c r="Z16" s="13">
-        <v>16111</v>
+        <v>19485</v>
       </c>
       <c r="AA16" s="13">
-        <v>21312</v>
+        <v>16785</v>
       </c>
       <c r="AB16" s="13">
-        <v>19485</v>
+        <v>20795</v>
       </c>
       <c r="AC16" s="13">
-        <v>16785</v>
+        <v>34861</v>
       </c>
       <c r="AD16" s="13">
-        <v>20795</v>
+        <v>17511</v>
       </c>
       <c r="AE16" s="13">
-        <v>34861</v>
+        <v>27370</v>
       </c>
       <c r="AF16" s="13">
-        <v>17511</v>
+        <v>11532</v>
       </c>
       <c r="AG16" s="13">
-        <v>27370</v>
+        <v>44965</v>
       </c>
       <c r="AH16" s="13">
-        <v>11532</v>
+        <v>20251</v>
       </c>
       <c r="AI16" s="13">
-        <v>44965</v>
+        <v>23457</v>
       </c>
       <c r="AJ16" s="13">
-        <v>20251</v>
+        <v>14147</v>
       </c>
       <c r="AK16" s="13">
-        <v>23457</v>
+        <v>25698</v>
       </c>
       <c r="AL16" s="13">
-        <v>14147</v>
+        <v>17713</v>
       </c>
       <c r="AM16" s="13">
-        <v>25698</v>
+        <v>17073</v>
       </c>
       <c r="AN16" s="13">
-        <v>17713</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>17073</v>
-      </c>
-      <c r="AP16" s="13">
         <v>18028</v>
       </c>
+      <c r="AO16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP16" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2488,77 +2488,77 @@
       <c r="AE17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>58</v>
+      <c r="AF17" s="11">
+        <v>3267</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>5331</v>
       </c>
       <c r="AH17" s="11">
-        <v>3267</v>
+        <v>5166</v>
       </c>
       <c r="AI17" s="11">
-        <v>5331</v>
+        <v>2853</v>
       </c>
       <c r="AJ17" s="11">
-        <v>5166</v>
+        <v>5236</v>
       </c>
       <c r="AK17" s="11">
-        <v>2853</v>
+        <v>3199</v>
       </c>
       <c r="AL17" s="11">
-        <v>5236</v>
+        <v>2414</v>
       </c>
       <c r="AM17" s="11">
-        <v>3199</v>
+        <v>97</v>
       </c>
       <c r="AN17" s="11">
-        <v>2414</v>
+        <v>2249</v>
       </c>
       <c r="AO17" s="11">
-        <v>97</v>
+        <v>1802</v>
       </c>
       <c r="AP17" s="11">
-        <v>2249</v>
+        <v>4211</v>
       </c>
       <c r="AQ17" s="11">
-        <v>1802</v>
+        <v>2696</v>
       </c>
       <c r="AR17" s="11">
-        <v>4211</v>
+        <v>2863</v>
       </c>
       <c r="AS17" s="11">
-        <v>2696</v>
+        <v>5403</v>
       </c>
       <c r="AT17" s="11">
-        <v>2863</v>
+        <v>4071</v>
       </c>
       <c r="AU17" s="11">
-        <v>5403</v>
+        <v>1363</v>
       </c>
       <c r="AV17" s="11">
-        <v>4071</v>
+        <v>4447</v>
       </c>
       <c r="AW17" s="11">
-        <v>1363</v>
+        <v>4159</v>
       </c>
       <c r="AX17" s="11">
-        <v>4248</v>
+        <v>1681</v>
       </c>
       <c r="AY17" s="11">
-        <v>4159</v>
+        <v>4564</v>
       </c>
       <c r="AZ17" s="11">
-        <v>1681</v>
+        <v>3260</v>
       </c>
       <c r="BA17" s="11">
-        <v>4564</v>
+        <v>912</v>
       </c>
       <c r="BB17" s="11">
-        <v>3260</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>65</v>
       </c>
@@ -2619,103 +2619,103 @@
         <v>0</v>
       </c>
       <c r="W18" s="15">
-        <v>0</v>
+        <v>33483</v>
       </c>
       <c r="X18" s="15">
-        <v>0</v>
+        <v>41008</v>
       </c>
       <c r="Y18" s="15">
-        <v>33483</v>
+        <v>47819</v>
       </c>
       <c r="Z18" s="15">
-        <v>41008</v>
+        <v>40035</v>
       </c>
       <c r="AA18" s="15">
-        <v>47819</v>
+        <v>35867</v>
       </c>
       <c r="AB18" s="15">
-        <v>40035</v>
+        <v>41517</v>
       </c>
       <c r="AC18" s="15">
-        <v>35867</v>
+        <v>53381</v>
       </c>
       <c r="AD18" s="15">
-        <v>41517</v>
+        <v>39166</v>
       </c>
       <c r="AE18" s="15">
-        <v>53381</v>
+        <v>47976</v>
       </c>
       <c r="AF18" s="15">
-        <v>39166</v>
+        <v>37450</v>
       </c>
       <c r="AG18" s="15">
-        <v>47976</v>
+        <v>60115</v>
       </c>
       <c r="AH18" s="15">
-        <v>37450</v>
+        <v>39460</v>
       </c>
       <c r="AI18" s="15">
-        <v>60115</v>
+        <v>40765</v>
       </c>
       <c r="AJ18" s="15">
-        <v>39460</v>
+        <v>39267</v>
       </c>
       <c r="AK18" s="15">
-        <v>40765</v>
+        <v>44256</v>
       </c>
       <c r="AL18" s="15">
-        <v>39267</v>
+        <v>36636</v>
       </c>
       <c r="AM18" s="15">
-        <v>44256</v>
+        <v>33555</v>
       </c>
       <c r="AN18" s="15">
-        <v>36636</v>
+        <v>36203</v>
       </c>
       <c r="AO18" s="15">
-        <v>33555</v>
+        <v>40505</v>
       </c>
       <c r="AP18" s="15">
-        <v>36203</v>
+        <v>33715</v>
       </c>
       <c r="AQ18" s="15">
-        <v>40505</v>
+        <v>58497</v>
       </c>
       <c r="AR18" s="15">
-        <v>33715</v>
+        <v>36046</v>
       </c>
       <c r="AS18" s="15">
-        <v>58497</v>
+        <v>64720</v>
       </c>
       <c r="AT18" s="15">
-        <v>36046</v>
+        <v>29169</v>
       </c>
       <c r="AU18" s="15">
-        <v>64720</v>
+        <v>36151</v>
       </c>
       <c r="AV18" s="15">
-        <v>29169</v>
+        <v>33581</v>
       </c>
       <c r="AW18" s="15">
-        <v>36151</v>
+        <v>47360</v>
       </c>
       <c r="AX18" s="15">
-        <v>33382</v>
+        <v>48437</v>
       </c>
       <c r="AY18" s="15">
-        <v>47360</v>
+        <v>97283</v>
       </c>
       <c r="AZ18" s="15">
-        <v>48437</v>
+        <v>64559</v>
       </c>
       <c r="BA18" s="15">
-        <v>56149</v>
+        <v>24183</v>
       </c>
       <c r="BB18" s="15">
-        <v>64559</v>
+        <v>71386</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>66</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>60</v>
       </c>
@@ -2888,50 +2888,50 @@
       <c r="AN20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP20" s="11" t="s">
-        <v>58</v>
+      <c r="AO20" s="11">
+        <v>60643</v>
+      </c>
+      <c r="AP20" s="11">
+        <v>69852</v>
       </c>
       <c r="AQ20" s="11">
-        <v>60643</v>
+        <v>41645</v>
       </c>
       <c r="AR20" s="11">
-        <v>69852</v>
+        <v>60128</v>
       </c>
       <c r="AS20" s="11">
-        <v>41645</v>
+        <v>39855</v>
       </c>
       <c r="AT20" s="11">
-        <v>60128</v>
+        <v>58493</v>
       </c>
       <c r="AU20" s="11">
-        <v>39855</v>
+        <v>52625</v>
       </c>
       <c r="AV20" s="11">
-        <v>58493</v>
+        <v>64975</v>
       </c>
       <c r="AW20" s="11">
-        <v>52625</v>
+        <v>55153</v>
       </c>
       <c r="AX20" s="11">
-        <v>64975</v>
+        <v>30369</v>
       </c>
       <c r="AY20" s="11">
-        <v>55153</v>
+        <v>41134</v>
       </c>
       <c r="AZ20" s="11">
-        <v>30369</v>
+        <v>32294</v>
       </c>
       <c r="BA20" s="11">
-        <v>41134</v>
+        <v>14470</v>
       </c>
       <c r="BB20" s="11">
-        <v>32294</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>61</v>
       </c>
@@ -3047,50 +3047,50 @@
       <c r="AN21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP21" s="13" t="s">
-        <v>58</v>
+      <c r="AO21" s="13">
+        <v>1465</v>
+      </c>
+      <c r="AP21" s="13">
+        <v>6605</v>
       </c>
       <c r="AQ21" s="13">
-        <v>1465</v>
+        <v>85</v>
       </c>
       <c r="AR21" s="13">
-        <v>6605</v>
+        <v>5269</v>
       </c>
       <c r="AS21" s="13">
-        <v>85</v>
+        <v>2123</v>
       </c>
       <c r="AT21" s="13">
-        <v>5269</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="13">
-        <v>2123</v>
+        <v>700</v>
       </c>
       <c r="AV21" s="13">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="AW21" s="13">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="AX21" s="13">
-        <v>301</v>
+        <v>58</v>
       </c>
       <c r="AY21" s="13">
-        <v>636</v>
+        <v>147</v>
       </c>
       <c r="AZ21" s="13">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="BA21" s="13">
-        <v>147</v>
+        <v>4376</v>
       </c>
       <c r="BB21" s="13">
-        <v>24</v>
+        <v>3582</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>67</v>
       </c>
@@ -3152,66 +3152,66 @@
       <c r="V22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>58</v>
+      <c r="W22" s="11">
+        <v>66455</v>
+      </c>
+      <c r="X22" s="11">
+        <v>60310</v>
       </c>
       <c r="Y22" s="11">
-        <v>66455</v>
+        <v>62424</v>
       </c>
       <c r="Z22" s="11">
-        <v>60310</v>
+        <v>58844</v>
       </c>
       <c r="AA22" s="11">
-        <v>62424</v>
+        <v>64256</v>
       </c>
       <c r="AB22" s="11">
-        <v>58844</v>
+        <v>58813</v>
       </c>
       <c r="AC22" s="11">
-        <v>64256</v>
+        <v>42062</v>
       </c>
       <c r="AD22" s="11">
-        <v>58813</v>
+        <v>61872</v>
       </c>
       <c r="AE22" s="11">
-        <v>42062</v>
+        <v>45416</v>
       </c>
       <c r="AF22" s="11">
-        <v>61872</v>
+        <v>38497</v>
       </c>
       <c r="AG22" s="11">
-        <v>45416</v>
+        <v>37751</v>
       </c>
       <c r="AH22" s="11">
-        <v>38497</v>
+        <v>65527</v>
       </c>
       <c r="AI22" s="11">
-        <v>37751</v>
+        <v>58200</v>
       </c>
       <c r="AJ22" s="11">
-        <v>65527</v>
+        <v>68051</v>
       </c>
       <c r="AK22" s="11">
-        <v>58200</v>
+        <v>54147</v>
       </c>
       <c r="AL22" s="11">
-        <v>68051</v>
+        <v>60735</v>
       </c>
       <c r="AM22" s="11">
-        <v>54147</v>
+        <v>61740</v>
       </c>
       <c r="AN22" s="11">
-        <v>60735</v>
-      </c>
-      <c r="AO22" s="11">
-        <v>61740</v>
-      </c>
-      <c r="AP22" s="11">
         <v>61853</v>
       </c>
+      <c r="AO22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP22" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ22" s="11" t="s">
         <v>58</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>68</v>
       </c>
@@ -3311,66 +3311,66 @@
       <c r="V23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>58</v>
+      <c r="W23" s="13">
+        <v>5754</v>
+      </c>
+      <c r="X23" s="13">
+        <v>2635</v>
       </c>
       <c r="Y23" s="13">
-        <v>5754</v>
+        <v>3459</v>
       </c>
       <c r="Z23" s="13">
-        <v>2635</v>
+        <v>6943</v>
       </c>
       <c r="AA23" s="13">
-        <v>3459</v>
+        <v>7323</v>
       </c>
       <c r="AB23" s="13">
-        <v>6943</v>
+        <v>2842</v>
       </c>
       <c r="AC23" s="13">
-        <v>7323</v>
+        <v>6769</v>
       </c>
       <c r="AD23" s="13">
-        <v>2842</v>
+        <v>6879</v>
       </c>
       <c r="AE23" s="13">
-        <v>6769</v>
+        <v>7498</v>
       </c>
       <c r="AF23" s="13">
-        <v>6879</v>
+        <v>1116</v>
       </c>
       <c r="AG23" s="13">
-        <v>7498</v>
+        <v>5790</v>
       </c>
       <c r="AH23" s="13">
-        <v>1116</v>
+        <v>5768</v>
       </c>
       <c r="AI23" s="13">
-        <v>5790</v>
+        <v>5230</v>
       </c>
       <c r="AJ23" s="13">
-        <v>5768</v>
+        <v>344</v>
       </c>
       <c r="AK23" s="13">
-        <v>5230</v>
+        <v>6796</v>
       </c>
       <c r="AL23" s="13">
-        <v>344</v>
+        <v>5767</v>
       </c>
       <c r="AM23" s="13">
-        <v>6796</v>
+        <v>6426</v>
       </c>
       <c r="AN23" s="13">
-        <v>5767</v>
-      </c>
-      <c r="AO23" s="13">
-        <v>6426</v>
-      </c>
-      <c r="AP23" s="13">
         <v>3386</v>
       </c>
+      <c r="AO23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP23" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ23" s="13" t="s">
         <v>58</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
@@ -3469,103 +3469,103 @@
         <v>0</v>
       </c>
       <c r="W24" s="17">
-        <v>0</v>
+        <v>72209</v>
       </c>
       <c r="X24" s="17">
-        <v>0</v>
+        <v>62945</v>
       </c>
       <c r="Y24" s="17">
-        <v>72209</v>
+        <v>65883</v>
       </c>
       <c r="Z24" s="17">
-        <v>62945</v>
+        <v>65787</v>
       </c>
       <c r="AA24" s="17">
-        <v>65883</v>
+        <v>71579</v>
       </c>
       <c r="AB24" s="17">
-        <v>65787</v>
+        <v>61655</v>
       </c>
       <c r="AC24" s="17">
-        <v>71579</v>
+        <v>48831</v>
       </c>
       <c r="AD24" s="17">
-        <v>61655</v>
+        <v>68751</v>
       </c>
       <c r="AE24" s="17">
-        <v>48831</v>
+        <v>52914</v>
       </c>
       <c r="AF24" s="17">
-        <v>68751</v>
+        <v>39613</v>
       </c>
       <c r="AG24" s="17">
-        <v>52914</v>
+        <v>43541</v>
       </c>
       <c r="AH24" s="17">
-        <v>39613</v>
+        <v>71295</v>
       </c>
       <c r="AI24" s="17">
-        <v>43541</v>
+        <v>63430</v>
       </c>
       <c r="AJ24" s="17">
-        <v>71295</v>
+        <v>68395</v>
       </c>
       <c r="AK24" s="17">
-        <v>63430</v>
+        <v>60943</v>
       </c>
       <c r="AL24" s="17">
-        <v>68395</v>
+        <v>66502</v>
       </c>
       <c r="AM24" s="17">
-        <v>60943</v>
+        <v>68166</v>
       </c>
       <c r="AN24" s="17">
-        <v>66502</v>
+        <v>65239</v>
       </c>
       <c r="AO24" s="17">
-        <v>68166</v>
+        <v>62108</v>
       </c>
       <c r="AP24" s="17">
-        <v>65239</v>
+        <v>76457</v>
       </c>
       <c r="AQ24" s="17">
-        <v>62108</v>
+        <v>41730</v>
       </c>
       <c r="AR24" s="17">
-        <v>76457</v>
+        <v>65397</v>
       </c>
       <c r="AS24" s="17">
-        <v>41730</v>
+        <v>41978</v>
       </c>
       <c r="AT24" s="17">
-        <v>65397</v>
+        <v>58493</v>
       </c>
       <c r="AU24" s="17">
-        <v>41978</v>
+        <v>53325</v>
       </c>
       <c r="AV24" s="17">
-        <v>58493</v>
+        <v>65276</v>
       </c>
       <c r="AW24" s="17">
-        <v>53325</v>
+        <v>55789</v>
       </c>
       <c r="AX24" s="17">
-        <v>65276</v>
+        <v>30427</v>
       </c>
       <c r="AY24" s="17">
-        <v>55789</v>
+        <v>41281</v>
       </c>
       <c r="AZ24" s="17">
-        <v>30427</v>
+        <v>32318</v>
       </c>
       <c r="BA24" s="17">
-        <v>41281</v>
+        <v>18846</v>
       </c>
       <c r="BB24" s="17">
-        <v>32318</v>
+        <v>3582</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>70</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="BA25" s="19"/>
       <c r="BB25" s="19"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>71</v>
       </c>
@@ -3682,11 +3682,11 @@
       <c r="V26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="17" t="s">
-        <v>58</v>
+      <c r="W26" s="17">
+        <v>0</v>
+      </c>
+      <c r="X26" s="17">
+        <v>0</v>
       </c>
       <c r="Y26" s="17">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>72</v>
       </c>
@@ -3840,103 +3840,103 @@
         <v>0</v>
       </c>
       <c r="W27" s="15">
-        <v>0</v>
+        <v>105692</v>
       </c>
       <c r="X27" s="15">
-        <v>0</v>
+        <v>103953</v>
       </c>
       <c r="Y27" s="15">
-        <v>105692</v>
+        <v>113702</v>
       </c>
       <c r="Z27" s="15">
-        <v>103953</v>
+        <v>105822</v>
       </c>
       <c r="AA27" s="15">
-        <v>113702</v>
+        <v>107446</v>
       </c>
       <c r="AB27" s="15">
-        <v>105822</v>
+        <v>103172</v>
       </c>
       <c r="AC27" s="15">
-        <v>107446</v>
+        <v>102212</v>
       </c>
       <c r="AD27" s="15">
-        <v>103172</v>
+        <v>107917</v>
       </c>
       <c r="AE27" s="15">
-        <v>102212</v>
+        <v>100890</v>
       </c>
       <c r="AF27" s="15">
-        <v>107917</v>
+        <v>77063</v>
       </c>
       <c r="AG27" s="15">
-        <v>100890</v>
+        <v>103656</v>
       </c>
       <c r="AH27" s="15">
-        <v>77063</v>
+        <v>110755</v>
       </c>
       <c r="AI27" s="15">
-        <v>103656</v>
+        <v>104195</v>
       </c>
       <c r="AJ27" s="15">
-        <v>110755</v>
+        <v>107662</v>
       </c>
       <c r="AK27" s="15">
-        <v>104195</v>
+        <v>105199</v>
       </c>
       <c r="AL27" s="15">
-        <v>107662</v>
+        <v>103138</v>
       </c>
       <c r="AM27" s="15">
-        <v>105199</v>
+        <v>101721</v>
       </c>
       <c r="AN27" s="15">
-        <v>103138</v>
+        <v>101442</v>
       </c>
       <c r="AO27" s="15">
-        <v>101721</v>
+        <v>102613</v>
       </c>
       <c r="AP27" s="15">
-        <v>101442</v>
+        <v>110172</v>
       </c>
       <c r="AQ27" s="15">
-        <v>102613</v>
+        <v>100227</v>
       </c>
       <c r="AR27" s="15">
-        <v>110172</v>
+        <v>101443</v>
       </c>
       <c r="AS27" s="15">
-        <v>100227</v>
+        <v>106698</v>
       </c>
       <c r="AT27" s="15">
-        <v>101443</v>
+        <v>87662</v>
       </c>
       <c r="AU27" s="15">
-        <v>106698</v>
+        <v>89476</v>
       </c>
       <c r="AV27" s="15">
-        <v>87662</v>
+        <v>98857</v>
       </c>
       <c r="AW27" s="15">
-        <v>89476</v>
+        <v>103149</v>
       </c>
       <c r="AX27" s="15">
-        <v>98658</v>
+        <v>78864</v>
       </c>
       <c r="AY27" s="15">
-        <v>103149</v>
+        <v>138564</v>
       </c>
       <c r="AZ27" s="15">
-        <v>78864</v>
+        <v>96877</v>
       </c>
       <c r="BA27" s="15">
-        <v>97430</v>
+        <v>43029</v>
       </c>
       <c r="BB27" s="15">
-        <v>96877</v>
+        <v>74968</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3991,7 +3991,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4046,7 +4046,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4101,7 +4101,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>73</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4313,7 +4313,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>74</v>
       </c>
@@ -4370,7 +4370,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>56</v>
       </c>
@@ -4432,39 +4432,39 @@
       <c r="V34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="11" t="s">
-        <v>58</v>
+      <c r="W34" s="11">
+        <v>7144</v>
+      </c>
+      <c r="X34" s="11">
+        <v>7012</v>
       </c>
       <c r="Y34" s="11">
-        <v>7144</v>
+        <v>6655</v>
       </c>
       <c r="Z34" s="11">
-        <v>7012</v>
+        <v>4729</v>
       </c>
       <c r="AA34" s="11">
-        <v>6655</v>
+        <v>3519</v>
       </c>
       <c r="AB34" s="11">
-        <v>4729</v>
+        <v>6590</v>
       </c>
       <c r="AC34" s="11">
-        <v>3519</v>
+        <v>2193</v>
       </c>
       <c r="AD34" s="11">
-        <v>6590</v>
+        <v>5233</v>
       </c>
       <c r="AE34" s="11">
-        <v>2193</v>
-      </c>
-      <c r="AF34" s="11">
-        <v>5233</v>
-      </c>
-      <c r="AG34" s="11">
         <v>5491</v>
       </c>
+      <c r="AF34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG34" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH34" s="11" t="s">
         <v>58</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
@@ -4591,104 +4591,104 @@
       <c r="V35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="13" t="s">
-        <v>58</v>
+      <c r="W35" s="13">
+        <v>1397</v>
+      </c>
+      <c r="X35" s="13">
+        <v>1426</v>
       </c>
       <c r="Y35" s="13">
-        <v>1397</v>
+        <v>1481</v>
       </c>
       <c r="Z35" s="13">
-        <v>1426</v>
+        <v>1467</v>
       </c>
       <c r="AA35" s="13">
+        <v>1577</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>1446</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>1786</v>
+      </c>
+      <c r="AD35" s="13">
+        <v>1764</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>1517</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>1680</v>
+      </c>
+      <c r="AG35" s="13">
+        <v>858</v>
+      </c>
+      <c r="AH35" s="13">
+        <v>1371</v>
+      </c>
+      <c r="AI35" s="13">
+        <v>1424</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>1266</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>1605</v>
+      </c>
+      <c r="AL35" s="13">
         <v>1481</v>
       </c>
-      <c r="AB35" s="13">
-        <v>1467</v>
-      </c>
-      <c r="AC35" s="13">
-        <v>1577</v>
-      </c>
-      <c r="AD35" s="13">
-        <v>1446</v>
-      </c>
-      <c r="AE35" s="13">
-        <v>1786</v>
-      </c>
-      <c r="AF35" s="13">
-        <v>1764</v>
-      </c>
-      <c r="AG35" s="13">
-        <v>1517</v>
-      </c>
-      <c r="AH35" s="13">
-        <v>1680</v>
-      </c>
-      <c r="AI35" s="13">
-        <v>858</v>
-      </c>
-      <c r="AJ35" s="13">
-        <v>1371</v>
-      </c>
-      <c r="AK35" s="13">
-        <v>1424</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>1266</v>
-      </c>
       <c r="AM35" s="13">
-        <v>1605</v>
+        <v>1076</v>
       </c>
       <c r="AN35" s="13">
-        <v>1481</v>
+        <v>1204</v>
       </c>
       <c r="AO35" s="13">
-        <v>1076</v>
+        <v>579</v>
       </c>
       <c r="AP35" s="13">
-        <v>1204</v>
+        <v>1014</v>
       </c>
       <c r="AQ35" s="13">
-        <v>579</v>
+        <v>929</v>
       </c>
       <c r="AR35" s="13">
-        <v>1014</v>
+        <v>883</v>
       </c>
       <c r="AS35" s="13">
-        <v>929</v>
+        <v>1243</v>
       </c>
       <c r="AT35" s="13">
-        <v>883</v>
+        <v>78</v>
       </c>
       <c r="AU35" s="13">
-        <v>1243</v>
+        <v>757</v>
       </c>
       <c r="AV35" s="13">
-        <v>78</v>
+        <v>1172</v>
       </c>
       <c r="AW35" s="13">
-        <v>757</v>
+        <v>1142</v>
       </c>
       <c r="AX35" s="13">
-        <v>1172</v>
+        <v>1339</v>
       </c>
       <c r="AY35" s="13">
-        <v>1142</v>
+        <v>1587</v>
       </c>
       <c r="AZ35" s="13">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="BA35" s="13">
-        <v>1587</v>
+        <v>1521</v>
       </c>
       <c r="BB35" s="13">
-        <v>1350</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4804,50 +4804,50 @@
       <c r="AN36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP36" s="11" t="s">
-        <v>58</v>
+      <c r="AO36" s="11">
+        <v>17789</v>
+      </c>
+      <c r="AP36" s="11">
+        <v>16192</v>
       </c>
       <c r="AQ36" s="11">
-        <v>17789</v>
+        <v>16766</v>
       </c>
       <c r="AR36" s="11">
-        <v>16192</v>
+        <v>18021</v>
       </c>
       <c r="AS36" s="11">
-        <v>16766</v>
+        <v>19267</v>
       </c>
       <c r="AT36" s="11">
-        <v>18021</v>
+        <v>17022</v>
       </c>
       <c r="AU36" s="11">
-        <v>19267</v>
+        <v>16605</v>
       </c>
       <c r="AV36" s="11">
-        <v>17022</v>
+        <v>21493</v>
       </c>
       <c r="AW36" s="11">
-        <v>16605</v>
+        <v>20210</v>
       </c>
       <c r="AX36" s="11">
-        <v>21493</v>
+        <v>14477</v>
       </c>
       <c r="AY36" s="11">
-        <v>20210</v>
+        <v>21750</v>
       </c>
       <c r="AZ36" s="11">
-        <v>14477</v>
+        <v>25812</v>
       </c>
       <c r="BA36" s="11">
-        <v>21750</v>
+        <v>17963</v>
       </c>
       <c r="BB36" s="11">
-        <v>25812</v>
+        <v>20739</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>61</v>
       </c>
@@ -4963,50 +4963,50 @@
       <c r="AN37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP37" s="13" t="s">
-        <v>58</v>
+      <c r="AO37" s="13">
+        <v>8060</v>
+      </c>
+      <c r="AP37" s="13">
+        <v>9127</v>
       </c>
       <c r="AQ37" s="13">
-        <v>8060</v>
+        <v>5824</v>
       </c>
       <c r="AR37" s="13">
-        <v>9127</v>
+        <v>7621</v>
       </c>
       <c r="AS37" s="13">
-        <v>5824</v>
+        <v>6799</v>
       </c>
       <c r="AT37" s="13">
-        <v>7621</v>
+        <v>7194</v>
       </c>
       <c r="AU37" s="13">
-        <v>6799</v>
+        <v>6162</v>
       </c>
       <c r="AV37" s="13">
-        <v>7194</v>
+        <v>9923</v>
       </c>
       <c r="AW37" s="13">
-        <v>6162</v>
+        <v>9506</v>
       </c>
       <c r="AX37" s="13">
-        <v>9923</v>
+        <v>8995</v>
       </c>
       <c r="AY37" s="13">
-        <v>9506</v>
+        <v>10841</v>
       </c>
       <c r="AZ37" s="13">
-        <v>8995</v>
+        <v>9747</v>
       </c>
       <c r="BA37" s="13">
-        <v>10841</v>
+        <v>8953</v>
       </c>
       <c r="BB37" s="13">
-        <v>9747</v>
+        <v>9401</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>62</v>
       </c>
@@ -5068,66 +5068,66 @@
       <c r="V38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>58</v>
+      <c r="W38" s="11">
+        <v>7885</v>
+      </c>
+      <c r="X38" s="11">
+        <v>8712</v>
       </c>
       <c r="Y38" s="11">
-        <v>7885</v>
+        <v>9172</v>
       </c>
       <c r="Z38" s="11">
-        <v>8712</v>
+        <v>7665</v>
       </c>
       <c r="AA38" s="11">
-        <v>9172</v>
+        <v>6756</v>
       </c>
       <c r="AB38" s="11">
-        <v>7665</v>
+        <v>5791</v>
       </c>
       <c r="AC38" s="11">
-        <v>6756</v>
+        <v>6061</v>
       </c>
       <c r="AD38" s="11">
-        <v>5791</v>
+        <v>6108</v>
       </c>
       <c r="AE38" s="11">
-        <v>6061</v>
+        <v>7300</v>
       </c>
       <c r="AF38" s="11">
-        <v>6108</v>
+        <v>5361</v>
       </c>
       <c r="AG38" s="11">
-        <v>7300</v>
+        <v>6135</v>
       </c>
       <c r="AH38" s="11">
-        <v>5361</v>
+        <v>6838</v>
       </c>
       <c r="AI38" s="11">
-        <v>6135</v>
+        <v>6276</v>
       </c>
       <c r="AJ38" s="11">
-        <v>6838</v>
+        <v>7093</v>
       </c>
       <c r="AK38" s="11">
-        <v>6276</v>
+        <v>7612</v>
       </c>
       <c r="AL38" s="11">
-        <v>7093</v>
+        <v>7140</v>
       </c>
       <c r="AM38" s="11">
-        <v>7612</v>
+        <v>6167</v>
       </c>
       <c r="AN38" s="11">
-        <v>7140</v>
-      </c>
-      <c r="AO38" s="11">
-        <v>6167</v>
-      </c>
-      <c r="AP38" s="11">
         <v>6851</v>
       </c>
+      <c r="AO38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP38" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ38" s="11" t="s">
         <v>58</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>63</v>
       </c>
@@ -5227,66 +5227,66 @@
       <c r="V39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="13" t="s">
-        <v>58</v>
+      <c r="W39" s="13">
+        <v>13617</v>
+      </c>
+      <c r="X39" s="13">
+        <v>16798</v>
       </c>
       <c r="Y39" s="13">
-        <v>13617</v>
+        <v>18409</v>
       </c>
       <c r="Z39" s="13">
-        <v>16798</v>
+        <v>19437</v>
       </c>
       <c r="AA39" s="13">
-        <v>18409</v>
+        <v>16405</v>
       </c>
       <c r="AB39" s="13">
-        <v>19437</v>
+        <v>18030</v>
       </c>
       <c r="AC39" s="13">
-        <v>16405</v>
+        <v>23442</v>
       </c>
       <c r="AD39" s="13">
-        <v>18030</v>
+        <v>19989</v>
       </c>
       <c r="AE39" s="13">
-        <v>23442</v>
+        <v>26480</v>
       </c>
       <c r="AF39" s="13">
-        <v>19989</v>
+        <v>11565</v>
       </c>
       <c r="AG39" s="13">
-        <v>26480</v>
+        <v>21495</v>
       </c>
       <c r="AH39" s="13">
-        <v>11565</v>
+        <v>17629</v>
       </c>
       <c r="AI39" s="13">
-        <v>21495</v>
+        <v>18553</v>
       </c>
       <c r="AJ39" s="13">
-        <v>17629</v>
+        <v>19804</v>
       </c>
       <c r="AK39" s="13">
-        <v>18553</v>
+        <v>20352</v>
       </c>
       <c r="AL39" s="13">
-        <v>19804</v>
+        <v>16571</v>
       </c>
       <c r="AM39" s="13">
-        <v>20352</v>
+        <v>19913</v>
       </c>
       <c r="AN39" s="13">
-        <v>16571</v>
-      </c>
-      <c r="AO39" s="13">
-        <v>19913</v>
-      </c>
-      <c r="AP39" s="13">
         <v>20351</v>
       </c>
+      <c r="AO39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP39" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ39" s="13" t="s">
         <v>58</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>64</v>
       </c>
@@ -5413,77 +5413,77 @@
       <c r="AE40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG40" s="11" t="s">
-        <v>58</v>
+      <c r="AF40" s="11">
+        <v>3267</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>5331</v>
       </c>
       <c r="AH40" s="11">
-        <v>3267</v>
+        <v>5166</v>
       </c>
       <c r="AI40" s="11">
-        <v>5331</v>
+        <v>2853</v>
       </c>
       <c r="AJ40" s="11">
-        <v>5166</v>
+        <v>5236</v>
       </c>
       <c r="AK40" s="11">
-        <v>2853</v>
+        <v>3199</v>
       </c>
       <c r="AL40" s="11">
-        <v>5236</v>
+        <v>2414</v>
       </c>
       <c r="AM40" s="11">
-        <v>3199</v>
+        <v>97</v>
       </c>
       <c r="AN40" s="11">
-        <v>2414</v>
+        <v>2249</v>
       </c>
       <c r="AO40" s="11">
-        <v>97</v>
+        <v>1802</v>
       </c>
       <c r="AP40" s="11">
-        <v>2249</v>
+        <v>4211</v>
       </c>
       <c r="AQ40" s="11">
-        <v>1802</v>
+        <v>2696</v>
       </c>
       <c r="AR40" s="11">
-        <v>4576</v>
+        <v>2863</v>
       </c>
       <c r="AS40" s="11">
-        <v>2696</v>
+        <v>5403</v>
       </c>
       <c r="AT40" s="11">
-        <v>2863</v>
+        <v>4071</v>
       </c>
       <c r="AU40" s="11">
-        <v>5403</v>
+        <v>1363</v>
       </c>
       <c r="AV40" s="11">
-        <v>4071</v>
+        <v>4248</v>
       </c>
       <c r="AW40" s="11">
-        <v>1363</v>
+        <v>4159</v>
       </c>
       <c r="AX40" s="11">
-        <v>4248</v>
+        <v>1681</v>
       </c>
       <c r="AY40" s="11">
-        <v>4159</v>
+        <v>4564</v>
       </c>
       <c r="AZ40" s="11">
-        <v>1681</v>
+        <v>3260</v>
       </c>
       <c r="BA40" s="11">
-        <v>4564</v>
+        <v>912</v>
       </c>
       <c r="BB40" s="11">
-        <v>3260</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
@@ -5544,103 +5544,103 @@
         <v>0</v>
       </c>
       <c r="W41" s="15">
-        <v>0</v>
+        <v>30043</v>
       </c>
       <c r="X41" s="15">
-        <v>0</v>
+        <v>33948</v>
       </c>
       <c r="Y41" s="15">
-        <v>30043</v>
+        <v>35717</v>
       </c>
       <c r="Z41" s="15">
-        <v>33948</v>
+        <v>33298</v>
       </c>
       <c r="AA41" s="15">
-        <v>35717</v>
+        <v>28257</v>
       </c>
       <c r="AB41" s="15">
-        <v>33298</v>
+        <v>31857</v>
       </c>
       <c r="AC41" s="15">
-        <v>28257</v>
+        <v>33482</v>
       </c>
       <c r="AD41" s="15">
-        <v>31857</v>
+        <v>33094</v>
       </c>
       <c r="AE41" s="15">
-        <v>33482</v>
+        <v>40788</v>
       </c>
       <c r="AF41" s="15">
-        <v>33094</v>
+        <v>21873</v>
       </c>
       <c r="AG41" s="15">
-        <v>40788</v>
+        <v>33819</v>
       </c>
       <c r="AH41" s="15">
-        <v>21873</v>
+        <v>31004</v>
       </c>
       <c r="AI41" s="15">
-        <v>33819</v>
+        <v>29106</v>
       </c>
       <c r="AJ41" s="15">
-        <v>31004</v>
+        <v>33399</v>
       </c>
       <c r="AK41" s="15">
-        <v>29106</v>
+        <v>32768</v>
       </c>
       <c r="AL41" s="15">
-        <v>33399</v>
+        <v>27606</v>
       </c>
       <c r="AM41" s="15">
-        <v>32768</v>
+        <v>27253</v>
       </c>
       <c r="AN41" s="15">
-        <v>27606</v>
+        <v>30655</v>
       </c>
       <c r="AO41" s="15">
-        <v>27253</v>
+        <v>28230</v>
       </c>
       <c r="AP41" s="15">
-        <v>30655</v>
+        <v>30544</v>
       </c>
       <c r="AQ41" s="15">
-        <v>28230</v>
+        <v>26215</v>
       </c>
       <c r="AR41" s="15">
-        <v>30909</v>
+        <v>29388</v>
       </c>
       <c r="AS41" s="15">
-        <v>26215</v>
+        <v>32712</v>
       </c>
       <c r="AT41" s="15">
-        <v>29388</v>
+        <v>28365</v>
       </c>
       <c r="AU41" s="15">
-        <v>32712</v>
+        <v>24887</v>
       </c>
       <c r="AV41" s="15">
-        <v>28365</v>
+        <v>36836</v>
       </c>
       <c r="AW41" s="15">
-        <v>24887</v>
+        <v>35017</v>
       </c>
       <c r="AX41" s="15">
-        <v>36836</v>
+        <v>26492</v>
       </c>
       <c r="AY41" s="15">
-        <v>35017</v>
+        <v>38742</v>
       </c>
       <c r="AZ41" s="15">
-        <v>26492</v>
+        <v>40169</v>
       </c>
       <c r="BA41" s="15">
-        <v>38742</v>
+        <v>29349</v>
       </c>
       <c r="BB41" s="15">
-        <v>40169</v>
+        <v>32278</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>76</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>60</v>
       </c>
@@ -5813,50 +5813,50 @@
       <c r="AN43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP43" s="11" t="s">
-        <v>58</v>
+      <c r="AO43" s="11">
+        <v>57571</v>
+      </c>
+      <c r="AP43" s="11">
+        <v>80721</v>
       </c>
       <c r="AQ43" s="11">
-        <v>57571</v>
+        <v>19874</v>
       </c>
       <c r="AR43" s="11">
-        <v>80721</v>
+        <v>59653</v>
       </c>
       <c r="AS43" s="11">
-        <v>19874</v>
+        <v>18014</v>
       </c>
       <c r="AT43" s="11">
-        <v>59653</v>
+        <v>63889</v>
       </c>
       <c r="AU43" s="11">
-        <v>18014</v>
+        <v>45763</v>
       </c>
       <c r="AV43" s="11">
-        <v>63889</v>
+        <v>130110</v>
       </c>
       <c r="AW43" s="11">
-        <v>45763</v>
+        <v>54084</v>
       </c>
       <c r="AX43" s="11">
-        <v>130110</v>
+        <v>17952</v>
       </c>
       <c r="AY43" s="11">
-        <v>54084</v>
+        <v>32238</v>
       </c>
       <c r="AZ43" s="11">
-        <v>17952</v>
+        <v>21101</v>
       </c>
       <c r="BA43" s="11">
-        <v>32238</v>
+        <v>38787</v>
       </c>
       <c r="BB43" s="11">
-        <v>21101</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>61</v>
       </c>
@@ -5972,50 +5972,50 @@
       <c r="AN44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP44" s="13" t="s">
-        <v>58</v>
+      <c r="AO44" s="13">
+        <v>1122</v>
+      </c>
+      <c r="AP44" s="13">
+        <v>10116</v>
       </c>
       <c r="AQ44" s="13">
-        <v>1122</v>
+        <v>43</v>
       </c>
       <c r="AR44" s="13">
-        <v>10116</v>
+        <v>6373</v>
       </c>
       <c r="AS44" s="13">
-        <v>43</v>
+        <v>1668</v>
       </c>
       <c r="AT44" s="13">
-        <v>6373</v>
+        <v>115</v>
       </c>
       <c r="AU44" s="13">
-        <v>1668</v>
+        <v>496</v>
       </c>
       <c r="AV44" s="13">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="AW44" s="13">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="AX44" s="13">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="AY44" s="13">
-        <v>454</v>
+        <v>113</v>
       </c>
       <c r="AZ44" s="13">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="BA44" s="13">
-        <v>113</v>
+        <v>5243</v>
       </c>
       <c r="BB44" s="13">
-        <v>19</v>
+        <v>5222</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>67</v>
       </c>
@@ -6077,66 +6077,66 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>82786</v>
+      </c>
+      <c r="X45" s="11">
+        <v>62879</v>
       </c>
       <c r="Y45" s="11">
-        <v>82786</v>
+        <v>53921</v>
       </c>
       <c r="Z45" s="11">
-        <v>62879</v>
+        <v>58700</v>
       </c>
       <c r="AA45" s="11">
-        <v>53921</v>
+        <v>62799</v>
       </c>
       <c r="AB45" s="11">
-        <v>58700</v>
+        <v>50992</v>
       </c>
       <c r="AC45" s="11">
-        <v>62799</v>
+        <v>28284</v>
       </c>
       <c r="AD45" s="11">
-        <v>50992</v>
+        <v>70625</v>
       </c>
       <c r="AE45" s="11">
-        <v>28284</v>
+        <v>43939</v>
       </c>
       <c r="AF45" s="11">
-        <v>70625</v>
+        <v>38605</v>
       </c>
       <c r="AG45" s="11">
-        <v>43939</v>
+        <v>18047</v>
       </c>
       <c r="AH45" s="11">
-        <v>38605</v>
+        <v>57043</v>
       </c>
       <c r="AI45" s="11">
-        <v>18047</v>
+        <v>46033</v>
       </c>
       <c r="AJ45" s="11">
-        <v>57043</v>
+        <v>75127</v>
       </c>
       <c r="AK45" s="11">
-        <v>46033</v>
+        <v>42883</v>
       </c>
       <c r="AL45" s="11">
-        <v>75127</v>
+        <v>30033</v>
       </c>
       <c r="AM45" s="11">
-        <v>42883</v>
+        <v>72010</v>
       </c>
       <c r="AN45" s="11">
-        <v>30033</v>
-      </c>
-      <c r="AO45" s="11">
-        <v>72010</v>
-      </c>
-      <c r="AP45" s="11">
         <v>69825</v>
       </c>
+      <c r="AO45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP45" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ45" s="11" t="s">
         <v>58</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>68</v>
       </c>
@@ -6236,66 +6236,66 @@
       <c r="V46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>58</v>
+      <c r="W46" s="13">
+        <v>6835</v>
+      </c>
+      <c r="X46" s="13">
+        <v>2499</v>
       </c>
       <c r="Y46" s="13">
-        <v>6835</v>
+        <v>3009</v>
       </c>
       <c r="Z46" s="13">
-        <v>2499</v>
+        <v>8023</v>
       </c>
       <c r="AA46" s="13">
-        <v>3009</v>
+        <v>8019</v>
       </c>
       <c r="AB46" s="13">
-        <v>8023</v>
+        <v>3344</v>
       </c>
       <c r="AC46" s="13">
-        <v>8019</v>
+        <v>6152</v>
       </c>
       <c r="AD46" s="13">
-        <v>3344</v>
+        <v>6212</v>
       </c>
       <c r="AE46" s="13">
-        <v>6152</v>
+        <v>9646</v>
       </c>
       <c r="AF46" s="13">
-        <v>6212</v>
+        <v>461</v>
       </c>
       <c r="AG46" s="13">
-        <v>9646</v>
+        <v>10133</v>
       </c>
       <c r="AH46" s="13">
-        <v>461</v>
+        <v>6570</v>
       </c>
       <c r="AI46" s="13">
-        <v>10133</v>
+        <v>5388</v>
       </c>
       <c r="AJ46" s="13">
-        <v>6570</v>
+        <v>208</v>
       </c>
       <c r="AK46" s="13">
-        <v>5388</v>
+        <v>8119</v>
       </c>
       <c r="AL46" s="13">
-        <v>208</v>
+        <v>5677</v>
       </c>
       <c r="AM46" s="13">
-        <v>8119</v>
+        <v>5499</v>
       </c>
       <c r="AN46" s="13">
-        <v>5677</v>
-      </c>
-      <c r="AO46" s="13">
-        <v>5499</v>
-      </c>
-      <c r="AP46" s="13">
         <v>3565</v>
       </c>
+      <c r="AO46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP46" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ46" s="13" t="s">
         <v>58</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>77</v>
       </c>
@@ -6394,103 +6394,103 @@
         <v>0</v>
       </c>
       <c r="W47" s="17">
-        <v>0</v>
+        <v>89621</v>
       </c>
       <c r="X47" s="17">
-        <v>0</v>
+        <v>65378</v>
       </c>
       <c r="Y47" s="17">
-        <v>89621</v>
+        <v>56930</v>
       </c>
       <c r="Z47" s="17">
-        <v>65378</v>
+        <v>66723</v>
       </c>
       <c r="AA47" s="17">
-        <v>56930</v>
+        <v>70818</v>
       </c>
       <c r="AB47" s="17">
-        <v>66723</v>
+        <v>54336</v>
       </c>
       <c r="AC47" s="17">
-        <v>70818</v>
+        <v>34436</v>
       </c>
       <c r="AD47" s="17">
-        <v>54336</v>
+        <v>76837</v>
       </c>
       <c r="AE47" s="17">
-        <v>34436</v>
+        <v>53585</v>
       </c>
       <c r="AF47" s="17">
-        <v>76837</v>
+        <v>39066</v>
       </c>
       <c r="AG47" s="17">
-        <v>53585</v>
+        <v>28180</v>
       </c>
       <c r="AH47" s="17">
-        <v>39066</v>
+        <v>63613</v>
       </c>
       <c r="AI47" s="17">
-        <v>28180</v>
+        <v>51421</v>
       </c>
       <c r="AJ47" s="17">
-        <v>63613</v>
+        <v>75335</v>
       </c>
       <c r="AK47" s="17">
-        <v>51421</v>
+        <v>51002</v>
       </c>
       <c r="AL47" s="17">
-        <v>75335</v>
+        <v>35710</v>
       </c>
       <c r="AM47" s="17">
-        <v>51002</v>
+        <v>77509</v>
       </c>
       <c r="AN47" s="17">
-        <v>35710</v>
+        <v>73390</v>
       </c>
       <c r="AO47" s="17">
-        <v>77509</v>
+        <v>58693</v>
       </c>
       <c r="AP47" s="17">
-        <v>73390</v>
+        <v>90837</v>
       </c>
       <c r="AQ47" s="17">
-        <v>58693</v>
+        <v>19917</v>
       </c>
       <c r="AR47" s="17">
-        <v>90837</v>
+        <v>66026</v>
       </c>
       <c r="AS47" s="17">
-        <v>19917</v>
+        <v>19682</v>
       </c>
       <c r="AT47" s="17">
-        <v>66026</v>
+        <v>64004</v>
       </c>
       <c r="AU47" s="17">
-        <v>19682</v>
+        <v>46259</v>
       </c>
       <c r="AV47" s="17">
-        <v>64004</v>
+        <v>130389</v>
       </c>
       <c r="AW47" s="17">
-        <v>46258</v>
+        <v>54538</v>
       </c>
       <c r="AX47" s="17">
-        <v>130389</v>
+        <v>17991</v>
       </c>
       <c r="AY47" s="17">
-        <v>54538</v>
+        <v>32351</v>
       </c>
       <c r="AZ47" s="17">
-        <v>17991</v>
+        <v>21120</v>
       </c>
       <c r="BA47" s="17">
-        <v>32351</v>
+        <v>44030</v>
       </c>
       <c r="BB47" s="17">
-        <v>21120</v>
+        <v>5222</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>70</v>
       </c>
@@ -6547,7 +6547,7 @@
       <c r="BA48" s="19"/>
       <c r="BB48" s="19"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>71</v>
       </c>
@@ -6607,11 +6607,11 @@
       <c r="V49" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X49" s="17" t="s">
-        <v>58</v>
+      <c r="W49" s="17">
+        <v>0</v>
+      </c>
+      <c r="X49" s="17">
+        <v>0</v>
       </c>
       <c r="Y49" s="17">
         <v>0</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>78</v>
       </c>
@@ -6761,7 +6761,7 @@
       <c r="BA50" s="19"/>
       <c r="BB50" s="19"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>79</v>
       </c>
@@ -6821,11 +6821,11 @@
       <c r="V51" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="17" t="s">
-        <v>58</v>
+      <c r="W51" s="17">
+        <v>0</v>
+      </c>
+      <c r="X51" s="17">
+        <v>0</v>
       </c>
       <c r="Y51" s="17">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>72</v>
       </c>
@@ -6979,103 +6979,103 @@
         <v>0</v>
       </c>
       <c r="W52" s="15">
-        <v>0</v>
+        <v>119664</v>
       </c>
       <c r="X52" s="15">
-        <v>0</v>
+        <v>99326</v>
       </c>
       <c r="Y52" s="15">
-        <v>119664</v>
+        <v>92647</v>
       </c>
       <c r="Z52" s="15">
-        <v>99326</v>
+        <v>100021</v>
       </c>
       <c r="AA52" s="15">
-        <v>92647</v>
+        <v>99075</v>
       </c>
       <c r="AB52" s="15">
-        <v>100021</v>
+        <v>86193</v>
       </c>
       <c r="AC52" s="15">
-        <v>99075</v>
+        <v>67918</v>
       </c>
       <c r="AD52" s="15">
-        <v>86193</v>
+        <v>109931</v>
       </c>
       <c r="AE52" s="15">
-        <v>67918</v>
+        <v>94373</v>
       </c>
       <c r="AF52" s="15">
-        <v>109931</v>
+        <v>60939</v>
       </c>
       <c r="AG52" s="15">
-        <v>94373</v>
+        <v>61999</v>
       </c>
       <c r="AH52" s="15">
-        <v>60939</v>
+        <v>94617</v>
       </c>
       <c r="AI52" s="15">
-        <v>61999</v>
+        <v>80527</v>
       </c>
       <c r="AJ52" s="15">
-        <v>94617</v>
+        <v>108734</v>
       </c>
       <c r="AK52" s="15">
-        <v>80527</v>
+        <v>83770</v>
       </c>
       <c r="AL52" s="15">
-        <v>108734</v>
+        <v>63316</v>
       </c>
       <c r="AM52" s="15">
-        <v>83770</v>
+        <v>104762</v>
       </c>
       <c r="AN52" s="15">
-        <v>63316</v>
+        <v>104045</v>
       </c>
       <c r="AO52" s="15">
-        <v>104762</v>
+        <v>86923</v>
       </c>
       <c r="AP52" s="15">
-        <v>104045</v>
+        <v>121381</v>
       </c>
       <c r="AQ52" s="15">
-        <v>86923</v>
+        <v>46132</v>
       </c>
       <c r="AR52" s="15">
-        <v>121746</v>
+        <v>95414</v>
       </c>
       <c r="AS52" s="15">
-        <v>46132</v>
+        <v>52394</v>
       </c>
       <c r="AT52" s="15">
-        <v>95414</v>
+        <v>92369</v>
       </c>
       <c r="AU52" s="15">
-        <v>52394</v>
+        <v>71146</v>
       </c>
       <c r="AV52" s="15">
-        <v>92369</v>
+        <v>167225</v>
       </c>
       <c r="AW52" s="15">
-        <v>71145</v>
+        <v>89555</v>
       </c>
       <c r="AX52" s="15">
-        <v>167225</v>
+        <v>44483</v>
       </c>
       <c r="AY52" s="15">
-        <v>89555</v>
+        <v>71093</v>
       </c>
       <c r="AZ52" s="15">
-        <v>44483</v>
+        <v>61289</v>
       </c>
       <c r="BA52" s="15">
-        <v>71093</v>
+        <v>73379</v>
       </c>
       <c r="BB52" s="15">
-        <v>61289</v>
+        <v>37500</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7130,7 +7130,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -7185,7 +7185,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7240,7 +7240,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>80</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7452,7 +7452,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>81</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
@@ -7571,39 +7571,39 @@
       <c r="V59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>58</v>
+      <c r="W59" s="11">
+        <v>38445</v>
+      </c>
+      <c r="X59" s="11">
+        <v>35402</v>
       </c>
       <c r="Y59" s="11">
-        <v>38445</v>
+        <v>33346</v>
       </c>
       <c r="Z59" s="11">
-        <v>35402</v>
+        <v>26747</v>
       </c>
       <c r="AA59" s="11">
-        <v>33346</v>
+        <v>19738</v>
       </c>
       <c r="AB59" s="11">
-        <v>26747</v>
+        <v>38442</v>
       </c>
       <c r="AC59" s="11">
-        <v>19738</v>
+        <v>17918</v>
       </c>
       <c r="AD59" s="11">
-        <v>38442</v>
+        <v>35604</v>
       </c>
       <c r="AE59" s="11">
-        <v>17918</v>
-      </c>
-      <c r="AF59" s="11">
-        <v>35604</v>
-      </c>
-      <c r="AG59" s="11">
         <v>36166</v>
       </c>
+      <c r="AF59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG59" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH59" s="11" t="s">
         <v>58</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7730,104 +7730,104 @@
       <c r="V60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X60" s="13" t="s">
-        <v>58</v>
+      <c r="W60" s="13">
+        <v>31144</v>
+      </c>
+      <c r="X60" s="13">
+        <v>31791</v>
       </c>
       <c r="Y60" s="13">
-        <v>31144</v>
+        <v>33017</v>
       </c>
       <c r="Z60" s="13">
-        <v>31791</v>
+        <v>33556</v>
       </c>
       <c r="AA60" s="13">
-        <v>33017</v>
+        <v>36072</v>
       </c>
       <c r="AB60" s="13">
-        <v>33556</v>
+        <v>33075</v>
       </c>
       <c r="AC60" s="13">
-        <v>36072</v>
+        <v>40852</v>
       </c>
       <c r="AD60" s="13">
-        <v>33075</v>
+        <v>40349</v>
       </c>
       <c r="AE60" s="13">
-        <v>40852</v>
+        <v>39120</v>
       </c>
       <c r="AF60" s="13">
-        <v>40349</v>
+        <v>43324</v>
       </c>
       <c r="AG60" s="13">
-        <v>39120</v>
+        <v>22126</v>
       </c>
       <c r="AH60" s="13">
-        <v>43324</v>
+        <v>35355</v>
       </c>
       <c r="AI60" s="13">
-        <v>22126</v>
+        <v>36722</v>
       </c>
       <c r="AJ60" s="13">
-        <v>35355</v>
+        <v>32648</v>
       </c>
       <c r="AK60" s="13">
-        <v>36722</v>
+        <v>48830</v>
       </c>
       <c r="AL60" s="13">
-        <v>32648</v>
+        <v>45058</v>
       </c>
       <c r="AM60" s="13">
-        <v>48830</v>
+        <v>32736</v>
       </c>
       <c r="AN60" s="13">
-        <v>45058</v>
+        <v>36630</v>
       </c>
       <c r="AO60" s="13">
-        <v>32736</v>
+        <v>473151</v>
       </c>
       <c r="AP60" s="13">
-        <v>36630</v>
+        <v>67673</v>
       </c>
       <c r="AQ60" s="13">
-        <v>473151</v>
+        <v>62001</v>
       </c>
       <c r="AR60" s="13">
-        <v>67673</v>
+        <v>58930</v>
       </c>
       <c r="AS60" s="13">
-        <v>62001</v>
+        <v>82957</v>
       </c>
       <c r="AT60" s="13">
-        <v>58930</v>
+        <v>5206</v>
       </c>
       <c r="AU60" s="13">
-        <v>82957</v>
+        <v>373298</v>
       </c>
       <c r="AV60" s="13">
-        <v>51873</v>
+        <v>103034</v>
       </c>
       <c r="AW60" s="13">
-        <v>373298</v>
+        <v>100397</v>
       </c>
       <c r="AX60" s="13">
-        <v>103034</v>
+        <v>117716</v>
       </c>
       <c r="AY60" s="13">
-        <v>100397</v>
+        <v>139518</v>
       </c>
       <c r="AZ60" s="13">
-        <v>117716</v>
+        <v>118683</v>
       </c>
       <c r="BA60" s="13">
-        <v>139518</v>
+        <v>133715</v>
       </c>
       <c r="BB60" s="13">
-        <v>118683</v>
+        <v>239843</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
@@ -7943,50 +7943,50 @@
       <c r="AN61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP61" s="11" t="s">
-        <v>58</v>
+      <c r="AO61" s="11">
+        <v>1420312</v>
+      </c>
+      <c r="AP61" s="11">
+        <v>1347175</v>
       </c>
       <c r="AQ61" s="11">
-        <v>1420312</v>
+        <v>1441702</v>
       </c>
       <c r="AR61" s="11">
-        <v>1316272</v>
+        <v>1532663</v>
       </c>
       <c r="AS61" s="11">
-        <v>1441702</v>
+        <v>1573948</v>
       </c>
       <c r="AT61" s="11">
-        <v>1573960</v>
+        <v>1281746</v>
       </c>
       <c r="AU61" s="11">
-        <v>1608028</v>
+        <v>1167238</v>
       </c>
       <c r="AV61" s="11">
-        <v>1281746</v>
+        <v>1502170</v>
       </c>
       <c r="AW61" s="11">
-        <v>1217845</v>
+        <v>1427104</v>
       </c>
       <c r="AX61" s="11">
-        <v>1520834</v>
+        <v>1055075</v>
       </c>
       <c r="AY61" s="11">
-        <v>1427104</v>
+        <v>1583239</v>
       </c>
       <c r="AZ61" s="11">
-        <v>1058956</v>
+        <v>1900478</v>
       </c>
       <c r="BA61" s="11">
-        <v>1617836</v>
+        <v>1497496</v>
       </c>
       <c r="BB61" s="11">
-        <v>1850560</v>
+        <v>1718401</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>61</v>
       </c>
@@ -8102,50 +8102,50 @@
       <c r="AN62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP62" s="13" t="s">
-        <v>58</v>
+      <c r="AO62" s="13">
+        <v>1769991</v>
+      </c>
+      <c r="AP62" s="13">
+        <v>1833585</v>
       </c>
       <c r="AQ62" s="13">
-        <v>1769991</v>
+        <v>976472</v>
       </c>
       <c r="AR62" s="13">
-        <v>1719763</v>
+        <v>1234312</v>
       </c>
       <c r="AS62" s="13">
-        <v>976472</v>
+        <v>1108399</v>
       </c>
       <c r="AT62" s="13">
-        <v>1168959</v>
+        <v>1149219</v>
       </c>
       <c r="AU62" s="13">
-        <v>1059718</v>
+        <v>999647</v>
       </c>
       <c r="AV62" s="13">
-        <v>1149219</v>
+        <v>1482239</v>
       </c>
       <c r="AW62" s="13">
-        <v>936720</v>
+        <v>1153211</v>
       </c>
       <c r="AX62" s="13">
-        <v>1448267</v>
+        <v>1015054</v>
       </c>
       <c r="AY62" s="13">
-        <v>1153211</v>
+        <v>1217465</v>
       </c>
       <c r="AZ62" s="13">
-        <v>1011010</v>
+        <v>1086235</v>
       </c>
       <c r="BA62" s="13">
-        <v>1221997</v>
+        <v>988978</v>
       </c>
       <c r="BB62" s="13">
-        <v>1098105</v>
+        <v>998330</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>62</v>
       </c>
@@ -8207,66 +8207,66 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>435689</v>
+      </c>
+      <c r="X63" s="11">
+        <v>553109</v>
       </c>
       <c r="Y63" s="11">
-        <v>435689</v>
+        <v>603606</v>
       </c>
       <c r="Z63" s="11">
-        <v>553109</v>
+        <v>569205</v>
       </c>
       <c r="AA63" s="11">
-        <v>603606</v>
+        <v>571932</v>
       </c>
       <c r="AB63" s="11">
-        <v>569205</v>
+        <v>647533</v>
       </c>
       <c r="AC63" s="11">
-        <v>571932</v>
+        <v>849798</v>
       </c>
       <c r="AD63" s="11">
-        <v>647533</v>
+        <v>918286</v>
       </c>
       <c r="AE63" s="11">
-        <v>849798</v>
+        <v>1445115</v>
       </c>
       <c r="AF63" s="11">
-        <v>918286</v>
+        <v>1130561</v>
       </c>
       <c r="AG63" s="11">
-        <v>1445115</v>
+        <v>1343226</v>
       </c>
       <c r="AH63" s="11">
-        <v>1130561</v>
+        <v>1523780</v>
       </c>
       <c r="AI63" s="11">
-        <v>1343226</v>
+        <v>1373354</v>
       </c>
       <c r="AJ63" s="11">
-        <v>1523780</v>
+        <v>1444826</v>
       </c>
       <c r="AK63" s="11">
-        <v>1373354</v>
+        <v>1465388</v>
       </c>
       <c r="AL63" s="11">
-        <v>1444826</v>
+        <v>1423552</v>
       </c>
       <c r="AM63" s="11">
-        <v>1465388</v>
+        <v>1639686</v>
       </c>
       <c r="AN63" s="11">
-        <v>1423552</v>
-      </c>
-      <c r="AO63" s="11">
-        <v>1639686</v>
-      </c>
-      <c r="AP63" s="11">
         <v>1658718</v>
       </c>
+      <c r="AO63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP63" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ63" s="11" t="s">
         <v>58</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>63</v>
       </c>
@@ -8366,66 +8366,66 @@
       <c r="V64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" s="13" t="s">
-        <v>58</v>
+      <c r="W64" s="13">
+        <v>278211</v>
+      </c>
+      <c r="X64" s="13">
+        <v>441538</v>
       </c>
       <c r="Y64" s="13">
-        <v>278211</v>
+        <v>604775</v>
       </c>
       <c r="Z64" s="13">
-        <v>441538</v>
+        <v>789968</v>
       </c>
       <c r="AA64" s="13">
-        <v>604775</v>
+        <v>864147</v>
       </c>
       <c r="AB64" s="13">
-        <v>789968</v>
+        <v>1237129</v>
       </c>
       <c r="AC64" s="13">
-        <v>864147</v>
+        <v>1824325</v>
       </c>
       <c r="AD64" s="13">
-        <v>1237129</v>
+        <v>1535872</v>
       </c>
       <c r="AE64" s="13">
-        <v>1824325</v>
+        <v>1912111</v>
       </c>
       <c r="AF64" s="13">
-        <v>1535872</v>
+        <v>778629</v>
       </c>
       <c r="AG64" s="13">
-        <v>1912111</v>
+        <v>1450130</v>
       </c>
       <c r="AH64" s="13">
-        <v>778629</v>
+        <v>1117612</v>
       </c>
       <c r="AI64" s="13">
-        <v>1450130</v>
+        <v>1158599</v>
       </c>
       <c r="AJ64" s="13">
-        <v>1117612</v>
+        <v>1413869</v>
       </c>
       <c r="AK64" s="13">
-        <v>1158599</v>
+        <v>1545620</v>
       </c>
       <c r="AL64" s="13">
-        <v>1413869</v>
+        <v>1494975</v>
       </c>
       <c r="AM64" s="13">
-        <v>1545620</v>
+        <v>1805768</v>
       </c>
       <c r="AN64" s="13">
-        <v>1494975</v>
-      </c>
-      <c r="AO64" s="13">
-        <v>1805768</v>
-      </c>
-      <c r="AP64" s="13">
         <v>1732450</v>
       </c>
+      <c r="AO64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP64" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ64" s="13" t="s">
         <v>58</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>64</v>
       </c>
@@ -8552,77 +8552,77 @@
       <c r="AE65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG65" s="11" t="s">
-        <v>58</v>
+      <c r="AF65" s="11">
+        <v>27908</v>
+      </c>
+      <c r="AG65" s="11">
+        <v>30195</v>
       </c>
       <c r="AH65" s="11">
-        <v>27908</v>
+        <v>33675</v>
       </c>
       <c r="AI65" s="11">
-        <v>30195</v>
+        <v>20111</v>
       </c>
       <c r="AJ65" s="11">
-        <v>33675</v>
+        <v>33468</v>
       </c>
       <c r="AK65" s="11">
-        <v>20111</v>
+        <v>25039</v>
       </c>
       <c r="AL65" s="11">
-        <v>33468</v>
+        <v>19829</v>
       </c>
       <c r="AM65" s="11">
-        <v>25039</v>
+        <v>13095</v>
       </c>
       <c r="AN65" s="11">
-        <v>19829</v>
+        <v>26090</v>
       </c>
       <c r="AO65" s="11">
-        <v>13095</v>
+        <v>20377</v>
       </c>
       <c r="AP65" s="11">
-        <v>26090</v>
+        <v>54634</v>
       </c>
       <c r="AQ65" s="11">
-        <v>20377</v>
+        <v>38712</v>
       </c>
       <c r="AR65" s="11">
-        <v>57660</v>
+        <v>37441</v>
       </c>
       <c r="AS65" s="11">
-        <v>38712</v>
+        <v>33987</v>
       </c>
       <c r="AT65" s="11">
-        <v>37441</v>
+        <v>14455</v>
       </c>
       <c r="AU65" s="11">
-        <v>33987</v>
+        <v>29938</v>
       </c>
       <c r="AV65" s="11">
-        <v>20511</v>
+        <v>26810</v>
       </c>
       <c r="AW65" s="11">
-        <v>29938</v>
+        <v>22228</v>
       </c>
       <c r="AX65" s="11">
-        <v>26810</v>
+        <v>13018</v>
       </c>
       <c r="AY65" s="11">
-        <v>22228</v>
+        <v>52215</v>
       </c>
       <c r="AZ65" s="11">
-        <v>13018</v>
+        <v>22570</v>
       </c>
       <c r="BA65" s="11">
-        <v>52215</v>
+        <v>15380</v>
       </c>
       <c r="BB65" s="11">
-        <v>22570</v>
+        <v>18052</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>75</v>
       </c>
@@ -8683,103 +8683,103 @@
         <v>0</v>
       </c>
       <c r="W66" s="15">
-        <v>0</v>
+        <v>783489</v>
       </c>
       <c r="X66" s="15">
-        <v>0</v>
+        <v>1061840</v>
       </c>
       <c r="Y66" s="15">
-        <v>783489</v>
+        <v>1274744</v>
       </c>
       <c r="Z66" s="15">
-        <v>1061840</v>
+        <v>1419476</v>
       </c>
       <c r="AA66" s="15">
-        <v>1274744</v>
+        <v>1491889</v>
       </c>
       <c r="AB66" s="15">
-        <v>1419476</v>
+        <v>1956179</v>
       </c>
       <c r="AC66" s="15">
-        <v>1491889</v>
+        <v>2732893</v>
       </c>
       <c r="AD66" s="15">
-        <v>1956179</v>
+        <v>2530111</v>
       </c>
       <c r="AE66" s="15">
-        <v>2732893</v>
+        <v>3432512</v>
       </c>
       <c r="AF66" s="15">
-        <v>2530111</v>
+        <v>1980422</v>
       </c>
       <c r="AG66" s="15">
-        <v>3432512</v>
+        <v>2845677</v>
       </c>
       <c r="AH66" s="15">
-        <v>1980422</v>
+        <v>2710422</v>
       </c>
       <c r="AI66" s="15">
-        <v>2845677</v>
+        <v>2588786</v>
       </c>
       <c r="AJ66" s="15">
-        <v>2710422</v>
+        <v>2924811</v>
       </c>
       <c r="AK66" s="15">
-        <v>2588786</v>
+        <v>3084877</v>
       </c>
       <c r="AL66" s="15">
-        <v>2924811</v>
+        <v>2983414</v>
       </c>
       <c r="AM66" s="15">
-        <v>3084877</v>
+        <v>3491285</v>
       </c>
       <c r="AN66" s="15">
-        <v>2983414</v>
+        <v>3453888</v>
       </c>
       <c r="AO66" s="15">
-        <v>3491285</v>
+        <v>3683831</v>
       </c>
       <c r="AP66" s="15">
-        <v>3453888</v>
+        <v>3303067</v>
       </c>
       <c r="AQ66" s="15">
-        <v>3683831</v>
+        <v>2518887</v>
       </c>
       <c r="AR66" s="15">
-        <v>3161368</v>
+        <v>2863346</v>
       </c>
       <c r="AS66" s="15">
-        <v>2518887</v>
+        <v>2799291</v>
       </c>
       <c r="AT66" s="15">
-        <v>2839290</v>
+        <v>2450626</v>
       </c>
       <c r="AU66" s="15">
-        <v>2784690</v>
+        <v>2570121</v>
       </c>
       <c r="AV66" s="15">
-        <v>2503349</v>
+        <v>3114253</v>
       </c>
       <c r="AW66" s="15">
-        <v>2557801</v>
+        <v>2702940</v>
       </c>
       <c r="AX66" s="15">
-        <v>3098945</v>
+        <v>2200863</v>
       </c>
       <c r="AY66" s="15">
-        <v>2702940</v>
+        <v>2992437</v>
       </c>
       <c r="AZ66" s="15">
-        <v>2200700</v>
+        <v>3127966</v>
       </c>
       <c r="BA66" s="15">
-        <v>3031566</v>
+        <v>2635569</v>
       </c>
       <c r="BB66" s="15">
-        <v>3089918</v>
+        <v>2974626</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>83</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>60</v>
       </c>
@@ -8952,50 +8952,50 @@
       <c r="AN68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP68" s="11" t="s">
-        <v>58</v>
+      <c r="AO68" s="11">
+        <v>4509712</v>
+      </c>
+      <c r="AP68" s="11">
+        <v>6462713</v>
       </c>
       <c r="AQ68" s="11">
-        <v>4509712</v>
+        <v>1729454</v>
       </c>
       <c r="AR68" s="11">
-        <v>6462713</v>
+        <v>5069814</v>
       </c>
       <c r="AS68" s="11">
-        <v>1729454</v>
+        <v>1552602</v>
       </c>
       <c r="AT68" s="11">
-        <v>5069814</v>
+        <v>5163430</v>
       </c>
       <c r="AU68" s="11">
-        <v>1552602</v>
+        <v>2904123</v>
       </c>
       <c r="AV68" s="11">
-        <v>5163430</v>
+        <v>8384174</v>
       </c>
       <c r="AW68" s="11">
-        <v>2904123</v>
+        <v>4514798</v>
       </c>
       <c r="AX68" s="11">
-        <v>8384174</v>
+        <v>1298755</v>
       </c>
       <c r="AY68" s="11">
-        <v>4514798</v>
+        <v>2726788</v>
       </c>
       <c r="AZ68" s="11">
-        <v>1298755</v>
+        <v>1838425</v>
       </c>
       <c r="BA68" s="11">
-        <v>2726788</v>
+        <v>3291345</v>
       </c>
       <c r="BB68" s="11">
-        <v>1838425</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>61</v>
       </c>
@@ -9111,50 +9111,50 @@
       <c r="AN69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP69" s="13" t="s">
-        <v>58</v>
+      <c r="AO69" s="13">
+        <v>318393</v>
+      </c>
+      <c r="AP69" s="13">
+        <v>1652189</v>
       </c>
       <c r="AQ69" s="13">
-        <v>318393</v>
+        <v>8191</v>
       </c>
       <c r="AR69" s="13">
-        <v>1652189</v>
+        <v>858244</v>
       </c>
       <c r="AS69" s="13">
-        <v>8191</v>
+        <v>285174</v>
       </c>
       <c r="AT69" s="13">
-        <v>858244</v>
+        <v>21764</v>
       </c>
       <c r="AU69" s="13">
-        <v>285174</v>
+        <v>88640</v>
       </c>
       <c r="AV69" s="13">
-        <v>21764</v>
+        <v>48701</v>
       </c>
       <c r="AW69" s="13">
-        <v>88640</v>
+        <v>80298</v>
       </c>
       <c r="AX69" s="13">
-        <v>48701</v>
+        <v>9349</v>
       </c>
       <c r="AY69" s="13">
-        <v>80298</v>
+        <v>23809</v>
       </c>
       <c r="AZ69" s="13">
-        <v>9349</v>
+        <v>4900</v>
       </c>
       <c r="BA69" s="13">
-        <v>23809</v>
+        <v>589880</v>
       </c>
       <c r="BB69" s="13">
-        <v>4900</v>
+        <v>626395</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>67</v>
       </c>
@@ -9216,66 +9216,66 @@
       <c r="V70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X70" s="11" t="s">
-        <v>58</v>
+      <c r="W70" s="11">
+        <v>2200597</v>
+      </c>
+      <c r="X70" s="11">
+        <v>1805396</v>
       </c>
       <c r="Y70" s="11">
-        <v>2200597</v>
+        <v>2190348</v>
       </c>
       <c r="Z70" s="11">
-        <v>1805396</v>
+        <v>2898861</v>
       </c>
       <c r="AA70" s="11">
-        <v>2190348</v>
+        <v>3544445</v>
       </c>
       <c r="AB70" s="11">
-        <v>2898861</v>
+        <v>3637652</v>
       </c>
       <c r="AC70" s="11">
-        <v>3544445</v>
+        <v>2407726</v>
       </c>
       <c r="AD70" s="11">
-        <v>3637652</v>
+        <v>5088953</v>
       </c>
       <c r="AE70" s="11">
-        <v>2407726</v>
+        <v>3186582</v>
       </c>
       <c r="AF70" s="11">
-        <v>5088953</v>
+        <v>2727468</v>
       </c>
       <c r="AG70" s="11">
-        <v>3186582</v>
+        <v>1236943</v>
       </c>
       <c r="AH70" s="11">
-        <v>2727468</v>
+        <v>3858315</v>
       </c>
       <c r="AI70" s="11">
-        <v>1236943</v>
+        <v>3116442</v>
       </c>
       <c r="AJ70" s="11">
-        <v>3858315</v>
+        <v>5448160</v>
       </c>
       <c r="AK70" s="11">
-        <v>3116442</v>
+        <v>3262658</v>
       </c>
       <c r="AL70" s="11">
-        <v>5448160</v>
+        <v>3191926</v>
       </c>
       <c r="AM70" s="11">
-        <v>3262658</v>
+        <v>6465175</v>
       </c>
       <c r="AN70" s="11">
-        <v>3191926</v>
-      </c>
-      <c r="AO70" s="11">
-        <v>6465175</v>
-      </c>
-      <c r="AP70" s="11">
         <v>5389795</v>
       </c>
+      <c r="AO70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP70" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ70" s="11" t="s">
         <v>58</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>68</v>
       </c>
@@ -9375,66 +9375,66 @@
       <c r="V71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="13" t="s">
-        <v>58</v>
+      <c r="W71" s="13">
+        <v>219072</v>
+      </c>
+      <c r="X71" s="13">
+        <v>81453</v>
       </c>
       <c r="Y71" s="13">
-        <v>219072</v>
+        <v>119530</v>
       </c>
       <c r="Z71" s="13">
-        <v>81453</v>
+        <v>485619</v>
       </c>
       <c r="AA71" s="13">
-        <v>119530</v>
+        <v>482148</v>
       </c>
       <c r="AB71" s="13">
-        <v>485619</v>
+        <v>288304</v>
       </c>
       <c r="AC71" s="13">
-        <v>482148</v>
+        <v>512378</v>
       </c>
       <c r="AD71" s="13">
-        <v>288304</v>
+        <v>874025</v>
       </c>
       <c r="AE71" s="13">
-        <v>512378</v>
+        <v>1703412</v>
       </c>
       <c r="AF71" s="13">
-        <v>874025</v>
+        <v>94440</v>
       </c>
       <c r="AG71" s="13">
-        <v>1703412</v>
+        <v>1755105</v>
       </c>
       <c r="AH71" s="13">
-        <v>94440</v>
+        <v>1206345</v>
       </c>
       <c r="AI71" s="13">
-        <v>1755105</v>
+        <v>943922</v>
       </c>
       <c r="AJ71" s="13">
-        <v>1206345</v>
+        <v>43857</v>
       </c>
       <c r="AK71" s="13">
-        <v>943922</v>
+        <v>1568866</v>
       </c>
       <c r="AL71" s="13">
-        <v>43857</v>
+        <v>1019491</v>
       </c>
       <c r="AM71" s="13">
-        <v>1568866</v>
+        <v>1509322</v>
       </c>
       <c r="AN71" s="13">
-        <v>1019491</v>
-      </c>
-      <c r="AO71" s="13">
-        <v>1509322</v>
-      </c>
-      <c r="AP71" s="13">
         <v>946369</v>
       </c>
+      <c r="AO71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP71" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ71" s="13" t="s">
         <v>58</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
         <v>77</v>
       </c>
@@ -9533,103 +9533,103 @@
         <v>0</v>
       </c>
       <c r="W72" s="17">
-        <v>0</v>
+        <v>2419669</v>
       </c>
       <c r="X72" s="17">
-        <v>0</v>
+        <v>1886849</v>
       </c>
       <c r="Y72" s="17">
-        <v>2419669</v>
+        <v>2309878</v>
       </c>
       <c r="Z72" s="17">
-        <v>1886849</v>
+        <v>3384480</v>
       </c>
       <c r="AA72" s="17">
-        <v>2309878</v>
+        <v>4026593</v>
       </c>
       <c r="AB72" s="17">
-        <v>3384480</v>
+        <v>3925956</v>
       </c>
       <c r="AC72" s="17">
-        <v>4026593</v>
+        <v>2920104</v>
       </c>
       <c r="AD72" s="17">
-        <v>3925956</v>
+        <v>5962978</v>
       </c>
       <c r="AE72" s="17">
-        <v>2920104</v>
+        <v>4889994</v>
       </c>
       <c r="AF72" s="17">
-        <v>5962978</v>
+        <v>2821908</v>
       </c>
       <c r="AG72" s="17">
-        <v>4889994</v>
+        <v>2992048</v>
       </c>
       <c r="AH72" s="17">
-        <v>2821908</v>
+        <v>5064660</v>
       </c>
       <c r="AI72" s="17">
-        <v>2992048</v>
+        <v>4060364</v>
       </c>
       <c r="AJ72" s="17">
-        <v>5064660</v>
+        <v>5492017</v>
       </c>
       <c r="AK72" s="17">
-        <v>4060364</v>
+        <v>4831524</v>
       </c>
       <c r="AL72" s="17">
-        <v>5492017</v>
+        <v>4211417</v>
       </c>
       <c r="AM72" s="17">
-        <v>4831524</v>
+        <v>7974497</v>
       </c>
       <c r="AN72" s="17">
-        <v>4211417</v>
+        <v>6336164</v>
       </c>
       <c r="AO72" s="17">
-        <v>7974497</v>
+        <v>4828105</v>
       </c>
       <c r="AP72" s="17">
-        <v>6336164</v>
+        <v>8114902</v>
       </c>
       <c r="AQ72" s="17">
-        <v>4828105</v>
+        <v>1737645</v>
       </c>
       <c r="AR72" s="17">
-        <v>8114902</v>
+        <v>5928058</v>
       </c>
       <c r="AS72" s="17">
-        <v>1737645</v>
+        <v>1837776</v>
       </c>
       <c r="AT72" s="17">
-        <v>5928058</v>
+        <v>5185194</v>
       </c>
       <c r="AU72" s="17">
-        <v>1837776</v>
+        <v>2992763</v>
       </c>
       <c r="AV72" s="17">
-        <v>5185194</v>
+        <v>8432875</v>
       </c>
       <c r="AW72" s="17">
-        <v>2992763</v>
+        <v>4595096</v>
       </c>
       <c r="AX72" s="17">
-        <v>8432875</v>
+        <v>1308104</v>
       </c>
       <c r="AY72" s="17">
-        <v>4595096</v>
+        <v>2750597</v>
       </c>
       <c r="AZ72" s="17">
-        <v>1308104</v>
+        <v>1843325</v>
       </c>
       <c r="BA72" s="17">
-        <v>2750597</v>
+        <v>3881225</v>
       </c>
       <c r="BB72" s="17">
-        <v>1843325</v>
+        <v>626395</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
         <v>84</v>
       </c>
@@ -9686,7 +9686,7 @@
       <c r="BA73" s="19"/>
       <c r="BB73" s="19"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
         <v>71</v>
       </c>
@@ -9748,11 +9748,11 @@
       <c r="V74" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="17" t="s">
-        <v>58</v>
+      <c r="W74" s="17">
+        <v>0</v>
+      </c>
+      <c r="X74" s="17">
+        <v>0</v>
       </c>
       <c r="Y74" s="17">
         <v>0</v>
@@ -9845,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>85</v>
       </c>
@@ -9902,7 +9902,7 @@
       <c r="BA75" s="19"/>
       <c r="BB75" s="19"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
         <v>79</v>
       </c>
@@ -9964,11 +9964,11 @@
       <c r="V76" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W76" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X76" s="17" t="s">
-        <v>58</v>
+      <c r="W76" s="17">
+        <v>0</v>
+      </c>
+      <c r="X76" s="17">
+        <v>0</v>
       </c>
       <c r="Y76" s="17">
         <v>0</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>86</v>
       </c>
@@ -10118,7 +10118,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>87</v>
       </c>
@@ -10180,11 +10180,11 @@
       <c r="V78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="11" t="s">
-        <v>58</v>
+      <c r="W78" s="11">
+        <v>0</v>
+      </c>
+      <c r="X78" s="11">
+        <v>0</v>
       </c>
       <c r="Y78" s="11">
         <v>0</v>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
         <v>72</v>
       </c>
@@ -10338,103 +10338,103 @@
         <v>0</v>
       </c>
       <c r="W79" s="15">
-        <v>0</v>
+        <v>3203158</v>
       </c>
       <c r="X79" s="15">
-        <v>0</v>
+        <v>2948689</v>
       </c>
       <c r="Y79" s="15">
-        <v>3203158</v>
+        <v>3584622</v>
       </c>
       <c r="Z79" s="15">
-        <v>2948689</v>
+        <v>4803956</v>
       </c>
       <c r="AA79" s="15">
-        <v>3584622</v>
+        <v>5518482</v>
       </c>
       <c r="AB79" s="15">
-        <v>4803956</v>
+        <v>5882135</v>
       </c>
       <c r="AC79" s="15">
-        <v>5518482</v>
+        <v>5652997</v>
       </c>
       <c r="AD79" s="15">
-        <v>5882135</v>
+        <v>8493089</v>
       </c>
       <c r="AE79" s="15">
-        <v>5652997</v>
+        <v>8322506</v>
       </c>
       <c r="AF79" s="15">
-        <v>8493089</v>
+        <v>4802330</v>
       </c>
       <c r="AG79" s="15">
-        <v>8322506</v>
+        <v>5837725</v>
       </c>
       <c r="AH79" s="15">
-        <v>4802330</v>
+        <v>7775082</v>
       </c>
       <c r="AI79" s="15">
-        <v>5837725</v>
+        <v>6649150</v>
       </c>
       <c r="AJ79" s="15">
-        <v>7775082</v>
+        <v>8416828</v>
       </c>
       <c r="AK79" s="15">
-        <v>6649150</v>
+        <v>7916401</v>
       </c>
       <c r="AL79" s="15">
-        <v>8416828</v>
+        <v>7194831</v>
       </c>
       <c r="AM79" s="15">
-        <v>7916401</v>
+        <v>11465782</v>
       </c>
       <c r="AN79" s="15">
-        <v>7194831</v>
+        <v>9790052</v>
       </c>
       <c r="AO79" s="15">
-        <v>11465782</v>
+        <v>8511936</v>
       </c>
       <c r="AP79" s="15">
-        <v>9790052</v>
+        <v>11417969</v>
       </c>
       <c r="AQ79" s="15">
-        <v>8511936</v>
+        <v>4256532</v>
       </c>
       <c r="AR79" s="15">
-        <v>11276270</v>
+        <v>8791404</v>
       </c>
       <c r="AS79" s="15">
-        <v>4256532</v>
+        <v>4637067</v>
       </c>
       <c r="AT79" s="15">
-        <v>8767348</v>
+        <v>7635820</v>
       </c>
       <c r="AU79" s="15">
-        <v>4622466</v>
+        <v>5562884</v>
       </c>
       <c r="AV79" s="15">
-        <v>7688543</v>
+        <v>11547128</v>
       </c>
       <c r="AW79" s="15">
-        <v>5550564</v>
+        <v>7298036</v>
       </c>
       <c r="AX79" s="15">
-        <v>11531820</v>
+        <v>3508967</v>
       </c>
       <c r="AY79" s="15">
-        <v>7298036</v>
+        <v>5743034</v>
       </c>
       <c r="AZ79" s="15">
-        <v>3508804</v>
+        <v>4971291</v>
       </c>
       <c r="BA79" s="15">
-        <v>5782163</v>
+        <v>6516794</v>
       </c>
       <c r="BB79" s="15">
-        <v>4933243</v>
+        <v>3601021</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -10489,7 +10489,7 @@
       <c r="BA80" s="1"/>
       <c r="BB80" s="1"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -10544,7 +10544,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -10599,7 +10599,7 @@
       <c r="BA82" s="1"/>
       <c r="BB82" s="1"/>
     </row>
-    <row r="83" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>88</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -10811,7 +10811,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>89</v>
       </c>
@@ -10868,7 +10868,7 @@
       <c r="BA85" s="9"/>
       <c r="BB85" s="9"/>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>56</v>
       </c>
@@ -10930,39 +10930,39 @@
       <c r="V86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="11" t="s">
-        <v>58</v>
+      <c r="W86" s="11">
+        <v>5381439</v>
+      </c>
+      <c r="X86" s="11">
+        <v>5048774</v>
       </c>
       <c r="Y86" s="11">
-        <v>5381439</v>
+        <v>5010669</v>
       </c>
       <c r="Z86" s="11">
-        <v>5048774</v>
+        <v>5655953</v>
       </c>
       <c r="AA86" s="11">
-        <v>5010669</v>
+        <v>5608980</v>
       </c>
       <c r="AB86" s="11">
-        <v>5655953</v>
+        <v>5833384</v>
       </c>
       <c r="AC86" s="11">
-        <v>5608980</v>
+        <v>8170543</v>
       </c>
       <c r="AD86" s="11">
-        <v>5833384</v>
+        <v>6803745</v>
       </c>
       <c r="AE86" s="11">
-        <v>8170543</v>
-      </c>
-      <c r="AF86" s="11">
-        <v>6803745</v>
-      </c>
-      <c r="AG86" s="11">
         <v>6586414</v>
       </c>
+      <c r="AF86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG86" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH86" s="11" t="s">
         <v>58</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>59</v>
       </c>
@@ -11089,104 +11089,104 @@
       <c r="V87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="13" t="s">
-        <v>58</v>
+      <c r="W87" s="13">
+        <v>22293486</v>
+      </c>
+      <c r="X87" s="13">
+        <v>22293829</v>
       </c>
       <c r="Y87" s="13">
-        <v>22293486</v>
+        <v>22293720</v>
       </c>
       <c r="Z87" s="13">
-        <v>22293829</v>
+        <v>22873892</v>
       </c>
       <c r="AA87" s="13">
-        <v>22293720</v>
+        <v>22873811</v>
       </c>
       <c r="AB87" s="13">
-        <v>22873892</v>
+        <v>22873444</v>
       </c>
       <c r="AC87" s="13">
-        <v>22873811</v>
+        <v>22873460</v>
       </c>
       <c r="AD87" s="13">
-        <v>22873444</v>
+        <v>22873583</v>
       </c>
       <c r="AE87" s="13">
-        <v>22873460</v>
+        <v>25787739</v>
       </c>
       <c r="AF87" s="13">
-        <v>22873583</v>
+        <v>25788095</v>
       </c>
       <c r="AG87" s="13">
-        <v>25787739</v>
+        <v>25787879</v>
       </c>
       <c r="AH87" s="13">
-        <v>25788095</v>
+        <v>25787746</v>
       </c>
       <c r="AI87" s="13">
-        <v>25787879</v>
+        <v>25787921</v>
       </c>
       <c r="AJ87" s="13">
-        <v>25787746</v>
+        <v>25788310</v>
       </c>
       <c r="AK87" s="13">
-        <v>25787921</v>
+        <v>30423676</v>
       </c>
       <c r="AL87" s="13">
-        <v>25788310</v>
+        <v>30424038</v>
       </c>
       <c r="AM87" s="13">
-        <v>30423676</v>
+        <v>30423792</v>
       </c>
       <c r="AN87" s="13">
-        <v>30424038</v>
+        <v>30423588</v>
       </c>
       <c r="AO87" s="13">
-        <v>30423792</v>
+        <v>817186529</v>
       </c>
       <c r="AP87" s="13">
-        <v>30423588</v>
+        <v>66738659</v>
       </c>
       <c r="AQ87" s="13">
-        <v>817186529</v>
+        <v>66739505</v>
       </c>
       <c r="AR87" s="13">
-        <v>66738659</v>
+        <v>66738392</v>
       </c>
       <c r="AS87" s="13">
-        <v>66739505</v>
+        <v>66739340</v>
       </c>
       <c r="AT87" s="13">
-        <v>66738392</v>
+        <v>66743590</v>
       </c>
       <c r="AU87" s="13">
-        <v>66739340</v>
+        <v>493128137</v>
       </c>
       <c r="AV87" s="13">
-        <v>87917365</v>
+        <v>87912969</v>
       </c>
       <c r="AW87" s="13">
-        <v>493128137</v>
+        <v>87913310</v>
       </c>
       <c r="AX87" s="13">
-        <v>87912969</v>
+        <v>87913368</v>
       </c>
       <c r="AY87" s="13">
-        <v>87913310</v>
+        <v>87913043</v>
       </c>
       <c r="AZ87" s="13">
-        <v>87913368</v>
+        <v>87913333</v>
       </c>
       <c r="BA87" s="13">
-        <v>87913043</v>
+        <v>87912558</v>
       </c>
       <c r="BB87" s="13">
-        <v>87913333</v>
+        <v>206050687</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>60</v>
       </c>
@@ -11302,50 +11302,50 @@
       <c r="AN88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP88" s="11" t="s">
-        <v>58</v>
+      <c r="AO88" s="11">
+        <v>79842150</v>
+      </c>
+      <c r="AP88" s="11">
+        <v>83200037</v>
       </c>
       <c r="AQ88" s="11">
-        <v>79842150</v>
+        <v>85989622</v>
       </c>
       <c r="AR88" s="11">
-        <v>83045687</v>
+        <v>85048721</v>
       </c>
       <c r="AS88" s="11">
-        <v>85989622</v>
+        <v>81691389</v>
       </c>
       <c r="AT88" s="11">
-        <v>87340325</v>
+        <v>75299377</v>
       </c>
       <c r="AU88" s="11">
-        <v>82605356</v>
+        <v>70294369</v>
       </c>
       <c r="AV88" s="11">
-        <v>75299377</v>
+        <v>69891127</v>
       </c>
       <c r="AW88" s="11">
-        <v>71007998</v>
+        <v>70613756</v>
       </c>
       <c r="AX88" s="11">
-        <v>70093101</v>
+        <v>72879395</v>
       </c>
       <c r="AY88" s="11">
-        <v>70613756</v>
+        <v>72792598</v>
       </c>
       <c r="AZ88" s="11">
-        <v>72909931</v>
+        <v>73627693</v>
       </c>
       <c r="BA88" s="11">
-        <v>74383264</v>
+        <v>83365585</v>
       </c>
       <c r="BB88" s="11">
-        <v>71693786</v>
+        <v>82858431</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>61</v>
       </c>
@@ -11461,50 +11461,50 @@
       <c r="AN89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP89" s="13" t="s">
-        <v>58</v>
+      <c r="AO89" s="13">
+        <v>219601861</v>
+      </c>
+      <c r="AP89" s="13">
+        <v>200896790</v>
       </c>
       <c r="AQ89" s="13">
-        <v>219601861</v>
+        <v>167663462</v>
       </c>
       <c r="AR89" s="13">
-        <v>199412026</v>
+        <v>161961947</v>
       </c>
       <c r="AS89" s="13">
-        <v>167663462</v>
+        <v>163023827</v>
       </c>
       <c r="AT89" s="13">
-        <v>153386563</v>
+        <v>159746872</v>
       </c>
       <c r="AU89" s="13">
-        <v>159647891</v>
+        <v>162227686</v>
       </c>
       <c r="AV89" s="13">
-        <v>159746872</v>
+        <v>149374080</v>
       </c>
       <c r="AW89" s="13">
-        <v>159962169</v>
+        <v>121314012</v>
       </c>
       <c r="AX89" s="13">
-        <v>148472942</v>
+        <v>112846470</v>
       </c>
       <c r="AY89" s="13">
-        <v>121314012</v>
+        <v>112301909</v>
       </c>
       <c r="AZ89" s="13">
-        <v>112774513</v>
+        <v>111443008</v>
       </c>
       <c r="BA89" s="13">
-        <v>112719952</v>
+        <v>110463308</v>
       </c>
       <c r="BB89" s="13">
-        <v>112660819</v>
+        <v>106194022</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>62</v>
       </c>
@@ -11566,66 +11566,66 @@
       <c r="V90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X90" s="11" t="s">
-        <v>58</v>
+      <c r="W90" s="11">
+        <v>55255422</v>
+      </c>
+      <c r="X90" s="11">
+        <v>63488177</v>
       </c>
       <c r="Y90" s="11">
-        <v>55255422</v>
+        <v>65809638</v>
       </c>
       <c r="Z90" s="11">
-        <v>63488177</v>
+        <v>74260274</v>
       </c>
       <c r="AA90" s="11">
-        <v>65809638</v>
+        <v>84655417</v>
       </c>
       <c r="AB90" s="11">
-        <v>74260274</v>
+        <v>111817130</v>
       </c>
       <c r="AC90" s="11">
-        <v>84655417</v>
+        <v>140207557</v>
       </c>
       <c r="AD90" s="11">
-        <v>111817130</v>
+        <v>150341519</v>
       </c>
       <c r="AE90" s="11">
-        <v>140207557</v>
+        <v>197960959</v>
       </c>
       <c r="AF90" s="11">
-        <v>150341519</v>
+        <v>210886215</v>
       </c>
       <c r="AG90" s="11">
-        <v>197960959</v>
+        <v>218944743</v>
       </c>
       <c r="AH90" s="11">
-        <v>210886215</v>
+        <v>222840012</v>
       </c>
       <c r="AI90" s="11">
-        <v>218944743</v>
+        <v>218826323</v>
       </c>
       <c r="AJ90" s="11">
-        <v>222840012</v>
+        <v>203697448</v>
       </c>
       <c r="AK90" s="11">
-        <v>218826323</v>
+        <v>192510247</v>
       </c>
       <c r="AL90" s="11">
-        <v>203697448</v>
+        <v>199377031</v>
       </c>
       <c r="AM90" s="11">
-        <v>192510247</v>
+        <v>265880655</v>
       </c>
       <c r="AN90" s="11">
-        <v>199377031</v>
-      </c>
-      <c r="AO90" s="11">
-        <v>265880655</v>
-      </c>
-      <c r="AP90" s="11">
         <v>242113268</v>
       </c>
+      <c r="AO90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ90" s="11" t="s">
         <v>58</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>63</v>
       </c>
@@ -11725,66 +11725,66 @@
       <c r="V91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X91" s="13" t="s">
-        <v>58</v>
+      <c r="W91" s="13">
+        <v>20431152</v>
+      </c>
+      <c r="X91" s="13">
+        <v>26285153</v>
       </c>
       <c r="Y91" s="13">
-        <v>20431152</v>
+        <v>32852138</v>
       </c>
       <c r="Z91" s="13">
-        <v>26285153</v>
+        <v>40642486</v>
       </c>
       <c r="AA91" s="13">
-        <v>32852138</v>
+        <v>52675831</v>
       </c>
       <c r="AB91" s="13">
-        <v>40642486</v>
+        <v>68615031</v>
       </c>
       <c r="AC91" s="13">
-        <v>52675831</v>
+        <v>77822925</v>
       </c>
       <c r="AD91" s="13">
-        <v>68615031</v>
+        <v>76835860</v>
       </c>
       <c r="AE91" s="13">
-        <v>77822925</v>
+        <v>72209630</v>
       </c>
       <c r="AF91" s="13">
-        <v>76835860</v>
+        <v>67326329</v>
       </c>
       <c r="AG91" s="13">
-        <v>72209630</v>
+        <v>67463596</v>
       </c>
       <c r="AH91" s="13">
-        <v>67326329</v>
+        <v>63396222</v>
       </c>
       <c r="AI91" s="13">
-        <v>67463596</v>
+        <v>62448068</v>
       </c>
       <c r="AJ91" s="13">
-        <v>63396222</v>
+        <v>71393102</v>
       </c>
       <c r="AK91" s="13">
-        <v>62448068</v>
+        <v>75944379</v>
       </c>
       <c r="AL91" s="13">
-        <v>71393102</v>
+        <v>90216342</v>
       </c>
       <c r="AM91" s="13">
-        <v>75944379</v>
+        <v>90682870</v>
       </c>
       <c r="AN91" s="13">
-        <v>90216342</v>
-      </c>
-      <c r="AO91" s="13">
-        <v>90682870</v>
-      </c>
-      <c r="AP91" s="13">
         <v>85128495</v>
       </c>
+      <c r="AO91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP91" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ91" s="13" t="s">
         <v>58</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>64</v>
       </c>
@@ -11911,77 +11911,77 @@
       <c r="AE92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG92" s="11" t="s">
-        <v>58</v>
+      <c r="AF92" s="11">
+        <v>8542394</v>
+      </c>
+      <c r="AG92" s="11">
+        <v>5664041</v>
       </c>
       <c r="AH92" s="11">
-        <v>8542394</v>
+        <v>6518583</v>
       </c>
       <c r="AI92" s="11">
-        <v>5664041</v>
+        <v>7049071</v>
       </c>
       <c r="AJ92" s="11">
-        <v>6518583</v>
+        <v>6391902</v>
       </c>
       <c r="AK92" s="11">
-        <v>7049071</v>
+        <v>7827133</v>
       </c>
       <c r="AL92" s="11">
-        <v>6391902</v>
+        <v>8214167</v>
       </c>
       <c r="AM92" s="11">
-        <v>7827133</v>
+        <v>135000000</v>
       </c>
       <c r="AN92" s="11">
-        <v>8214167</v>
+        <v>11600711</v>
       </c>
       <c r="AO92" s="11">
-        <v>135000000</v>
+        <v>11307991</v>
       </c>
       <c r="AP92" s="11">
-        <v>11600711</v>
+        <v>12974115</v>
       </c>
       <c r="AQ92" s="11">
-        <v>11307991</v>
+        <v>14359050</v>
       </c>
       <c r="AR92" s="11">
-        <v>12971438</v>
+        <v>13077541</v>
       </c>
       <c r="AS92" s="11">
-        <v>14359050</v>
+        <v>6290394</v>
       </c>
       <c r="AT92" s="11">
-        <v>13077541</v>
+        <v>3550725</v>
       </c>
       <c r="AU92" s="11">
-        <v>6290394</v>
+        <v>21964784</v>
       </c>
       <c r="AV92" s="11">
-        <v>4041606</v>
+        <v>6311205</v>
       </c>
       <c r="AW92" s="11">
-        <v>21964784</v>
+        <v>5344554</v>
       </c>
       <c r="AX92" s="11">
-        <v>6311205</v>
+        <v>7744200</v>
       </c>
       <c r="AY92" s="11">
-        <v>5344554</v>
+        <v>11440622</v>
       </c>
       <c r="AZ92" s="11">
-        <v>7744200</v>
+        <v>6923313</v>
       </c>
       <c r="BA92" s="11">
-        <v>11440622</v>
+        <v>16864035</v>
       </c>
       <c r="BB92" s="11">
-        <v>6923313</v>
+        <v>18533881</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
         <v>91</v>
       </c>
@@ -12038,7 +12038,7 @@
       <c r="BA93" s="9"/>
       <c r="BB93" s="9"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>60</v>
       </c>
@@ -12154,50 +12154,50 @@
       <c r="AN94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP94" s="11" t="s">
-        <v>58</v>
+      <c r="AO94" s="11">
+        <v>78333050</v>
+      </c>
+      <c r="AP94" s="11">
+        <v>80062351</v>
       </c>
       <c r="AQ94" s="11">
-        <v>78333050</v>
+        <v>87020932</v>
       </c>
       <c r="AR94" s="11">
-        <v>80062351</v>
+        <v>84988416</v>
       </c>
       <c r="AS94" s="11">
-        <v>87020932</v>
+        <v>86188631</v>
       </c>
       <c r="AT94" s="11">
-        <v>84988416</v>
+        <v>80818764</v>
       </c>
       <c r="AU94" s="11">
-        <v>86188631</v>
+        <v>63460066</v>
       </c>
       <c r="AV94" s="11">
-        <v>80818764</v>
+        <v>64439121</v>
       </c>
       <c r="AW94" s="11">
-        <v>63460066</v>
+        <v>83477516</v>
       </c>
       <c r="AX94" s="11">
-        <v>64439121</v>
+        <v>72345978</v>
       </c>
       <c r="AY94" s="11">
-        <v>83477516</v>
+        <v>84583039</v>
       </c>
       <c r="AZ94" s="11">
-        <v>72345978</v>
+        <v>87125018</v>
       </c>
       <c r="BA94" s="11">
-        <v>84583039</v>
-      </c>
-      <c r="BB94" s="11">
-        <v>87125018</v>
+        <v>84856911</v>
+      </c>
+      <c r="BB94" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>61</v>
       </c>
@@ -12313,50 +12313,50 @@
       <c r="AN95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP95" s="13" t="s">
-        <v>58</v>
+      <c r="AO95" s="13">
+        <v>283772727</v>
+      </c>
+      <c r="AP95" s="13">
+        <v>163324338</v>
       </c>
       <c r="AQ95" s="13">
-        <v>283772727</v>
+        <v>190488372</v>
       </c>
       <c r="AR95" s="13">
-        <v>163324338</v>
+        <v>134668759</v>
       </c>
       <c r="AS95" s="13">
-        <v>190488372</v>
+        <v>170967626</v>
       </c>
       <c r="AT95" s="13">
-        <v>134668759</v>
+        <v>189252174</v>
       </c>
       <c r="AU95" s="13">
-        <v>170967626</v>
+        <v>178709677</v>
       </c>
       <c r="AV95" s="13">
-        <v>189252174</v>
+        <v>174555556</v>
       </c>
       <c r="AW95" s="13">
-        <v>178726429</v>
+        <v>176867841</v>
       </c>
       <c r="AX95" s="13">
-        <v>174555556</v>
+        <v>239717949</v>
       </c>
       <c r="AY95" s="13">
-        <v>176867841</v>
+        <v>210699115</v>
       </c>
       <c r="AZ95" s="13">
-        <v>239717949</v>
+        <v>257894737</v>
       </c>
       <c r="BA95" s="13">
-        <v>210699115</v>
+        <v>112508106</v>
       </c>
       <c r="BB95" s="13">
-        <v>257894737</v>
+        <v>119953083</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>67</v>
       </c>
@@ -12418,66 +12418,66 @@
       <c r="V96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X96" s="11" t="s">
-        <v>58</v>
+      <c r="W96" s="11">
+        <v>26581753</v>
+      </c>
+      <c r="X96" s="11">
+        <v>28712225</v>
       </c>
       <c r="Y96" s="11">
-        <v>26581753</v>
+        <v>40621428</v>
       </c>
       <c r="Z96" s="11">
-        <v>28712225</v>
+        <v>49384344</v>
       </c>
       <c r="AA96" s="11">
-        <v>40621428</v>
+        <v>56441106</v>
       </c>
       <c r="AB96" s="11">
-        <v>49384344</v>
+        <v>71337700</v>
       </c>
       <c r="AC96" s="11">
-        <v>56441106</v>
+        <v>85126785</v>
       </c>
       <c r="AD96" s="11">
-        <v>71337700</v>
+        <v>72055972</v>
       </c>
       <c r="AE96" s="11">
-        <v>85126785</v>
+        <v>72522861</v>
       </c>
       <c r="AF96" s="11">
-        <v>72055972</v>
+        <v>70650641</v>
       </c>
       <c r="AG96" s="11">
-        <v>72522861</v>
+        <v>68540090</v>
       </c>
       <c r="AH96" s="11">
-        <v>70650641</v>
+        <v>67638711</v>
       </c>
       <c r="AI96" s="11">
-        <v>68540090</v>
+        <v>67700172</v>
       </c>
       <c r="AJ96" s="11">
-        <v>67638711</v>
+        <v>72519334</v>
       </c>
       <c r="AK96" s="11">
-        <v>67700172</v>
+        <v>76082783</v>
       </c>
       <c r="AL96" s="11">
-        <v>72519334</v>
+        <v>106280625</v>
       </c>
       <c r="AM96" s="11">
-        <v>76082783</v>
+        <v>89781628</v>
       </c>
       <c r="AN96" s="11">
-        <v>106280625</v>
-      </c>
-      <c r="AO96" s="11">
-        <v>89781628</v>
-      </c>
-      <c r="AP96" s="11">
         <v>77190047</v>
       </c>
+      <c r="AO96" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP96" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ96" s="11" t="s">
         <v>58</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
         <v>68</v>
       </c>
@@ -12577,65 +12577,65 @@
       <c r="V97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" s="13" t="s">
-        <v>58</v>
+      <c r="W97" s="13">
+        <v>32051500</v>
+      </c>
+      <c r="X97" s="13">
+        <v>32594238</v>
       </c>
       <c r="Y97" s="13">
-        <v>32051500</v>
+        <v>39724161</v>
       </c>
       <c r="Z97" s="13">
-        <v>32594238</v>
+        <v>60528356</v>
       </c>
       <c r="AA97" s="13">
-        <v>39724161</v>
+        <v>60125701</v>
       </c>
       <c r="AB97" s="13">
-        <v>60528356</v>
+        <v>86215311</v>
       </c>
       <c r="AC97" s="13">
-        <v>60125701</v>
+        <v>83286411</v>
       </c>
       <c r="AD97" s="13">
-        <v>86215311</v>
+        <v>140699453</v>
       </c>
       <c r="AE97" s="13">
-        <v>83286411</v>
+        <v>176592577</v>
       </c>
       <c r="AF97" s="13">
-        <v>140699453</v>
+        <v>204859002</v>
       </c>
       <c r="AG97" s="13">
-        <v>176592577</v>
+        <v>173206849</v>
       </c>
       <c r="AH97" s="13">
-        <v>204859002</v>
+        <v>183614155</v>
       </c>
       <c r="AI97" s="13">
-        <v>173206849</v>
+        <v>175189681</v>
       </c>
       <c r="AJ97" s="13">
-        <v>183614155</v>
+        <v>210850962</v>
       </c>
       <c r="AK97" s="13">
-        <v>175189681</v>
+        <v>193233896</v>
       </c>
       <c r="AL97" s="13">
-        <v>210850962</v>
+        <v>179582702</v>
       </c>
       <c r="AM97" s="13">
-        <v>193233896</v>
+        <v>274472086</v>
       </c>
       <c r="AN97" s="13">
-        <v>179582702</v>
-      </c>
-      <c r="AO97" s="13">
-        <v>274472086</v>
-      </c>
-      <c r="AP97" s="13">
         <v>265461150</v>
+      </c>
+      <c r="AO97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ97" s="13" t="s">
         <v>58</v>

--- a/database/industries/methanol/shefan/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/shefan/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="92">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3456,35 +3456,35 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>7145</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>7145</v>
+        <v>7052</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>7052</v>
+        <v>6706</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>6706</v>
+        <v>4730</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>4730</v>
+        <v>3519</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>3519</v>
+        <v>6590</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>6590</v>
+        <v>2192</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>2192</v>
+        <v>5232</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>5232</v>
-      </c>
-      <c r="AD11" s="13" t="n">
         <v>5491</v>
+      </c>
+      <c r="AD11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE11" s="13" t="s">
         <v>58</v>
@@ -3615,107 +3615,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>8769</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>8769</v>
+        <v>8659</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>8659</v>
+        <v>9259</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>9259</v>
+        <v>9187</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>9187</v>
+        <v>9394</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>9394</v>
+        <v>9058</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>9058</v>
+        <v>9659</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>9659</v>
+        <v>9662</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>9662</v>
+        <v>9440</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>9440</v>
+        <v>9678</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>9678</v>
+        <v>6314</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>6314</v>
+        <v>8038</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>8038</v>
+        <v>8363</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>8363</v>
+        <v>8156</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>8156</v>
+        <v>8988</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>8988</v>
+        <v>9257</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>9257</v>
+        <v>9178</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>9178</v>
+        <v>9420</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>9420</v>
+        <v>8814</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>8814</v>
+        <v>9533</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>9533</v>
+        <v>9123</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>9123</v>
+        <v>8406</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>8406</v>
+        <v>8039</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>8039</v>
+        <v>2656</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>2656</v>
+        <v>6992</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>6992</v>
+        <v>7692</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>7692</v>
+        <v>9280</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>9280</v>
+        <v>8800</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>8800</v>
+        <v>9781</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>9781</v>
+        <v>9870</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>9870</v>
+        <v>9098</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>9098</v>
+        <v>6978</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>6978</v>
+        <v>9787</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>9787</v>
+        <v>10278</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,53 +3828,53 @@
       <c r="AL13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM13" s="13" t="s">
-        <v>58</v>
+      <c r="AM13" s="13" t="n">
+        <v>19150</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>19150</v>
+        <v>14012</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>14012</v>
+        <v>35132</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>35132</v>
+        <v>18165</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>18165</v>
+        <v>42627</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>42627</v>
+        <v>22442</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>22442</v>
+        <v>19095</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>19095</v>
+        <v>10734</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>10734</v>
+        <v>20610</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>20610</v>
+        <v>24491</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>24491</v>
+        <v>68887</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>68887</v>
+        <v>39470</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>39470</v>
+        <v>6701</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>6701</v>
+        <v>57065</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>57065</v>
+        <v>21329</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>21329</v>
+        <v>16607</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3987,53 +3987,53 @@
       <c r="AL14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM14" s="16" t="s">
-        <v>58</v>
+      <c r="AM14" s="16" t="n">
+        <v>10739</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>10739</v>
+        <v>5959</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>5959</v>
+        <v>11546</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>11546</v>
+        <v>6612</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>6612</v>
+        <v>8651</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>8651</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>0</v>
+        <v>8701</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>8701</v>
+        <v>10708</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>10708</v>
+        <v>13311</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>13311</v>
+        <v>13465</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>13465</v>
+        <v>14051</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>14051</v>
+        <v>11959</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>11959</v>
+        <v>7472</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>7472</v>
+        <v>6369</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>6369</v>
+        <v>8867</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>8867</v>
+        <v>7963</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,62 +4092,62 @@
       <c r="T15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>58</v>
+      <c r="U15" s="13" t="n">
+        <v>6638</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>6638</v>
+        <v>9186</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>9186</v>
+        <v>10542</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>10542</v>
+        <v>6633</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>6633</v>
+        <v>6169</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>6169</v>
+        <v>5074</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>5074</v>
+        <v>6669</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>6669</v>
+        <v>6761</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>6761</v>
+        <v>5675</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>5675</v>
+        <v>12973</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>12973</v>
+        <v>3505</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>3505</v>
+        <v>6005</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>6005</v>
+        <v>6092</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>6092</v>
+        <v>11728</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>11728</v>
+        <v>6371</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>6371</v>
+        <v>7252</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>7252</v>
+        <v>7207</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>7207</v>
-      </c>
-      <c r="AM15" s="13" t="n">
         <v>6506</v>
+      </c>
+      <c r="AM15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN15" s="13" t="s">
         <v>58</v>
@@ -4251,62 +4251,62 @@
       <c r="T16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>58</v>
+      <c r="U16" s="16" t="n">
+        <v>10931</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>10931</v>
+        <v>16111</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>16111</v>
+        <v>21312</v>
       </c>
       <c r="X16" s="16" t="n">
-        <v>21312</v>
+        <v>19485</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>19485</v>
+        <v>16785</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>16785</v>
+        <v>20795</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>20795</v>
+        <v>34861</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>34861</v>
+        <v>17511</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>17511</v>
+        <v>27370</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>27370</v>
+        <v>11532</v>
       </c>
       <c r="AE16" s="16" t="n">
-        <v>11532</v>
+        <v>44965</v>
       </c>
       <c r="AF16" s="16" t="n">
-        <v>44965</v>
+        <v>20251</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>20251</v>
+        <v>23457</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>23457</v>
+        <v>14147</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>14147</v>
+        <v>25698</v>
       </c>
       <c r="AJ16" s="16" t="n">
-        <v>25698</v>
+        <v>17713</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>17713</v>
+        <v>17073</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>17073</v>
-      </c>
-      <c r="AM16" s="16" t="n">
         <v>18028</v>
+      </c>
+      <c r="AM16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN16" s="16" t="s">
         <v>58</v>
@@ -4437,80 +4437,80 @@
       <c r="AC17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD17" s="13" t="s">
-        <v>58</v>
+      <c r="AD17" s="13" t="n">
+        <v>3267</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>3267</v>
+        <v>5331</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>5331</v>
+        <v>5166</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>5166</v>
+        <v>2853</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>2853</v>
+        <v>5236</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>5236</v>
+        <v>3199</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>3199</v>
+        <v>2414</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>2414</v>
+        <v>97</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>97</v>
+        <v>2249</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>2249</v>
+        <v>1802</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>1802</v>
+        <v>4211</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>4211</v>
+        <v>2696</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>2696</v>
+        <v>2863</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>2863</v>
+        <v>5403</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>5403</v>
+        <v>4071</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>4071</v>
+        <v>1363</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>1363</v>
+        <v>4447</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>4447</v>
+        <v>4159</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>4159</v>
+        <v>1681</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>1681</v>
+        <v>4564</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>4564</v>
+        <v>3260</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>3260</v>
+        <v>912</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>912</v>
+        <v>974</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>974</v>
+        <v>5121</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>5121</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,106 +4568,106 @@
         <v>0</v>
       </c>
       <c r="U18" s="18" t="n">
-        <v>0</v>
+        <v>33483</v>
       </c>
       <c r="V18" s="18" t="n">
-        <v>33483</v>
+        <v>41008</v>
       </c>
       <c r="W18" s="18" t="n">
-        <v>41008</v>
+        <v>47819</v>
       </c>
       <c r="X18" s="18" t="n">
-        <v>47819</v>
+        <v>40035</v>
       </c>
       <c r="Y18" s="18" t="n">
-        <v>40035</v>
+        <v>35867</v>
       </c>
       <c r="Z18" s="18" t="n">
-        <v>35867</v>
+        <v>41517</v>
       </c>
       <c r="AA18" s="18" t="n">
-        <v>41517</v>
+        <v>53381</v>
       </c>
       <c r="AB18" s="18" t="n">
-        <v>53381</v>
+        <v>39166</v>
       </c>
       <c r="AC18" s="18" t="n">
-        <v>39166</v>
+        <v>47976</v>
       </c>
       <c r="AD18" s="18" t="n">
-        <v>47976</v>
+        <v>37450</v>
       </c>
       <c r="AE18" s="18" t="n">
-        <v>37450</v>
+        <v>60115</v>
       </c>
       <c r="AF18" s="18" t="n">
-        <v>60115</v>
+        <v>39460</v>
       </c>
       <c r="AG18" s="18" t="n">
-        <v>39460</v>
+        <v>40765</v>
       </c>
       <c r="AH18" s="18" t="n">
-        <v>40765</v>
+        <v>39267</v>
       </c>
       <c r="AI18" s="18" t="n">
-        <v>39267</v>
+        <v>44256</v>
       </c>
       <c r="AJ18" s="18" t="n">
-        <v>44256</v>
+        <v>36636</v>
       </c>
       <c r="AK18" s="18" t="n">
-        <v>36636</v>
+        <v>33555</v>
       </c>
       <c r="AL18" s="18" t="n">
-        <v>33555</v>
+        <v>36203</v>
       </c>
       <c r="AM18" s="18" t="n">
-        <v>36203</v>
+        <v>40505</v>
       </c>
       <c r="AN18" s="18" t="n">
-        <v>40505</v>
+        <v>33715</v>
       </c>
       <c r="AO18" s="18" t="n">
-        <v>33715</v>
+        <v>58497</v>
       </c>
       <c r="AP18" s="18" t="n">
-        <v>58497</v>
+        <v>36046</v>
       </c>
       <c r="AQ18" s="18" t="n">
-        <v>36046</v>
+        <v>64720</v>
       </c>
       <c r="AR18" s="18" t="n">
-        <v>64720</v>
+        <v>29169</v>
       </c>
       <c r="AS18" s="18" t="n">
-        <v>29169</v>
+        <v>36151</v>
       </c>
       <c r="AT18" s="18" t="n">
-        <v>36151</v>
+        <v>33581</v>
       </c>
       <c r="AU18" s="18" t="n">
-        <v>33581</v>
+        <v>47360</v>
       </c>
       <c r="AV18" s="18" t="n">
-        <v>47360</v>
+        <v>48437</v>
       </c>
       <c r="AW18" s="18" t="n">
-        <v>48437</v>
+        <v>97283</v>
       </c>
       <c r="AX18" s="18" t="n">
-        <v>97283</v>
+        <v>64559</v>
       </c>
       <c r="AY18" s="18" t="n">
-        <v>64559</v>
+        <v>24183</v>
       </c>
       <c r="AZ18" s="18" t="n">
-        <v>24183</v>
+        <v>71386</v>
       </c>
       <c r="BA18" s="18" t="n">
-        <v>71386</v>
+        <v>45104</v>
       </c>
       <c r="BB18" s="18" t="n">
-        <v>45104</v>
+        <v>39052</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,53 +4837,53 @@
       <c r="AL20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM20" s="13" t="s">
-        <v>58</v>
+      <c r="AM20" s="13" t="n">
+        <v>60643</v>
       </c>
       <c r="AN20" s="13" t="n">
-        <v>60643</v>
+        <v>69852</v>
       </c>
       <c r="AO20" s="13" t="n">
-        <v>69852</v>
+        <v>41645</v>
       </c>
       <c r="AP20" s="13" t="n">
-        <v>41645</v>
+        <v>60128</v>
       </c>
       <c r="AQ20" s="13" t="n">
-        <v>60128</v>
+        <v>39855</v>
       </c>
       <c r="AR20" s="13" t="n">
-        <v>39855</v>
+        <v>58493</v>
       </c>
       <c r="AS20" s="13" t="n">
-        <v>58493</v>
+        <v>52625</v>
       </c>
       <c r="AT20" s="13" t="n">
-        <v>52625</v>
+        <v>64975</v>
       </c>
       <c r="AU20" s="13" t="n">
-        <v>64975</v>
+        <v>55153</v>
       </c>
       <c r="AV20" s="13" t="n">
-        <v>55153</v>
+        <v>30369</v>
       </c>
       <c r="AW20" s="13" t="n">
-        <v>30369</v>
+        <v>41134</v>
       </c>
       <c r="AX20" s="13" t="n">
-        <v>41134</v>
+        <v>32294</v>
       </c>
       <c r="AY20" s="13" t="n">
-        <v>32294</v>
+        <v>14470</v>
       </c>
       <c r="AZ20" s="13" t="n">
-        <v>14470</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="13" t="n">
-        <v>0</v>
+        <v>58823</v>
       </c>
       <c r="BB20" s="13" t="n">
-        <v>58823</v>
+        <v>69401</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,53 +4996,53 @@
       <c r="AL21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM21" s="16" t="s">
-        <v>58</v>
+      <c r="AM21" s="16" t="n">
+        <v>1465</v>
       </c>
       <c r="AN21" s="16" t="n">
-        <v>1465</v>
+        <v>6605</v>
       </c>
       <c r="AO21" s="16" t="n">
-        <v>6605</v>
+        <v>85</v>
       </c>
       <c r="AP21" s="16" t="n">
-        <v>85</v>
+        <v>5269</v>
       </c>
       <c r="AQ21" s="16" t="n">
-        <v>5269</v>
+        <v>2123</v>
       </c>
       <c r="AR21" s="16" t="n">
-        <v>2123</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="16" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AT21" s="16" t="n">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="AU21" s="16" t="n">
-        <v>301</v>
+        <v>636</v>
       </c>
       <c r="AV21" s="16" t="n">
-        <v>636</v>
+        <v>58</v>
       </c>
       <c r="AW21" s="16" t="n">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="AX21" s="16" t="n">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="AY21" s="16" t="n">
-        <v>24</v>
+        <v>4376</v>
       </c>
       <c r="AZ21" s="16" t="n">
-        <v>4376</v>
+        <v>3582</v>
       </c>
       <c r="BA21" s="16" t="n">
-        <v>3582</v>
+        <v>4507</v>
       </c>
       <c r="BB21" s="16" t="n">
-        <v>4507</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,62 +5101,62 @@
       <c r="T22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="13" t="s">
-        <v>58</v>
+      <c r="U22" s="13" t="n">
+        <v>66455</v>
       </c>
       <c r="V22" s="13" t="n">
-        <v>66455</v>
+        <v>60310</v>
       </c>
       <c r="W22" s="13" t="n">
-        <v>60310</v>
+        <v>62424</v>
       </c>
       <c r="X22" s="13" t="n">
-        <v>62424</v>
+        <v>58844</v>
       </c>
       <c r="Y22" s="13" t="n">
-        <v>58844</v>
+        <v>64256</v>
       </c>
       <c r="Z22" s="13" t="n">
-        <v>64256</v>
+        <v>58813</v>
       </c>
       <c r="AA22" s="13" t="n">
-        <v>58813</v>
+        <v>42062</v>
       </c>
       <c r="AB22" s="13" t="n">
-        <v>42062</v>
+        <v>61872</v>
       </c>
       <c r="AC22" s="13" t="n">
-        <v>61872</v>
+        <v>45416</v>
       </c>
       <c r="AD22" s="13" t="n">
-        <v>45416</v>
+        <v>38497</v>
       </c>
       <c r="AE22" s="13" t="n">
-        <v>38497</v>
+        <v>37751</v>
       </c>
       <c r="AF22" s="13" t="n">
-        <v>37751</v>
+        <v>65527</v>
       </c>
       <c r="AG22" s="13" t="n">
-        <v>65527</v>
+        <v>58200</v>
       </c>
       <c r="AH22" s="13" t="n">
-        <v>58200</v>
+        <v>68051</v>
       </c>
       <c r="AI22" s="13" t="n">
-        <v>68051</v>
+        <v>54147</v>
       </c>
       <c r="AJ22" s="13" t="n">
-        <v>54147</v>
+        <v>60735</v>
       </c>
       <c r="AK22" s="13" t="n">
-        <v>60735</v>
+        <v>61740</v>
       </c>
       <c r="AL22" s="13" t="n">
-        <v>61740</v>
-      </c>
-      <c r="AM22" s="13" t="n">
         <v>61853</v>
+      </c>
+      <c r="AM22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN22" s="13" t="s">
         <v>58</v>
@@ -5260,62 +5260,62 @@
       <c r="T23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U23" s="16" t="s">
-        <v>58</v>
+      <c r="U23" s="16" t="n">
+        <v>5754</v>
       </c>
       <c r="V23" s="16" t="n">
-        <v>5754</v>
+        <v>2635</v>
       </c>
       <c r="W23" s="16" t="n">
-        <v>2635</v>
+        <v>3459</v>
       </c>
       <c r="X23" s="16" t="n">
-        <v>3459</v>
+        <v>6943</v>
       </c>
       <c r="Y23" s="16" t="n">
-        <v>6943</v>
+        <v>7323</v>
       </c>
       <c r="Z23" s="16" t="n">
-        <v>7323</v>
+        <v>2842</v>
       </c>
       <c r="AA23" s="16" t="n">
-        <v>2842</v>
+        <v>6769</v>
       </c>
       <c r="AB23" s="16" t="n">
-        <v>6769</v>
+        <v>6879</v>
       </c>
       <c r="AC23" s="16" t="n">
-        <v>6879</v>
+        <v>7498</v>
       </c>
       <c r="AD23" s="16" t="n">
-        <v>7498</v>
+        <v>1116</v>
       </c>
       <c r="AE23" s="16" t="n">
-        <v>1116</v>
+        <v>5790</v>
       </c>
       <c r="AF23" s="16" t="n">
-        <v>5790</v>
+        <v>5768</v>
       </c>
       <c r="AG23" s="16" t="n">
-        <v>5768</v>
+        <v>5230</v>
       </c>
       <c r="AH23" s="16" t="n">
-        <v>5230</v>
+        <v>344</v>
       </c>
       <c r="AI23" s="16" t="n">
-        <v>344</v>
+        <v>6796</v>
       </c>
       <c r="AJ23" s="16" t="n">
-        <v>6796</v>
+        <v>5767</v>
       </c>
       <c r="AK23" s="16" t="n">
-        <v>5767</v>
+        <v>6426</v>
       </c>
       <c r="AL23" s="16" t="n">
-        <v>6426</v>
-      </c>
-      <c r="AM23" s="16" t="n">
         <v>3386</v>
+      </c>
+      <c r="AM23" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN23" s="16" t="s">
         <v>58</v>
@@ -5418,106 +5418,106 @@
         <v>0</v>
       </c>
       <c r="U24" s="20" t="n">
-        <v>0</v>
+        <v>72209</v>
       </c>
       <c r="V24" s="20" t="n">
-        <v>72209</v>
+        <v>62945</v>
       </c>
       <c r="W24" s="20" t="n">
-        <v>62945</v>
+        <v>65883</v>
       </c>
       <c r="X24" s="20" t="n">
-        <v>65883</v>
+        <v>65787</v>
       </c>
       <c r="Y24" s="20" t="n">
-        <v>65787</v>
+        <v>71579</v>
       </c>
       <c r="Z24" s="20" t="n">
-        <v>71579</v>
+        <v>61655</v>
       </c>
       <c r="AA24" s="20" t="n">
-        <v>61655</v>
+        <v>48831</v>
       </c>
       <c r="AB24" s="20" t="n">
-        <v>48831</v>
+        <v>68751</v>
       </c>
       <c r="AC24" s="20" t="n">
-        <v>68751</v>
+        <v>52914</v>
       </c>
       <c r="AD24" s="20" t="n">
-        <v>52914</v>
+        <v>39613</v>
       </c>
       <c r="AE24" s="20" t="n">
-        <v>39613</v>
+        <v>43541</v>
       </c>
       <c r="AF24" s="20" t="n">
-        <v>43541</v>
+        <v>71295</v>
       </c>
       <c r="AG24" s="20" t="n">
-        <v>71295</v>
+        <v>63430</v>
       </c>
       <c r="AH24" s="20" t="n">
-        <v>63430</v>
+        <v>68395</v>
       </c>
       <c r="AI24" s="20" t="n">
-        <v>68395</v>
+        <v>60943</v>
       </c>
       <c r="AJ24" s="20" t="n">
-        <v>60943</v>
+        <v>66502</v>
       </c>
       <c r="AK24" s="20" t="n">
-        <v>66502</v>
+        <v>68166</v>
       </c>
       <c r="AL24" s="20" t="n">
-        <v>68166</v>
+        <v>65239</v>
       </c>
       <c r="AM24" s="20" t="n">
-        <v>65239</v>
+        <v>62108</v>
       </c>
       <c r="AN24" s="20" t="n">
-        <v>62108</v>
+        <v>76457</v>
       </c>
       <c r="AO24" s="20" t="n">
-        <v>76457</v>
+        <v>41730</v>
       </c>
       <c r="AP24" s="20" t="n">
-        <v>41730</v>
+        <v>65397</v>
       </c>
       <c r="AQ24" s="20" t="n">
-        <v>65397</v>
+        <v>41978</v>
       </c>
       <c r="AR24" s="20" t="n">
-        <v>41978</v>
+        <v>58493</v>
       </c>
       <c r="AS24" s="20" t="n">
-        <v>58493</v>
+        <v>53325</v>
       </c>
       <c r="AT24" s="20" t="n">
-        <v>53325</v>
+        <v>65276</v>
       </c>
       <c r="AU24" s="20" t="n">
-        <v>65276</v>
+        <v>55789</v>
       </c>
       <c r="AV24" s="20" t="n">
-        <v>55789</v>
+        <v>30427</v>
       </c>
       <c r="AW24" s="20" t="n">
-        <v>30427</v>
+        <v>41281</v>
       </c>
       <c r="AX24" s="20" t="n">
-        <v>41281</v>
+        <v>32318</v>
       </c>
       <c r="AY24" s="20" t="n">
-        <v>32318</v>
+        <v>18846</v>
       </c>
       <c r="AZ24" s="20" t="n">
-        <v>18846</v>
+        <v>3582</v>
       </c>
       <c r="BA24" s="20" t="n">
-        <v>3582</v>
+        <v>63330</v>
       </c>
       <c r="BB24" s="20" t="n">
-        <v>63330</v>
+        <v>75088</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5631,8 +5631,8 @@
       <c r="T26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U26" s="20" t="s">
-        <v>58</v>
+      <c r="U26" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V26" s="20" t="n">
         <v>0</v>
@@ -5789,106 +5789,106 @@
         <v>0</v>
       </c>
       <c r="U27" s="18" t="n">
-        <v>0</v>
+        <v>105692</v>
       </c>
       <c r="V27" s="18" t="n">
-        <v>105692</v>
+        <v>103953</v>
       </c>
       <c r="W27" s="18" t="n">
-        <v>103953</v>
+        <v>113702</v>
       </c>
       <c r="X27" s="18" t="n">
-        <v>113702</v>
+        <v>105822</v>
       </c>
       <c r="Y27" s="18" t="n">
-        <v>105822</v>
+        <v>107446</v>
       </c>
       <c r="Z27" s="18" t="n">
-        <v>107446</v>
+        <v>103172</v>
       </c>
       <c r="AA27" s="18" t="n">
-        <v>103172</v>
+        <v>102212</v>
       </c>
       <c r="AB27" s="18" t="n">
-        <v>102212</v>
+        <v>107917</v>
       </c>
       <c r="AC27" s="18" t="n">
-        <v>107917</v>
+        <v>100890</v>
       </c>
       <c r="AD27" s="18" t="n">
-        <v>100890</v>
+        <v>77063</v>
       </c>
       <c r="AE27" s="18" t="n">
-        <v>77063</v>
+        <v>103656</v>
       </c>
       <c r="AF27" s="18" t="n">
-        <v>103656</v>
+        <v>110755</v>
       </c>
       <c r="AG27" s="18" t="n">
-        <v>110755</v>
+        <v>104195</v>
       </c>
       <c r="AH27" s="18" t="n">
-        <v>104195</v>
+        <v>107662</v>
       </c>
       <c r="AI27" s="18" t="n">
-        <v>107662</v>
+        <v>105199</v>
       </c>
       <c r="AJ27" s="18" t="n">
-        <v>105199</v>
+        <v>103138</v>
       </c>
       <c r="AK27" s="18" t="n">
-        <v>103138</v>
+        <v>101721</v>
       </c>
       <c r="AL27" s="18" t="n">
-        <v>101721</v>
+        <v>101442</v>
       </c>
       <c r="AM27" s="18" t="n">
-        <v>101442</v>
+        <v>102613</v>
       </c>
       <c r="AN27" s="18" t="n">
-        <v>102613</v>
+        <v>110172</v>
       </c>
       <c r="AO27" s="18" t="n">
-        <v>110172</v>
+        <v>100227</v>
       </c>
       <c r="AP27" s="18" t="n">
-        <v>100227</v>
+        <v>101443</v>
       </c>
       <c r="AQ27" s="18" t="n">
-        <v>101443</v>
+        <v>106698</v>
       </c>
       <c r="AR27" s="18" t="n">
-        <v>106698</v>
+        <v>87662</v>
       </c>
       <c r="AS27" s="18" t="n">
-        <v>87662</v>
+        <v>89476</v>
       </c>
       <c r="AT27" s="18" t="n">
-        <v>89476</v>
+        <v>98857</v>
       </c>
       <c r="AU27" s="18" t="n">
-        <v>98857</v>
+        <v>103149</v>
       </c>
       <c r="AV27" s="18" t="n">
-        <v>103149</v>
+        <v>78864</v>
       </c>
       <c r="AW27" s="18" t="n">
-        <v>78864</v>
+        <v>138564</v>
       </c>
       <c r="AX27" s="18" t="n">
-        <v>138564</v>
+        <v>96877</v>
       </c>
       <c r="AY27" s="18" t="n">
-        <v>96877</v>
+        <v>43029</v>
       </c>
       <c r="AZ27" s="18" t="n">
-        <v>43029</v>
+        <v>74968</v>
       </c>
       <c r="BA27" s="18" t="n">
-        <v>74968</v>
+        <v>108434</v>
       </c>
       <c r="BB27" s="18" t="n">
-        <v>108434</v>
+        <v>114140</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,35 +6381,35 @@
       <c r="T34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="13" t="s">
-        <v>58</v>
+      <c r="U34" s="13" t="n">
+        <v>7144</v>
       </c>
       <c r="V34" s="13" t="n">
-        <v>7144</v>
+        <v>7012</v>
       </c>
       <c r="W34" s="13" t="n">
-        <v>7012</v>
+        <v>6655</v>
       </c>
       <c r="X34" s="13" t="n">
-        <v>6655</v>
+        <v>4729</v>
       </c>
       <c r="Y34" s="13" t="n">
-        <v>4729</v>
+        <v>3519</v>
       </c>
       <c r="Z34" s="13" t="n">
-        <v>3519</v>
+        <v>6590</v>
       </c>
       <c r="AA34" s="13" t="n">
-        <v>6590</v>
+        <v>2193</v>
       </c>
       <c r="AB34" s="13" t="n">
-        <v>2193</v>
+        <v>5233</v>
       </c>
       <c r="AC34" s="13" t="n">
-        <v>5233</v>
-      </c>
-      <c r="AD34" s="13" t="n">
         <v>5491</v>
+      </c>
+      <c r="AD34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE34" s="13" t="s">
         <v>58</v>
@@ -6540,107 +6540,107 @@
       <c r="T35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="16" t="s">
-        <v>58</v>
+      <c r="U35" s="16" t="n">
+        <v>1397</v>
       </c>
       <c r="V35" s="16" t="n">
-        <v>1397</v>
+        <v>1426</v>
       </c>
       <c r="W35" s="16" t="n">
-        <v>1426</v>
+        <v>1481</v>
       </c>
       <c r="X35" s="16" t="n">
+        <v>1467</v>
+      </c>
+      <c r="Y35" s="16" t="n">
+        <v>1577</v>
+      </c>
+      <c r="Z35" s="16" t="n">
+        <v>1446</v>
+      </c>
+      <c r="AA35" s="16" t="n">
+        <v>1786</v>
+      </c>
+      <c r="AB35" s="16" t="n">
+        <v>1764</v>
+      </c>
+      <c r="AC35" s="16" t="n">
+        <v>1517</v>
+      </c>
+      <c r="AD35" s="16" t="n">
+        <v>1680</v>
+      </c>
+      <c r="AE35" s="16" t="n">
+        <v>858</v>
+      </c>
+      <c r="AF35" s="16" t="n">
+        <v>1371</v>
+      </c>
+      <c r="AG35" s="16" t="n">
+        <v>1424</v>
+      </c>
+      <c r="AH35" s="16" t="n">
+        <v>1266</v>
+      </c>
+      <c r="AI35" s="16" t="n">
+        <v>1605</v>
+      </c>
+      <c r="AJ35" s="16" t="n">
         <v>1481</v>
       </c>
-      <c r="Y35" s="16" t="n">
-        <v>1467</v>
-      </c>
-      <c r="Z35" s="16" t="n">
-        <v>1577</v>
-      </c>
-      <c r="AA35" s="16" t="n">
-        <v>1446</v>
-      </c>
-      <c r="AB35" s="16" t="n">
-        <v>1786</v>
-      </c>
-      <c r="AC35" s="16" t="n">
-        <v>1764</v>
-      </c>
-      <c r="AD35" s="16" t="n">
-        <v>1517</v>
-      </c>
-      <c r="AE35" s="16" t="n">
-        <v>1680</v>
-      </c>
-      <c r="AF35" s="16" t="n">
-        <v>858</v>
-      </c>
-      <c r="AG35" s="16" t="n">
-        <v>1371</v>
-      </c>
-      <c r="AH35" s="16" t="n">
-        <v>1424</v>
-      </c>
-      <c r="AI35" s="16" t="n">
-        <v>1266</v>
-      </c>
-      <c r="AJ35" s="16" t="n">
-        <v>1605</v>
-      </c>
       <c r="AK35" s="16" t="n">
-        <v>1481</v>
+        <v>1076</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>1076</v>
+        <v>1204</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>1204</v>
+        <v>579</v>
       </c>
       <c r="AN35" s="16" t="n">
-        <v>579</v>
+        <v>1014</v>
       </c>
       <c r="AO35" s="16" t="n">
-        <v>1014</v>
+        <v>929</v>
       </c>
       <c r="AP35" s="16" t="n">
-        <v>929</v>
+        <v>883</v>
       </c>
       <c r="AQ35" s="16" t="n">
-        <v>883</v>
+        <v>1243</v>
       </c>
       <c r="AR35" s="16" t="n">
-        <v>1243</v>
+        <v>78</v>
       </c>
       <c r="AS35" s="16" t="n">
-        <v>78</v>
+        <v>757</v>
       </c>
       <c r="AT35" s="16" t="n">
-        <v>757</v>
+        <v>1172</v>
       </c>
       <c r="AU35" s="16" t="n">
-        <v>1172</v>
+        <v>1142</v>
       </c>
       <c r="AV35" s="16" t="n">
-        <v>1142</v>
+        <v>1339</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>1339</v>
+        <v>1587</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>1350</v>
+        <v>1521</v>
       </c>
       <c r="AZ35" s="16" t="n">
-        <v>1521</v>
+        <v>1164</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>1164</v>
+        <v>1407</v>
       </c>
       <c r="BB35" s="16" t="n">
-        <v>1407</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,53 +6753,53 @@
       <c r="AL36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM36" s="13" t="s">
-        <v>58</v>
+      <c r="AM36" s="13" t="n">
+        <v>17789</v>
       </c>
       <c r="AN36" s="13" t="n">
-        <v>17789</v>
+        <v>16192</v>
       </c>
       <c r="AO36" s="13" t="n">
-        <v>16192</v>
+        <v>16766</v>
       </c>
       <c r="AP36" s="13" t="n">
-        <v>16766</v>
+        <v>18021</v>
       </c>
       <c r="AQ36" s="13" t="n">
-        <v>18021</v>
+        <v>19267</v>
       </c>
       <c r="AR36" s="13" t="n">
-        <v>19267</v>
+        <v>17022</v>
       </c>
       <c r="AS36" s="13" t="n">
-        <v>17022</v>
+        <v>16605</v>
       </c>
       <c r="AT36" s="13" t="n">
-        <v>16605</v>
+        <v>21493</v>
       </c>
       <c r="AU36" s="13" t="n">
-        <v>21493</v>
+        <v>20210</v>
       </c>
       <c r="AV36" s="13" t="n">
-        <v>20210</v>
+        <v>14477</v>
       </c>
       <c r="AW36" s="13" t="n">
-        <v>14477</v>
+        <v>21750</v>
       </c>
       <c r="AX36" s="13" t="n">
-        <v>21750</v>
+        <v>25812</v>
       </c>
       <c r="AY36" s="13" t="n">
-        <v>25812</v>
+        <v>17963</v>
       </c>
       <c r="AZ36" s="13" t="n">
-        <v>17963</v>
+        <v>20739</v>
       </c>
       <c r="BA36" s="13" t="n">
-        <v>20739</v>
+        <v>27899</v>
       </c>
       <c r="BB36" s="13" t="n">
-        <v>27899</v>
+        <v>16245</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6912,53 +6912,53 @@
       <c r="AL37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM37" s="16" t="s">
-        <v>58</v>
+      <c r="AM37" s="16" t="n">
+        <v>8060</v>
       </c>
       <c r="AN37" s="16" t="n">
-        <v>8060</v>
+        <v>9127</v>
       </c>
       <c r="AO37" s="16" t="n">
-        <v>9127</v>
+        <v>5824</v>
       </c>
       <c r="AP37" s="16" t="n">
-        <v>5824</v>
+        <v>7621</v>
       </c>
       <c r="AQ37" s="16" t="n">
-        <v>7621</v>
+        <v>6799</v>
       </c>
       <c r="AR37" s="16" t="n">
-        <v>6799</v>
+        <v>7194</v>
       </c>
       <c r="AS37" s="16" t="n">
-        <v>7194</v>
+        <v>6162</v>
       </c>
       <c r="AT37" s="16" t="n">
-        <v>6162</v>
+        <v>9923</v>
       </c>
       <c r="AU37" s="16" t="n">
-        <v>9923</v>
+        <v>9506</v>
       </c>
       <c r="AV37" s="16" t="n">
-        <v>9506</v>
+        <v>8995</v>
       </c>
       <c r="AW37" s="16" t="n">
-        <v>8995</v>
+        <v>10841</v>
       </c>
       <c r="AX37" s="16" t="n">
-        <v>10841</v>
+        <v>9747</v>
       </c>
       <c r="AY37" s="16" t="n">
-        <v>9747</v>
+        <v>8953</v>
       </c>
       <c r="AZ37" s="16" t="n">
-        <v>8953</v>
+        <v>9401</v>
       </c>
       <c r="BA37" s="16" t="n">
-        <v>9401</v>
+        <v>10631</v>
       </c>
       <c r="BB37" s="16" t="n">
-        <v>10631</v>
+        <v>8292</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7017,62 +7017,62 @@
       <c r="T38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U38" s="13" t="s">
-        <v>58</v>
+      <c r="U38" s="13" t="n">
+        <v>7885</v>
       </c>
       <c r="V38" s="13" t="n">
-        <v>7885</v>
+        <v>8712</v>
       </c>
       <c r="W38" s="13" t="n">
-        <v>8712</v>
+        <v>9172</v>
       </c>
       <c r="X38" s="13" t="n">
-        <v>9172</v>
+        <v>7665</v>
       </c>
       <c r="Y38" s="13" t="n">
-        <v>7665</v>
+        <v>6756</v>
       </c>
       <c r="Z38" s="13" t="n">
-        <v>6756</v>
+        <v>5791</v>
       </c>
       <c r="AA38" s="13" t="n">
-        <v>5791</v>
+        <v>6061</v>
       </c>
       <c r="AB38" s="13" t="n">
-        <v>6061</v>
+        <v>6108</v>
       </c>
       <c r="AC38" s="13" t="n">
-        <v>6108</v>
+        <v>7300</v>
       </c>
       <c r="AD38" s="13" t="n">
-        <v>7300</v>
+        <v>5361</v>
       </c>
       <c r="AE38" s="13" t="n">
-        <v>5361</v>
+        <v>6135</v>
       </c>
       <c r="AF38" s="13" t="n">
-        <v>6135</v>
+        <v>6838</v>
       </c>
       <c r="AG38" s="13" t="n">
-        <v>6838</v>
+        <v>6276</v>
       </c>
       <c r="AH38" s="13" t="n">
-        <v>6276</v>
+        <v>7093</v>
       </c>
       <c r="AI38" s="13" t="n">
-        <v>7093</v>
+        <v>7612</v>
       </c>
       <c r="AJ38" s="13" t="n">
-        <v>7612</v>
+        <v>7140</v>
       </c>
       <c r="AK38" s="13" t="n">
-        <v>7140</v>
+        <v>6167</v>
       </c>
       <c r="AL38" s="13" t="n">
-        <v>6167</v>
-      </c>
-      <c r="AM38" s="13" t="n">
         <v>6851</v>
+      </c>
+      <c r="AM38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN38" s="13" t="s">
         <v>58</v>
@@ -7176,62 +7176,62 @@
       <c r="T39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="16" t="s">
-        <v>58</v>
+      <c r="U39" s="16" t="n">
+        <v>13617</v>
       </c>
       <c r="V39" s="16" t="n">
-        <v>13617</v>
+        <v>16798</v>
       </c>
       <c r="W39" s="16" t="n">
-        <v>16798</v>
+        <v>18409</v>
       </c>
       <c r="X39" s="16" t="n">
-        <v>18409</v>
+        <v>19437</v>
       </c>
       <c r="Y39" s="16" t="n">
-        <v>19437</v>
+        <v>16405</v>
       </c>
       <c r="Z39" s="16" t="n">
-        <v>16405</v>
+        <v>18030</v>
       </c>
       <c r="AA39" s="16" t="n">
-        <v>18030</v>
+        <v>23442</v>
       </c>
       <c r="AB39" s="16" t="n">
-        <v>23442</v>
+        <v>19989</v>
       </c>
       <c r="AC39" s="16" t="n">
-        <v>19989</v>
+        <v>26480</v>
       </c>
       <c r="AD39" s="16" t="n">
-        <v>26480</v>
+        <v>11565</v>
       </c>
       <c r="AE39" s="16" t="n">
-        <v>11565</v>
+        <v>21495</v>
       </c>
       <c r="AF39" s="16" t="n">
-        <v>21495</v>
+        <v>17629</v>
       </c>
       <c r="AG39" s="16" t="n">
-        <v>17629</v>
+        <v>18553</v>
       </c>
       <c r="AH39" s="16" t="n">
-        <v>18553</v>
+        <v>19804</v>
       </c>
       <c r="AI39" s="16" t="n">
-        <v>19804</v>
+        <v>20352</v>
       </c>
       <c r="AJ39" s="16" t="n">
-        <v>20352</v>
+        <v>16571</v>
       </c>
       <c r="AK39" s="16" t="n">
-        <v>16571</v>
+        <v>19913</v>
       </c>
       <c r="AL39" s="16" t="n">
-        <v>19913</v>
-      </c>
-      <c r="AM39" s="16" t="n">
         <v>20351</v>
+      </c>
+      <c r="AM39" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN39" s="16" t="s">
         <v>58</v>
@@ -7362,80 +7362,80 @@
       <c r="AC40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD40" s="13" t="s">
-        <v>58</v>
+      <c r="AD40" s="13" t="n">
+        <v>3267</v>
       </c>
       <c r="AE40" s="13" t="n">
-        <v>3267</v>
+        <v>5331</v>
       </c>
       <c r="AF40" s="13" t="n">
-        <v>5331</v>
+        <v>5166</v>
       </c>
       <c r="AG40" s="13" t="n">
-        <v>5166</v>
+        <v>2853</v>
       </c>
       <c r="AH40" s="13" t="n">
-        <v>2853</v>
+        <v>5236</v>
       </c>
       <c r="AI40" s="13" t="n">
-        <v>5236</v>
+        <v>3199</v>
       </c>
       <c r="AJ40" s="13" t="n">
-        <v>3199</v>
+        <v>2414</v>
       </c>
       <c r="AK40" s="13" t="n">
-        <v>2414</v>
+        <v>97</v>
       </c>
       <c r="AL40" s="13" t="n">
-        <v>97</v>
+        <v>2249</v>
       </c>
       <c r="AM40" s="13" t="n">
-        <v>2249</v>
+        <v>1802</v>
       </c>
       <c r="AN40" s="13" t="n">
-        <v>1802</v>
+        <v>4211</v>
       </c>
       <c r="AO40" s="13" t="n">
-        <v>4211</v>
+        <v>2696</v>
       </c>
       <c r="AP40" s="13" t="n">
-        <v>2696</v>
+        <v>2863</v>
       </c>
       <c r="AQ40" s="13" t="n">
-        <v>2863</v>
+        <v>5403</v>
       </c>
       <c r="AR40" s="13" t="n">
-        <v>5403</v>
+        <v>4071</v>
       </c>
       <c r="AS40" s="13" t="n">
-        <v>4071</v>
+        <v>1363</v>
       </c>
       <c r="AT40" s="13" t="n">
-        <v>1363</v>
+        <v>4248</v>
       </c>
       <c r="AU40" s="13" t="n">
-        <v>4248</v>
+        <v>4159</v>
       </c>
       <c r="AV40" s="13" t="n">
-        <v>4159</v>
+        <v>1681</v>
       </c>
       <c r="AW40" s="13" t="n">
-        <v>1681</v>
+        <v>4564</v>
       </c>
       <c r="AX40" s="13" t="n">
-        <v>4564</v>
+        <v>3260</v>
       </c>
       <c r="AY40" s="13" t="n">
-        <v>3260</v>
+        <v>912</v>
       </c>
       <c r="AZ40" s="13" t="n">
-        <v>912</v>
+        <v>974</v>
       </c>
       <c r="BA40" s="13" t="n">
-        <v>974</v>
+        <v>5121</v>
       </c>
       <c r="BB40" s="13" t="n">
-        <v>5121</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7493,106 +7493,106 @@
         <v>0</v>
       </c>
       <c r="U41" s="18" t="n">
-        <v>0</v>
+        <v>30043</v>
       </c>
       <c r="V41" s="18" t="n">
-        <v>30043</v>
+        <v>33948</v>
       </c>
       <c r="W41" s="18" t="n">
-        <v>33948</v>
+        <v>35717</v>
       </c>
       <c r="X41" s="18" t="n">
-        <v>35717</v>
+        <v>33298</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>33298</v>
+        <v>28257</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>28257</v>
+        <v>31857</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>31857</v>
+        <v>33482</v>
       </c>
       <c r="AB41" s="18" t="n">
-        <v>33482</v>
+        <v>33094</v>
       </c>
       <c r="AC41" s="18" t="n">
-        <v>33094</v>
+        <v>40788</v>
       </c>
       <c r="AD41" s="18" t="n">
-        <v>40788</v>
+        <v>21873</v>
       </c>
       <c r="AE41" s="18" t="n">
-        <v>21873</v>
+        <v>33819</v>
       </c>
       <c r="AF41" s="18" t="n">
-        <v>33819</v>
+        <v>31004</v>
       </c>
       <c r="AG41" s="18" t="n">
-        <v>31004</v>
+        <v>29106</v>
       </c>
       <c r="AH41" s="18" t="n">
-        <v>29106</v>
+        <v>33399</v>
       </c>
       <c r="AI41" s="18" t="n">
-        <v>33399</v>
+        <v>32768</v>
       </c>
       <c r="AJ41" s="18" t="n">
-        <v>32768</v>
+        <v>27606</v>
       </c>
       <c r="AK41" s="18" t="n">
-        <v>27606</v>
+        <v>27253</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>27253</v>
+        <v>30655</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>30655</v>
+        <v>28230</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>28230</v>
+        <v>30544</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>30544</v>
+        <v>26215</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>26215</v>
+        <v>29388</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>29388</v>
+        <v>32712</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>32712</v>
+        <v>28365</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>28365</v>
+        <v>24887</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>24887</v>
+        <v>36836</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>36836</v>
+        <v>35017</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>35017</v>
+        <v>26492</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>26492</v>
+        <v>38742</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>38742</v>
+        <v>40169</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>40169</v>
+        <v>29349</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>29349</v>
+        <v>32278</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>32278</v>
+        <v>45058</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>45058</v>
+        <v>30131</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7762,53 +7762,53 @@
       <c r="AL43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM43" s="13" t="s">
-        <v>58</v>
+      <c r="AM43" s="13" t="n">
+        <v>57571</v>
       </c>
       <c r="AN43" s="13" t="n">
-        <v>57571</v>
+        <v>80721</v>
       </c>
       <c r="AO43" s="13" t="n">
-        <v>80721</v>
+        <v>19874</v>
       </c>
       <c r="AP43" s="13" t="n">
-        <v>19874</v>
+        <v>59653</v>
       </c>
       <c r="AQ43" s="13" t="n">
-        <v>59653</v>
+        <v>18014</v>
       </c>
       <c r="AR43" s="13" t="n">
-        <v>18014</v>
+        <v>63889</v>
       </c>
       <c r="AS43" s="13" t="n">
-        <v>63889</v>
+        <v>45763</v>
       </c>
       <c r="AT43" s="13" t="n">
-        <v>45763</v>
+        <v>130110</v>
       </c>
       <c r="AU43" s="13" t="n">
-        <v>130110</v>
+        <v>54084</v>
       </c>
       <c r="AV43" s="13" t="n">
-        <v>54084</v>
+        <v>17952</v>
       </c>
       <c r="AW43" s="13" t="n">
-        <v>17952</v>
+        <v>32238</v>
       </c>
       <c r="AX43" s="13" t="n">
-        <v>32238</v>
+        <v>21101</v>
       </c>
       <c r="AY43" s="13" t="n">
-        <v>21101</v>
+        <v>38787</v>
       </c>
       <c r="AZ43" s="13" t="n">
-        <v>38787</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="13" t="n">
-        <v>0</v>
+        <v>76944</v>
       </c>
       <c r="BB43" s="13" t="n">
-        <v>76944</v>
+        <v>67887</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7921,53 +7921,53 @@
       <c r="AL44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM44" s="16" t="s">
-        <v>58</v>
+      <c r="AM44" s="16" t="n">
+        <v>1122</v>
       </c>
       <c r="AN44" s="16" t="n">
-        <v>1122</v>
+        <v>10116</v>
       </c>
       <c r="AO44" s="16" t="n">
-        <v>10116</v>
+        <v>43</v>
       </c>
       <c r="AP44" s="16" t="n">
-        <v>43</v>
+        <v>6373</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>6373</v>
+        <v>1668</v>
       </c>
       <c r="AR44" s="16" t="n">
-        <v>1668</v>
+        <v>115</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>115</v>
+        <v>496</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>496</v>
+        <v>279</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>279</v>
+        <v>454</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>454</v>
+        <v>39</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="AY44" s="16" t="n">
-        <v>19</v>
+        <v>5243</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>5243</v>
+        <v>5222</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>5222</v>
+        <v>5397</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>5397</v>
+        <v>5921</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8026,62 +8026,62 @@
       <c r="T45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="13" t="s">
-        <v>58</v>
+      <c r="U45" s="13" t="n">
+        <v>82786</v>
       </c>
       <c r="V45" s="13" t="n">
-        <v>82786</v>
+        <v>62879</v>
       </c>
       <c r="W45" s="13" t="n">
-        <v>62879</v>
+        <v>53921</v>
       </c>
       <c r="X45" s="13" t="n">
-        <v>53921</v>
+        <v>58700</v>
       </c>
       <c r="Y45" s="13" t="n">
-        <v>58700</v>
+        <v>62799</v>
       </c>
       <c r="Z45" s="13" t="n">
-        <v>62799</v>
+        <v>50992</v>
       </c>
       <c r="AA45" s="13" t="n">
-        <v>50992</v>
+        <v>28284</v>
       </c>
       <c r="AB45" s="13" t="n">
-        <v>28284</v>
+        <v>70625</v>
       </c>
       <c r="AC45" s="13" t="n">
-        <v>70625</v>
+        <v>43939</v>
       </c>
       <c r="AD45" s="13" t="n">
-        <v>43939</v>
+        <v>38605</v>
       </c>
       <c r="AE45" s="13" t="n">
-        <v>38605</v>
+        <v>18047</v>
       </c>
       <c r="AF45" s="13" t="n">
-        <v>18047</v>
+        <v>57043</v>
       </c>
       <c r="AG45" s="13" t="n">
-        <v>57043</v>
+        <v>46033</v>
       </c>
       <c r="AH45" s="13" t="n">
-        <v>46033</v>
+        <v>75127</v>
       </c>
       <c r="AI45" s="13" t="n">
-        <v>75127</v>
+        <v>42883</v>
       </c>
       <c r="AJ45" s="13" t="n">
-        <v>42883</v>
+        <v>30033</v>
       </c>
       <c r="AK45" s="13" t="n">
-        <v>30033</v>
+        <v>72010</v>
       </c>
       <c r="AL45" s="13" t="n">
-        <v>72010</v>
-      </c>
-      <c r="AM45" s="13" t="n">
         <v>69825</v>
+      </c>
+      <c r="AM45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN45" s="13" t="s">
         <v>58</v>
@@ -8185,62 +8185,62 @@
       <c r="T46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U46" s="16" t="s">
-        <v>58</v>
+      <c r="U46" s="16" t="n">
+        <v>6835</v>
       </c>
       <c r="V46" s="16" t="n">
-        <v>6835</v>
+        <v>2499</v>
       </c>
       <c r="W46" s="16" t="n">
-        <v>2499</v>
+        <v>3009</v>
       </c>
       <c r="X46" s="16" t="n">
-        <v>3009</v>
+        <v>8023</v>
       </c>
       <c r="Y46" s="16" t="n">
-        <v>8023</v>
+        <v>8019</v>
       </c>
       <c r="Z46" s="16" t="n">
-        <v>8019</v>
+        <v>3344</v>
       </c>
       <c r="AA46" s="16" t="n">
-        <v>3344</v>
+        <v>6152</v>
       </c>
       <c r="AB46" s="16" t="n">
-        <v>6152</v>
+        <v>6212</v>
       </c>
       <c r="AC46" s="16" t="n">
-        <v>6212</v>
+        <v>9646</v>
       </c>
       <c r="AD46" s="16" t="n">
-        <v>9646</v>
+        <v>461</v>
       </c>
       <c r="AE46" s="16" t="n">
-        <v>461</v>
+        <v>10133</v>
       </c>
       <c r="AF46" s="16" t="n">
-        <v>10133</v>
+        <v>6570</v>
       </c>
       <c r="AG46" s="16" t="n">
-        <v>6570</v>
+        <v>5388</v>
       </c>
       <c r="AH46" s="16" t="n">
-        <v>5388</v>
+        <v>208</v>
       </c>
       <c r="AI46" s="16" t="n">
-        <v>208</v>
+        <v>8119</v>
       </c>
       <c r="AJ46" s="16" t="n">
-        <v>8119</v>
+        <v>5677</v>
       </c>
       <c r="AK46" s="16" t="n">
-        <v>5677</v>
+        <v>5499</v>
       </c>
       <c r="AL46" s="16" t="n">
-        <v>5499</v>
-      </c>
-      <c r="AM46" s="16" t="n">
         <v>3565</v>
+      </c>
+      <c r="AM46" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN46" s="16" t="s">
         <v>58</v>
@@ -8343,106 +8343,106 @@
         <v>0</v>
       </c>
       <c r="U47" s="20" t="n">
-        <v>0</v>
+        <v>89621</v>
       </c>
       <c r="V47" s="20" t="n">
-        <v>89621</v>
+        <v>65378</v>
       </c>
       <c r="W47" s="20" t="n">
-        <v>65378</v>
+        <v>56930</v>
       </c>
       <c r="X47" s="20" t="n">
-        <v>56930</v>
+        <v>66723</v>
       </c>
       <c r="Y47" s="20" t="n">
-        <v>66723</v>
+        <v>70818</v>
       </c>
       <c r="Z47" s="20" t="n">
-        <v>70818</v>
+        <v>54336</v>
       </c>
       <c r="AA47" s="20" t="n">
-        <v>54336</v>
+        <v>34436</v>
       </c>
       <c r="AB47" s="20" t="n">
-        <v>34436</v>
+        <v>76837</v>
       </c>
       <c r="AC47" s="20" t="n">
-        <v>76837</v>
+        <v>53585</v>
       </c>
       <c r="AD47" s="20" t="n">
-        <v>53585</v>
+        <v>39066</v>
       </c>
       <c r="AE47" s="20" t="n">
-        <v>39066</v>
+        <v>28180</v>
       </c>
       <c r="AF47" s="20" t="n">
-        <v>28180</v>
+        <v>63613</v>
       </c>
       <c r="AG47" s="20" t="n">
-        <v>63613</v>
+        <v>51421</v>
       </c>
       <c r="AH47" s="20" t="n">
-        <v>51421</v>
+        <v>75335</v>
       </c>
       <c r="AI47" s="20" t="n">
-        <v>75335</v>
+        <v>51002</v>
       </c>
       <c r="AJ47" s="20" t="n">
-        <v>51002</v>
+        <v>35710</v>
       </c>
       <c r="AK47" s="20" t="n">
-        <v>35710</v>
+        <v>77509</v>
       </c>
       <c r="AL47" s="20" t="n">
-        <v>77509</v>
+        <v>73390</v>
       </c>
       <c r="AM47" s="20" t="n">
-        <v>73390</v>
+        <v>58693</v>
       </c>
       <c r="AN47" s="20" t="n">
-        <v>58693</v>
+        <v>90837</v>
       </c>
       <c r="AO47" s="20" t="n">
-        <v>90837</v>
+        <v>19917</v>
       </c>
       <c r="AP47" s="20" t="n">
-        <v>19917</v>
+        <v>66026</v>
       </c>
       <c r="AQ47" s="20" t="n">
-        <v>66026</v>
+        <v>19682</v>
       </c>
       <c r="AR47" s="20" t="n">
-        <v>19682</v>
+        <v>64004</v>
       </c>
       <c r="AS47" s="20" t="n">
-        <v>64004</v>
+        <v>46259</v>
       </c>
       <c r="AT47" s="20" t="n">
-        <v>46259</v>
+        <v>130389</v>
       </c>
       <c r="AU47" s="20" t="n">
-        <v>130389</v>
+        <v>54538</v>
       </c>
       <c r="AV47" s="20" t="n">
-        <v>54538</v>
+        <v>17991</v>
       </c>
       <c r="AW47" s="20" t="n">
-        <v>17991</v>
+        <v>32351</v>
       </c>
       <c r="AX47" s="20" t="n">
-        <v>32351</v>
+        <v>21120</v>
       </c>
       <c r="AY47" s="20" t="n">
-        <v>21120</v>
+        <v>44030</v>
       </c>
       <c r="AZ47" s="20" t="n">
-        <v>44030</v>
+        <v>5222</v>
       </c>
       <c r="BA47" s="20" t="n">
-        <v>5222</v>
+        <v>82341</v>
       </c>
       <c r="BB47" s="20" t="n">
-        <v>82341</v>
+        <v>73808</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8556,8 +8556,8 @@
       <c r="T49" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="20" t="s">
-        <v>58</v>
+      <c r="U49" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V49" s="20" t="n">
         <v>0</v>
@@ -8770,8 +8770,8 @@
       <c r="T51" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="20" t="s">
-        <v>58</v>
+      <c r="U51" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V51" s="20" t="n">
         <v>0</v>
@@ -8928,106 +8928,106 @@
         <v>0</v>
       </c>
       <c r="U52" s="18" t="n">
-        <v>0</v>
+        <v>119664</v>
       </c>
       <c r="V52" s="18" t="n">
-        <v>119664</v>
+        <v>99326</v>
       </c>
       <c r="W52" s="18" t="n">
-        <v>99326</v>
+        <v>92647</v>
       </c>
       <c r="X52" s="18" t="n">
-        <v>92647</v>
+        <v>100021</v>
       </c>
       <c r="Y52" s="18" t="n">
-        <v>100021</v>
+        <v>99075</v>
       </c>
       <c r="Z52" s="18" t="n">
-        <v>99075</v>
+        <v>86193</v>
       </c>
       <c r="AA52" s="18" t="n">
-        <v>86193</v>
+        <v>67918</v>
       </c>
       <c r="AB52" s="18" t="n">
-        <v>67918</v>
+        <v>109931</v>
       </c>
       <c r="AC52" s="18" t="n">
-        <v>109931</v>
+        <v>94373</v>
       </c>
       <c r="AD52" s="18" t="n">
-        <v>94373</v>
+        <v>60939</v>
       </c>
       <c r="AE52" s="18" t="n">
-        <v>60939</v>
+        <v>61999</v>
       </c>
       <c r="AF52" s="18" t="n">
-        <v>61999</v>
+        <v>94617</v>
       </c>
       <c r="AG52" s="18" t="n">
-        <v>94617</v>
+        <v>80527</v>
       </c>
       <c r="AH52" s="18" t="n">
-        <v>80527</v>
+        <v>108734</v>
       </c>
       <c r="AI52" s="18" t="n">
-        <v>108734</v>
+        <v>83770</v>
       </c>
       <c r="AJ52" s="18" t="n">
-        <v>83770</v>
+        <v>63316</v>
       </c>
       <c r="AK52" s="18" t="n">
-        <v>63316</v>
+        <v>104762</v>
       </c>
       <c r="AL52" s="18" t="n">
-        <v>104762</v>
+        <v>104045</v>
       </c>
       <c r="AM52" s="18" t="n">
-        <v>104045</v>
+        <v>86923</v>
       </c>
       <c r="AN52" s="18" t="n">
-        <v>86923</v>
+        <v>121381</v>
       </c>
       <c r="AO52" s="18" t="n">
-        <v>121381</v>
+        <v>46132</v>
       </c>
       <c r="AP52" s="18" t="n">
-        <v>46132</v>
+        <v>95414</v>
       </c>
       <c r="AQ52" s="18" t="n">
-        <v>95414</v>
+        <v>52394</v>
       </c>
       <c r="AR52" s="18" t="n">
-        <v>52394</v>
+        <v>92369</v>
       </c>
       <c r="AS52" s="18" t="n">
-        <v>92369</v>
+        <v>71146</v>
       </c>
       <c r="AT52" s="18" t="n">
-        <v>71146</v>
+        <v>167225</v>
       </c>
       <c r="AU52" s="18" t="n">
-        <v>167225</v>
+        <v>89555</v>
       </c>
       <c r="AV52" s="18" t="n">
-        <v>89555</v>
+        <v>44483</v>
       </c>
       <c r="AW52" s="18" t="n">
-        <v>44483</v>
+        <v>71093</v>
       </c>
       <c r="AX52" s="18" t="n">
-        <v>71093</v>
+        <v>61289</v>
       </c>
       <c r="AY52" s="18" t="n">
-        <v>61289</v>
+        <v>73379</v>
       </c>
       <c r="AZ52" s="18" t="n">
-        <v>73379</v>
+        <v>37500</v>
       </c>
       <c r="BA52" s="18" t="n">
-        <v>37500</v>
+        <v>127399</v>
       </c>
       <c r="BB52" s="18" t="n">
-        <v>127399</v>
+        <v>103939</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9520,35 +9520,35 @@
       <c r="T59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="13" t="s">
-        <v>58</v>
+      <c r="U59" s="13" t="n">
+        <v>38445</v>
       </c>
       <c r="V59" s="13" t="n">
-        <v>38445</v>
+        <v>35402</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>35402</v>
+        <v>33346</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>33346</v>
+        <v>26747</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>26747</v>
+        <v>19738</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>19738</v>
+        <v>38442</v>
       </c>
       <c r="AA59" s="13" t="n">
-        <v>38442</v>
+        <v>17918</v>
       </c>
       <c r="AB59" s="13" t="n">
-        <v>17918</v>
+        <v>35604</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>35604</v>
-      </c>
-      <c r="AD59" s="13" t="n">
         <v>36166</v>
+      </c>
+      <c r="AD59" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE59" s="13" t="s">
         <v>58</v>
@@ -9679,107 +9679,107 @@
       <c r="T60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="16" t="s">
-        <v>58</v>
+      <c r="U60" s="16" t="n">
+        <v>31144</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>31144</v>
+        <v>31791</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>31791</v>
+        <v>33017</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>33017</v>
+        <v>33556</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>33556</v>
+        <v>36072</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>36072</v>
+        <v>33075</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>33075</v>
+        <v>40852</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>40852</v>
+        <v>40349</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>40349</v>
+        <v>39120</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>39120</v>
+        <v>43324</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>43324</v>
+        <v>22126</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>22126</v>
+        <v>35355</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>35355</v>
+        <v>36722</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>36722</v>
+        <v>32648</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>32648</v>
+        <v>48830</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>48830</v>
+        <v>45058</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>45058</v>
+        <v>32736</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>32736</v>
+        <v>36630</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>36630</v>
+        <v>473151</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>473151</v>
+        <v>67673</v>
       </c>
       <c r="AO60" s="16" t="n">
-        <v>67673</v>
+        <v>62001</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>62001</v>
+        <v>58930</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>58930</v>
+        <v>82957</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>82957</v>
+        <v>5206</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>5206</v>
+        <v>373298</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>373298</v>
+        <v>103034</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>103034</v>
+        <v>100397</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>100397</v>
+        <v>117716</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>117716</v>
+        <v>139518</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>139518</v>
+        <v>118683</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>118683</v>
+        <v>133715</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>133715</v>
+        <v>239843</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>239843</v>
+        <v>138315</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>138315</v>
+        <v>136644</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9892,53 +9892,53 @@
       <c r="AL61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM61" s="13" t="s">
-        <v>58</v>
+      <c r="AM61" s="13" t="n">
+        <v>1420312</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>1420312</v>
+        <v>1347175</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>1347175</v>
+        <v>1441702</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>1441702</v>
+        <v>1532663</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>1532663</v>
+        <v>1573948</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>1573948</v>
+        <v>1281746</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>1281746</v>
+        <v>1167238</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>1167238</v>
+        <v>1502170</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>1502170</v>
+        <v>1427104</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>1427104</v>
+        <v>1055075</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>1055075</v>
+        <v>1583239</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>1583239</v>
+        <v>1900478</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>1900478</v>
+        <v>1497496</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>1497496</v>
+        <v>1718401</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>1718401</v>
+        <v>2219264</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>2231408</v>
+        <v>1235394</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10051,53 +10051,53 @@
       <c r="AL62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM62" s="16" t="s">
-        <v>58</v>
+      <c r="AM62" s="16" t="n">
+        <v>1769991</v>
       </c>
       <c r="AN62" s="16" t="n">
-        <v>1769991</v>
+        <v>1833585</v>
       </c>
       <c r="AO62" s="16" t="n">
-        <v>1833585</v>
+        <v>976472</v>
       </c>
       <c r="AP62" s="16" t="n">
-        <v>976472</v>
+        <v>1234312</v>
       </c>
       <c r="AQ62" s="16" t="n">
-        <v>1234312</v>
+        <v>1108399</v>
       </c>
       <c r="AR62" s="16" t="n">
-        <v>1108399</v>
+        <v>1149219</v>
       </c>
       <c r="AS62" s="16" t="n">
-        <v>1149219</v>
+        <v>999647</v>
       </c>
       <c r="AT62" s="16" t="n">
-        <v>999647</v>
+        <v>1482239</v>
       </c>
       <c r="AU62" s="16" t="n">
-        <v>1482239</v>
+        <v>1153211</v>
       </c>
       <c r="AV62" s="16" t="n">
-        <v>1153211</v>
+        <v>1015054</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>1015054</v>
+        <v>1217465</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>1217465</v>
+        <v>1086235</v>
       </c>
       <c r="AY62" s="16" t="n">
-        <v>1086235</v>
+        <v>988978</v>
       </c>
       <c r="AZ62" s="16" t="n">
-        <v>988978</v>
+        <v>998330</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>998330</v>
+        <v>1172549</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>1163149</v>
+        <v>946680</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10156,62 +10156,62 @@
       <c r="T63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="13" t="s">
-        <v>58</v>
+      <c r="U63" s="13" t="n">
+        <v>435689</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>435689</v>
+        <v>553109</v>
       </c>
       <c r="W63" s="13" t="n">
-        <v>553109</v>
+        <v>603606</v>
       </c>
       <c r="X63" s="13" t="n">
-        <v>603606</v>
+        <v>569205</v>
       </c>
       <c r="Y63" s="13" t="n">
-        <v>569205</v>
+        <v>571932</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>571932</v>
+        <v>647533</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>647533</v>
+        <v>849798</v>
       </c>
       <c r="AB63" s="13" t="n">
-        <v>849798</v>
+        <v>918286</v>
       </c>
       <c r="AC63" s="13" t="n">
-        <v>918286</v>
+        <v>1445115</v>
       </c>
       <c r="AD63" s="13" t="n">
-        <v>1445115</v>
+        <v>1130561</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>1130561</v>
+        <v>1343226</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>1343226</v>
+        <v>1523780</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>1523780</v>
+        <v>1373354</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>1373354</v>
+        <v>1444826</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>1444826</v>
+        <v>1465388</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>1465388</v>
+        <v>1423552</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>1423552</v>
+        <v>1639686</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>1639686</v>
-      </c>
-      <c r="AM63" s="13" t="n">
         <v>1658718</v>
+      </c>
+      <c r="AM63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN63" s="13" t="s">
         <v>58</v>
@@ -10315,62 +10315,62 @@
       <c r="T64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U64" s="16" t="s">
-        <v>58</v>
+      <c r="U64" s="16" t="n">
+        <v>278211</v>
       </c>
       <c r="V64" s="16" t="n">
-        <v>278211</v>
+        <v>441538</v>
       </c>
       <c r="W64" s="16" t="n">
-        <v>441538</v>
+        <v>604775</v>
       </c>
       <c r="X64" s="16" t="n">
-        <v>604775</v>
+        <v>789968</v>
       </c>
       <c r="Y64" s="16" t="n">
-        <v>789968</v>
+        <v>864147</v>
       </c>
       <c r="Z64" s="16" t="n">
-        <v>864147</v>
+        <v>1237129</v>
       </c>
       <c r="AA64" s="16" t="n">
-        <v>1237129</v>
+        <v>1824325</v>
       </c>
       <c r="AB64" s="16" t="n">
-        <v>1824325</v>
+        <v>1535872</v>
       </c>
       <c r="AC64" s="16" t="n">
-        <v>1535872</v>
+        <v>1912111</v>
       </c>
       <c r="AD64" s="16" t="n">
-        <v>1912111</v>
+        <v>778629</v>
       </c>
       <c r="AE64" s="16" t="n">
-        <v>778629</v>
+        <v>1450130</v>
       </c>
       <c r="AF64" s="16" t="n">
-        <v>1450130</v>
+        <v>1117612</v>
       </c>
       <c r="AG64" s="16" t="n">
-        <v>1117612</v>
+        <v>1158599</v>
       </c>
       <c r="AH64" s="16" t="n">
-        <v>1158599</v>
+        <v>1413869</v>
       </c>
       <c r="AI64" s="16" t="n">
-        <v>1413869</v>
+        <v>1545620</v>
       </c>
       <c r="AJ64" s="16" t="n">
-        <v>1545620</v>
+        <v>1494975</v>
       </c>
       <c r="AK64" s="16" t="n">
-        <v>1494975</v>
+        <v>1805768</v>
       </c>
       <c r="AL64" s="16" t="n">
-        <v>1805768</v>
-      </c>
-      <c r="AM64" s="16" t="n">
         <v>1732450</v>
+      </c>
+      <c r="AM64" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN64" s="16" t="s">
         <v>58</v>
@@ -10501,80 +10501,80 @@
       <c r="AC65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD65" s="13" t="s">
-        <v>58</v>
+      <c r="AD65" s="13" t="n">
+        <v>27908</v>
       </c>
       <c r="AE65" s="13" t="n">
-        <v>27908</v>
+        <v>30195</v>
       </c>
       <c r="AF65" s="13" t="n">
-        <v>30195</v>
+        <v>33675</v>
       </c>
       <c r="AG65" s="13" t="n">
-        <v>33675</v>
+        <v>20111</v>
       </c>
       <c r="AH65" s="13" t="n">
-        <v>20111</v>
+        <v>33468</v>
       </c>
       <c r="AI65" s="13" t="n">
-        <v>33468</v>
+        <v>25039</v>
       </c>
       <c r="AJ65" s="13" t="n">
-        <v>25039</v>
+        <v>19829</v>
       </c>
       <c r="AK65" s="13" t="n">
-        <v>19829</v>
+        <v>13095</v>
       </c>
       <c r="AL65" s="13" t="n">
-        <v>13095</v>
+        <v>26090</v>
       </c>
       <c r="AM65" s="13" t="n">
-        <v>26090</v>
+        <v>20377</v>
       </c>
       <c r="AN65" s="13" t="n">
-        <v>20377</v>
+        <v>54634</v>
       </c>
       <c r="AO65" s="13" t="n">
-        <v>54634</v>
+        <v>38712</v>
       </c>
       <c r="AP65" s="13" t="n">
-        <v>38712</v>
+        <v>37441</v>
       </c>
       <c r="AQ65" s="13" t="n">
-        <v>37441</v>
+        <v>33987</v>
       </c>
       <c r="AR65" s="13" t="n">
-        <v>33987</v>
+        <v>14455</v>
       </c>
       <c r="AS65" s="13" t="n">
-        <v>14455</v>
+        <v>29938</v>
       </c>
       <c r="AT65" s="13" t="n">
-        <v>29938</v>
+        <v>26810</v>
       </c>
       <c r="AU65" s="13" t="n">
-        <v>26810</v>
+        <v>22228</v>
       </c>
       <c r="AV65" s="13" t="n">
-        <v>22228</v>
+        <v>13018</v>
       </c>
       <c r="AW65" s="13" t="n">
-        <v>13018</v>
+        <v>52215</v>
       </c>
       <c r="AX65" s="13" t="n">
-        <v>52215</v>
+        <v>22570</v>
       </c>
       <c r="AY65" s="13" t="n">
-        <v>22570</v>
+        <v>15380</v>
       </c>
       <c r="AZ65" s="13" t="n">
-        <v>15380</v>
+        <v>18052</v>
       </c>
       <c r="BA65" s="13" t="n">
-        <v>18052</v>
+        <v>26652</v>
       </c>
       <c r="BB65" s="13" t="n">
-        <v>26652</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10632,106 +10632,106 @@
         <v>0</v>
       </c>
       <c r="U66" s="18" t="n">
-        <v>0</v>
+        <v>783489</v>
       </c>
       <c r="V66" s="18" t="n">
-        <v>783489</v>
+        <v>1061840</v>
       </c>
       <c r="W66" s="18" t="n">
-        <v>1061840</v>
+        <v>1274744</v>
       </c>
       <c r="X66" s="18" t="n">
-        <v>1274744</v>
+        <v>1419476</v>
       </c>
       <c r="Y66" s="18" t="n">
-        <v>1419476</v>
+        <v>1491889</v>
       </c>
       <c r="Z66" s="18" t="n">
-        <v>1491889</v>
+        <v>1956179</v>
       </c>
       <c r="AA66" s="18" t="n">
-        <v>1956179</v>
+        <v>2732893</v>
       </c>
       <c r="AB66" s="18" t="n">
-        <v>2732893</v>
+        <v>2530111</v>
       </c>
       <c r="AC66" s="18" t="n">
-        <v>2530111</v>
+        <v>3432512</v>
       </c>
       <c r="AD66" s="18" t="n">
-        <v>3432512</v>
+        <v>1980422</v>
       </c>
       <c r="AE66" s="18" t="n">
-        <v>1980422</v>
+        <v>2845677</v>
       </c>
       <c r="AF66" s="18" t="n">
-        <v>2845677</v>
+        <v>2710422</v>
       </c>
       <c r="AG66" s="18" t="n">
-        <v>2710422</v>
+        <v>2588786</v>
       </c>
       <c r="AH66" s="18" t="n">
-        <v>2588786</v>
+        <v>2924811</v>
       </c>
       <c r="AI66" s="18" t="n">
-        <v>2924811</v>
+        <v>3084877</v>
       </c>
       <c r="AJ66" s="18" t="n">
-        <v>3084877</v>
+        <v>2983414</v>
       </c>
       <c r="AK66" s="18" t="n">
-        <v>2983414</v>
+        <v>3491285</v>
       </c>
       <c r="AL66" s="18" t="n">
-        <v>3491285</v>
+        <v>3453888</v>
       </c>
       <c r="AM66" s="18" t="n">
-        <v>3453888</v>
+        <v>3683831</v>
       </c>
       <c r="AN66" s="18" t="n">
-        <v>3683831</v>
+        <v>3303067</v>
       </c>
       <c r="AO66" s="18" t="n">
-        <v>3303067</v>
+        <v>2518887</v>
       </c>
       <c r="AP66" s="18" t="n">
-        <v>2518887</v>
+        <v>2863346</v>
       </c>
       <c r="AQ66" s="18" t="n">
-        <v>2863346</v>
+        <v>2799291</v>
       </c>
       <c r="AR66" s="18" t="n">
-        <v>2799291</v>
+        <v>2450626</v>
       </c>
       <c r="AS66" s="18" t="n">
-        <v>2450626</v>
+        <v>2570121</v>
       </c>
       <c r="AT66" s="18" t="n">
-        <v>2570121</v>
+        <v>3114253</v>
       </c>
       <c r="AU66" s="18" t="n">
-        <v>3114253</v>
+        <v>2702940</v>
       </c>
       <c r="AV66" s="18" t="n">
-        <v>2702940</v>
+        <v>2200863</v>
       </c>
       <c r="AW66" s="18" t="n">
-        <v>2200863</v>
+        <v>2992437</v>
       </c>
       <c r="AX66" s="18" t="n">
-        <v>2992437</v>
+        <v>3127966</v>
       </c>
       <c r="AY66" s="18" t="n">
-        <v>3127966</v>
+        <v>2635569</v>
       </c>
       <c r="AZ66" s="18" t="n">
-        <v>2635569</v>
+        <v>2974626</v>
       </c>
       <c r="BA66" s="18" t="n">
-        <v>2974626</v>
+        <v>3556780</v>
       </c>
       <c r="BB66" s="18" t="n">
-        <v>3559524</v>
+        <v>2343468</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10901,53 +10901,53 @@
       <c r="AL68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM68" s="13" t="s">
-        <v>58</v>
+      <c r="AM68" s="13" t="n">
+        <v>4509712</v>
       </c>
       <c r="AN68" s="13" t="n">
-        <v>4509712</v>
+        <v>6462713</v>
       </c>
       <c r="AO68" s="13" t="n">
-        <v>6462713</v>
+        <v>1729454</v>
       </c>
       <c r="AP68" s="13" t="n">
-        <v>1729454</v>
+        <v>5069814</v>
       </c>
       <c r="AQ68" s="13" t="n">
-        <v>5069814</v>
+        <v>1552602</v>
       </c>
       <c r="AR68" s="13" t="n">
-        <v>1552602</v>
+        <v>5163430</v>
       </c>
       <c r="AS68" s="13" t="n">
-        <v>5163430</v>
+        <v>2904123</v>
       </c>
       <c r="AT68" s="13" t="n">
-        <v>2904123</v>
+        <v>8384174</v>
       </c>
       <c r="AU68" s="13" t="n">
-        <v>8384174</v>
+        <v>4514798</v>
       </c>
       <c r="AV68" s="13" t="n">
-        <v>4514798</v>
+        <v>1298755</v>
       </c>
       <c r="AW68" s="13" t="n">
-        <v>1298755</v>
+        <v>2726788</v>
       </c>
       <c r="AX68" s="13" t="n">
-        <v>2726788</v>
+        <v>1838425</v>
       </c>
       <c r="AY68" s="13" t="n">
-        <v>1838425</v>
+        <v>3291345</v>
       </c>
       <c r="AZ68" s="13" t="n">
-        <v>3291345</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="13" t="n">
-        <v>0</v>
+        <v>8711452</v>
       </c>
       <c r="BB68" s="13" t="n">
-        <v>8730437</v>
+        <v>7391655</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11060,53 +11060,53 @@
       <c r="AL69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM69" s="16" t="s">
-        <v>58</v>
+      <c r="AM69" s="16" t="n">
+        <v>318393</v>
       </c>
       <c r="AN69" s="16" t="n">
-        <v>318393</v>
+        <v>1652189</v>
       </c>
       <c r="AO69" s="16" t="n">
-        <v>1652189</v>
+        <v>8191</v>
       </c>
       <c r="AP69" s="16" t="n">
-        <v>8191</v>
+        <v>858244</v>
       </c>
       <c r="AQ69" s="16" t="n">
-        <v>858244</v>
+        <v>285174</v>
       </c>
       <c r="AR69" s="16" t="n">
-        <v>285174</v>
+        <v>21764</v>
       </c>
       <c r="AS69" s="16" t="n">
-        <v>21764</v>
+        <v>88640</v>
       </c>
       <c r="AT69" s="16" t="n">
-        <v>88640</v>
+        <v>48701</v>
       </c>
       <c r="AU69" s="16" t="n">
-        <v>48701</v>
+        <v>80298</v>
       </c>
       <c r="AV69" s="16" t="n">
-        <v>80298</v>
+        <v>9349</v>
       </c>
       <c r="AW69" s="16" t="n">
-        <v>9349</v>
+        <v>23809</v>
       </c>
       <c r="AX69" s="16" t="n">
-        <v>23809</v>
+        <v>4900</v>
       </c>
       <c r="AY69" s="16" t="n">
-        <v>4900</v>
+        <v>589880</v>
       </c>
       <c r="AZ69" s="16" t="n">
-        <v>589880</v>
+        <v>626395</v>
       </c>
       <c r="BA69" s="16" t="n">
-        <v>626395</v>
+        <v>821101</v>
       </c>
       <c r="BB69" s="16" t="n">
-        <v>821101</v>
+        <v>828239</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11165,62 +11165,62 @@
       <c r="T70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U70" s="13" t="s">
-        <v>58</v>
+      <c r="U70" s="13" t="n">
+        <v>2200597</v>
       </c>
       <c r="V70" s="13" t="n">
-        <v>2200597</v>
+        <v>1805396</v>
       </c>
       <c r="W70" s="13" t="n">
-        <v>1805396</v>
+        <v>2190348</v>
       </c>
       <c r="X70" s="13" t="n">
-        <v>2190348</v>
+        <v>2898861</v>
       </c>
       <c r="Y70" s="13" t="n">
-        <v>2898861</v>
+        <v>3544445</v>
       </c>
       <c r="Z70" s="13" t="n">
-        <v>3544445</v>
+        <v>3637652</v>
       </c>
       <c r="AA70" s="13" t="n">
-        <v>3637652</v>
+        <v>2407726</v>
       </c>
       <c r="AB70" s="13" t="n">
-        <v>2407726</v>
+        <v>5088953</v>
       </c>
       <c r="AC70" s="13" t="n">
-        <v>5088953</v>
+        <v>3186582</v>
       </c>
       <c r="AD70" s="13" t="n">
-        <v>3186582</v>
+        <v>2727468</v>
       </c>
       <c r="AE70" s="13" t="n">
-        <v>2727468</v>
+        <v>1236943</v>
       </c>
       <c r="AF70" s="13" t="n">
-        <v>1236943</v>
+        <v>3858315</v>
       </c>
       <c r="AG70" s="13" t="n">
-        <v>3858315</v>
+        <v>3116442</v>
       </c>
       <c r="AH70" s="13" t="n">
-        <v>3116442</v>
+        <v>5448160</v>
       </c>
       <c r="AI70" s="13" t="n">
-        <v>5448160</v>
+        <v>3262658</v>
       </c>
       <c r="AJ70" s="13" t="n">
-        <v>3262658</v>
+        <v>3191926</v>
       </c>
       <c r="AK70" s="13" t="n">
-        <v>3191926</v>
+        <v>6465175</v>
       </c>
       <c r="AL70" s="13" t="n">
-        <v>6465175</v>
-      </c>
-      <c r="AM70" s="13" t="n">
         <v>5389795</v>
+      </c>
+      <c r="AM70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN70" s="13" t="s">
         <v>58</v>
@@ -11324,62 +11324,62 @@
       <c r="T71" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="16" t="s">
-        <v>58</v>
+      <c r="U71" s="16" t="n">
+        <v>219072</v>
       </c>
       <c r="V71" s="16" t="n">
-        <v>219072</v>
+        <v>81453</v>
       </c>
       <c r="W71" s="16" t="n">
-        <v>81453</v>
+        <v>119530</v>
       </c>
       <c r="X71" s="16" t="n">
-        <v>119530</v>
+        <v>485619</v>
       </c>
       <c r="Y71" s="16" t="n">
-        <v>485619</v>
+        <v>482148</v>
       </c>
       <c r="Z71" s="16" t="n">
-        <v>482148</v>
+        <v>288304</v>
       </c>
       <c r="AA71" s="16" t="n">
-        <v>288304</v>
+        <v>512378</v>
       </c>
       <c r="AB71" s="16" t="n">
-        <v>512378</v>
+        <v>874025</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>874025</v>
+        <v>1703412</v>
       </c>
       <c r="AD71" s="16" t="n">
-        <v>1703412</v>
+        <v>94440</v>
       </c>
       <c r="AE71" s="16" t="n">
-        <v>94440</v>
+        <v>1755105</v>
       </c>
       <c r="AF71" s="16" t="n">
-        <v>1755105</v>
+        <v>1206345</v>
       </c>
       <c r="AG71" s="16" t="n">
-        <v>1206345</v>
+        <v>943922</v>
       </c>
       <c r="AH71" s="16" t="n">
-        <v>943922</v>
+        <v>43857</v>
       </c>
       <c r="AI71" s="16" t="n">
-        <v>43857</v>
+        <v>1568866</v>
       </c>
       <c r="AJ71" s="16" t="n">
-        <v>1568866</v>
+        <v>1019491</v>
       </c>
       <c r="AK71" s="16" t="n">
-        <v>1019491</v>
+        <v>1509322</v>
       </c>
       <c r="AL71" s="16" t="n">
-        <v>1509322</v>
-      </c>
-      <c r="AM71" s="16" t="n">
         <v>946369</v>
+      </c>
+      <c r="AM71" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN71" s="16" t="s">
         <v>58</v>
@@ -11482,106 +11482,106 @@
         <v>0</v>
       </c>
       <c r="U72" s="20" t="n">
-        <v>0</v>
+        <v>2419669</v>
       </c>
       <c r="V72" s="20" t="n">
-        <v>2419669</v>
+        <v>1886849</v>
       </c>
       <c r="W72" s="20" t="n">
-        <v>1886849</v>
+        <v>2309878</v>
       </c>
       <c r="X72" s="20" t="n">
-        <v>2309878</v>
+        <v>3384480</v>
       </c>
       <c r="Y72" s="20" t="n">
-        <v>3384480</v>
+        <v>4026593</v>
       </c>
       <c r="Z72" s="20" t="n">
-        <v>4026593</v>
+        <v>3925956</v>
       </c>
       <c r="AA72" s="20" t="n">
-        <v>3925956</v>
+        <v>2920104</v>
       </c>
       <c r="AB72" s="20" t="n">
-        <v>2920104</v>
+        <v>5962978</v>
       </c>
       <c r="AC72" s="20" t="n">
-        <v>5962978</v>
+        <v>4889994</v>
       </c>
       <c r="AD72" s="20" t="n">
-        <v>4889994</v>
+        <v>2821908</v>
       </c>
       <c r="AE72" s="20" t="n">
-        <v>2821908</v>
+        <v>2992048</v>
       </c>
       <c r="AF72" s="20" t="n">
-        <v>2992048</v>
+        <v>5064660</v>
       </c>
       <c r="AG72" s="20" t="n">
-        <v>5064660</v>
+        <v>4060364</v>
       </c>
       <c r="AH72" s="20" t="n">
-        <v>4060364</v>
+        <v>5492017</v>
       </c>
       <c r="AI72" s="20" t="n">
-        <v>5492017</v>
+        <v>4831524</v>
       </c>
       <c r="AJ72" s="20" t="n">
-        <v>4831524</v>
+        <v>4211417</v>
       </c>
       <c r="AK72" s="20" t="n">
-        <v>4211417</v>
+        <v>7974497</v>
       </c>
       <c r="AL72" s="20" t="n">
-        <v>7974497</v>
+        <v>6336164</v>
       </c>
       <c r="AM72" s="20" t="n">
-        <v>6336164</v>
+        <v>4828105</v>
       </c>
       <c r="AN72" s="20" t="n">
-        <v>4828105</v>
+        <v>8114902</v>
       </c>
       <c r="AO72" s="20" t="n">
-        <v>8114902</v>
+        <v>1737645</v>
       </c>
       <c r="AP72" s="20" t="n">
-        <v>1737645</v>
+        <v>5928058</v>
       </c>
       <c r="AQ72" s="20" t="n">
-        <v>5928058</v>
+        <v>1837776</v>
       </c>
       <c r="AR72" s="20" t="n">
-        <v>1837776</v>
+        <v>5185194</v>
       </c>
       <c r="AS72" s="20" t="n">
-        <v>5185194</v>
+        <v>2992763</v>
       </c>
       <c r="AT72" s="20" t="n">
-        <v>2992763</v>
+        <v>8432875</v>
       </c>
       <c r="AU72" s="20" t="n">
-        <v>8432875</v>
+        <v>4595096</v>
       </c>
       <c r="AV72" s="20" t="n">
-        <v>4595096</v>
+        <v>1308104</v>
       </c>
       <c r="AW72" s="20" t="n">
-        <v>1308104</v>
+        <v>2750597</v>
       </c>
       <c r="AX72" s="20" t="n">
-        <v>2750597</v>
+        <v>1843325</v>
       </c>
       <c r="AY72" s="20" t="n">
-        <v>1843325</v>
+        <v>3881225</v>
       </c>
       <c r="AZ72" s="20" t="n">
-        <v>3881225</v>
+        <v>626395</v>
       </c>
       <c r="BA72" s="20" t="n">
-        <v>626395</v>
+        <v>9532553</v>
       </c>
       <c r="BB72" s="20" t="n">
-        <v>9551538</v>
+        <v>8219894</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11697,8 +11697,8 @@
       <c r="T74" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U74" s="20" t="s">
-        <v>58</v>
+      <c r="U74" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V74" s="23" t="n">
         <v>0</v>
@@ -11913,8 +11913,8 @@
       <c r="T76" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U76" s="20" t="s">
-        <v>58</v>
+      <c r="U76" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V76" s="23" t="n">
         <v>0</v>
@@ -12129,8 +12129,8 @@
       <c r="T78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U78" s="13" t="s">
-        <v>58</v>
+      <c r="U78" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V78" s="13" t="n">
         <v>0</v>
@@ -12287,106 +12287,106 @@
         <v>0</v>
       </c>
       <c r="U79" s="18" t="n">
-        <v>0</v>
+        <v>3203158</v>
       </c>
       <c r="V79" s="18" t="n">
-        <v>3203158</v>
+        <v>2948689</v>
       </c>
       <c r="W79" s="18" t="n">
-        <v>2948689</v>
+        <v>3584622</v>
       </c>
       <c r="X79" s="18" t="n">
-        <v>3584622</v>
+        <v>4803956</v>
       </c>
       <c r="Y79" s="18" t="n">
-        <v>4803956</v>
+        <v>5518482</v>
       </c>
       <c r="Z79" s="18" t="n">
-        <v>5518482</v>
+        <v>5882135</v>
       </c>
       <c r="AA79" s="18" t="n">
-        <v>5882135</v>
+        <v>5652997</v>
       </c>
       <c r="AB79" s="18" t="n">
-        <v>5652997</v>
+        <v>8493089</v>
       </c>
       <c r="AC79" s="18" t="n">
-        <v>8493089</v>
+        <v>8322506</v>
       </c>
       <c r="AD79" s="18" t="n">
-        <v>8322506</v>
+        <v>4802330</v>
       </c>
       <c r="AE79" s="18" t="n">
-        <v>4802330</v>
+        <v>5837725</v>
       </c>
       <c r="AF79" s="18" t="n">
-        <v>5837725</v>
+        <v>7775082</v>
       </c>
       <c r="AG79" s="18" t="n">
-        <v>7775082</v>
+        <v>6649150</v>
       </c>
       <c r="AH79" s="18" t="n">
-        <v>6649150</v>
+        <v>8416828</v>
       </c>
       <c r="AI79" s="18" t="n">
-        <v>8416828</v>
+        <v>7916401</v>
       </c>
       <c r="AJ79" s="18" t="n">
-        <v>7916401</v>
+        <v>7194831</v>
       </c>
       <c r="AK79" s="18" t="n">
-        <v>7194831</v>
+        <v>11465782</v>
       </c>
       <c r="AL79" s="18" t="n">
-        <v>11465782</v>
+        <v>9790052</v>
       </c>
       <c r="AM79" s="18" t="n">
-        <v>9790052</v>
+        <v>8511936</v>
       </c>
       <c r="AN79" s="18" t="n">
-        <v>8511936</v>
+        <v>11417969</v>
       </c>
       <c r="AO79" s="18" t="n">
-        <v>11417969</v>
+        <v>4256532</v>
       </c>
       <c r="AP79" s="18" t="n">
-        <v>4256532</v>
+        <v>8791404</v>
       </c>
       <c r="AQ79" s="18" t="n">
-        <v>8791404</v>
+        <v>4637067</v>
       </c>
       <c r="AR79" s="18" t="n">
-        <v>4637067</v>
+        <v>7635820</v>
       </c>
       <c r="AS79" s="18" t="n">
-        <v>7635820</v>
+        <v>5562884</v>
       </c>
       <c r="AT79" s="18" t="n">
-        <v>5562884</v>
+        <v>11547128</v>
       </c>
       <c r="AU79" s="18" t="n">
-        <v>11547128</v>
+        <v>7298036</v>
       </c>
       <c r="AV79" s="18" t="n">
-        <v>7298036</v>
+        <v>3508967</v>
       </c>
       <c r="AW79" s="18" t="n">
-        <v>3508967</v>
+        <v>5743034</v>
       </c>
       <c r="AX79" s="18" t="n">
-        <v>5743034</v>
+        <v>4971291</v>
       </c>
       <c r="AY79" s="18" t="n">
-        <v>4971291</v>
+        <v>6516794</v>
       </c>
       <c r="AZ79" s="18" t="n">
-        <v>6516794</v>
+        <v>3601021</v>
       </c>
       <c r="BA79" s="18" t="n">
-        <v>3601021</v>
+        <v>13089333</v>
       </c>
       <c r="BB79" s="18" t="n">
-        <v>13111062</v>
+        <v>10563362</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12879,35 +12879,35 @@
       <c r="T86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="13" t="s">
-        <v>58</v>
+      <c r="U86" s="13" t="n">
+        <v>5381439</v>
       </c>
       <c r="V86" s="13" t="n">
-        <v>5381439</v>
+        <v>5048774</v>
       </c>
       <c r="W86" s="13" t="n">
-        <v>5048774</v>
+        <v>5010669</v>
       </c>
       <c r="X86" s="13" t="n">
-        <v>5010669</v>
+        <v>5655953</v>
       </c>
       <c r="Y86" s="13" t="n">
-        <v>5655953</v>
+        <v>5608980</v>
       </c>
       <c r="Z86" s="13" t="n">
-        <v>5608980</v>
+        <v>5833384</v>
       </c>
       <c r="AA86" s="13" t="n">
-        <v>5833384</v>
+        <v>8170543</v>
       </c>
       <c r="AB86" s="13" t="n">
-        <v>8170543</v>
+        <v>6803745</v>
       </c>
       <c r="AC86" s="13" t="n">
-        <v>6803745</v>
-      </c>
-      <c r="AD86" s="13" t="n">
         <v>6586414</v>
+      </c>
+      <c r="AD86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE86" s="13" t="s">
         <v>58</v>
@@ -13038,107 +13038,107 @@
       <c r="T87" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U87" s="16" t="s">
-        <v>58</v>
+      <c r="U87" s="16" t="n">
+        <v>22293486</v>
       </c>
       <c r="V87" s="16" t="n">
-        <v>22293486</v>
+        <v>22293829</v>
       </c>
       <c r="W87" s="16" t="n">
-        <v>22293829</v>
+        <v>22293720</v>
       </c>
       <c r="X87" s="16" t="n">
-        <v>22293720</v>
+        <v>22873892</v>
       </c>
       <c r="Y87" s="16" t="n">
-        <v>22873892</v>
+        <v>22873811</v>
       </c>
       <c r="Z87" s="16" t="n">
-        <v>22873811</v>
+        <v>22873444</v>
       </c>
       <c r="AA87" s="16" t="n">
-        <v>22873444</v>
+        <v>22873460</v>
       </c>
       <c r="AB87" s="16" t="n">
-        <v>22873460</v>
+        <v>22873583</v>
       </c>
       <c r="AC87" s="16" t="n">
-        <v>22873583</v>
+        <v>25787739</v>
       </c>
       <c r="AD87" s="16" t="n">
-        <v>25787739</v>
+        <v>25788095</v>
       </c>
       <c r="AE87" s="16" t="n">
-        <v>25788095</v>
+        <v>25787879</v>
       </c>
       <c r="AF87" s="16" t="n">
-        <v>25787879</v>
+        <v>25787746</v>
       </c>
       <c r="AG87" s="16" t="n">
-        <v>25787746</v>
+        <v>25787921</v>
       </c>
       <c r="AH87" s="16" t="n">
-        <v>25787921</v>
+        <v>25788310</v>
       </c>
       <c r="AI87" s="16" t="n">
-        <v>25788310</v>
+        <v>30423676</v>
       </c>
       <c r="AJ87" s="16" t="n">
-        <v>30423676</v>
+        <v>30424038</v>
       </c>
       <c r="AK87" s="16" t="n">
-        <v>30424038</v>
+        <v>30423792</v>
       </c>
       <c r="AL87" s="16" t="n">
-        <v>30423792</v>
+        <v>30423588</v>
       </c>
       <c r="AM87" s="16" t="n">
-        <v>30423588</v>
+        <v>817186529</v>
       </c>
       <c r="AN87" s="16" t="n">
-        <v>817186529</v>
+        <v>66738659</v>
       </c>
       <c r="AO87" s="16" t="n">
-        <v>66738659</v>
+        <v>66739505</v>
       </c>
       <c r="AP87" s="16" t="n">
-        <v>66739505</v>
+        <v>66738392</v>
       </c>
       <c r="AQ87" s="16" t="n">
-        <v>66738392</v>
+        <v>66739340</v>
       </c>
       <c r="AR87" s="16" t="n">
-        <v>66739340</v>
+        <v>66743590</v>
       </c>
       <c r="AS87" s="16" t="n">
-        <v>66743590</v>
+        <v>493128137</v>
       </c>
       <c r="AT87" s="16" t="n">
-        <v>493128137</v>
+        <v>87912969</v>
       </c>
       <c r="AU87" s="16" t="n">
-        <v>87912969</v>
+        <v>87913310</v>
       </c>
       <c r="AV87" s="16" t="n">
-        <v>87913310</v>
+        <v>87913368</v>
       </c>
       <c r="AW87" s="16" t="n">
-        <v>87913368</v>
+        <v>87913043</v>
       </c>
       <c r="AX87" s="16" t="n">
-        <v>87913043</v>
+        <v>87913333</v>
       </c>
       <c r="AY87" s="16" t="n">
-        <v>87913333</v>
+        <v>87912558</v>
       </c>
       <c r="AZ87" s="16" t="n">
-        <v>87912558</v>
+        <v>206050687</v>
       </c>
       <c r="BA87" s="16" t="n">
-        <v>206050687</v>
+        <v>98304904</v>
       </c>
       <c r="BB87" s="16" t="n">
-        <v>98304904</v>
+        <v>98305036</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13251,53 +13251,53 @@
       <c r="AL88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM88" s="13" t="s">
-        <v>58</v>
+      <c r="AM88" s="13" t="n">
+        <v>79842150</v>
       </c>
       <c r="AN88" s="13" t="n">
-        <v>79842150</v>
+        <v>83200037</v>
       </c>
       <c r="AO88" s="13" t="n">
-        <v>83200037</v>
+        <v>85989622</v>
       </c>
       <c r="AP88" s="13" t="n">
-        <v>85989622</v>
+        <v>85048721</v>
       </c>
       <c r="AQ88" s="13" t="n">
-        <v>85048721</v>
+        <v>81691389</v>
       </c>
       <c r="AR88" s="13" t="n">
-        <v>81691389</v>
+        <v>75299377</v>
       </c>
       <c r="AS88" s="13" t="n">
-        <v>75299377</v>
+        <v>70294369</v>
       </c>
       <c r="AT88" s="13" t="n">
-        <v>70294369</v>
+        <v>69891127</v>
       </c>
       <c r="AU88" s="13" t="n">
-        <v>69891127</v>
+        <v>70613756</v>
       </c>
       <c r="AV88" s="13" t="n">
-        <v>70613756</v>
+        <v>72879395</v>
       </c>
       <c r="AW88" s="13" t="n">
-        <v>72879395</v>
+        <v>72792598</v>
       </c>
       <c r="AX88" s="13" t="n">
-        <v>72792598</v>
+        <v>73627693</v>
       </c>
       <c r="AY88" s="13" t="n">
-        <v>73627693</v>
+        <v>83365585</v>
       </c>
       <c r="AZ88" s="13" t="n">
-        <v>83365585</v>
+        <v>82858431</v>
       </c>
       <c r="BA88" s="13" t="n">
-        <v>82858431</v>
+        <v>79546364</v>
       </c>
       <c r="BB88" s="13" t="n">
-        <v>79981648</v>
+        <v>76047645</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13410,53 +13410,53 @@
       <c r="AL89" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM89" s="16" t="s">
-        <v>58</v>
+      <c r="AM89" s="16" t="n">
+        <v>219601861</v>
       </c>
       <c r="AN89" s="16" t="n">
-        <v>219601861</v>
+        <v>200896790</v>
       </c>
       <c r="AO89" s="16" t="n">
-        <v>200896790</v>
+        <v>167663462</v>
       </c>
       <c r="AP89" s="16" t="n">
-        <v>167663462</v>
+        <v>161961947</v>
       </c>
       <c r="AQ89" s="16" t="n">
-        <v>161961947</v>
+        <v>163023827</v>
       </c>
       <c r="AR89" s="16" t="n">
-        <v>163023827</v>
+        <v>159746872</v>
       </c>
       <c r="AS89" s="16" t="n">
-        <v>159746872</v>
+        <v>162227686</v>
       </c>
       <c r="AT89" s="16" t="n">
-        <v>162227686</v>
+        <v>149374080</v>
       </c>
       <c r="AU89" s="16" t="n">
-        <v>149374080</v>
+        <v>121314012</v>
       </c>
       <c r="AV89" s="16" t="n">
-        <v>121314012</v>
+        <v>112846470</v>
       </c>
       <c r="AW89" s="16" t="n">
-        <v>112846470</v>
+        <v>112301909</v>
       </c>
       <c r="AX89" s="16" t="n">
-        <v>112301909</v>
+        <v>111443008</v>
       </c>
       <c r="AY89" s="16" t="n">
-        <v>111443008</v>
+        <v>110463308</v>
       </c>
       <c r="AZ89" s="16" t="n">
-        <v>110463308</v>
+        <v>106194022</v>
       </c>
       <c r="BA89" s="16" t="n">
-        <v>106194022</v>
+        <v>110295269</v>
       </c>
       <c r="BB89" s="16" t="n">
-        <v>109411062</v>
+        <v>114167873</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13515,62 +13515,62 @@
       <c r="T90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U90" s="13" t="s">
-        <v>58</v>
+      <c r="U90" s="13" t="n">
+        <v>55255422</v>
       </c>
       <c r="V90" s="13" t="n">
-        <v>55255422</v>
+        <v>63488177</v>
       </c>
       <c r="W90" s="13" t="n">
-        <v>63488177</v>
+        <v>65809638</v>
       </c>
       <c r="X90" s="13" t="n">
-        <v>65809638</v>
+        <v>74260274</v>
       </c>
       <c r="Y90" s="13" t="n">
-        <v>74260274</v>
+        <v>84655417</v>
       </c>
       <c r="Z90" s="13" t="n">
-        <v>84655417</v>
+        <v>111817130</v>
       </c>
       <c r="AA90" s="13" t="n">
-        <v>111817130</v>
+        <v>140207557</v>
       </c>
       <c r="AB90" s="13" t="n">
-        <v>140207557</v>
+        <v>150341519</v>
       </c>
       <c r="AC90" s="13" t="n">
-        <v>150341519</v>
+        <v>197960959</v>
       </c>
       <c r="AD90" s="13" t="n">
-        <v>197960959</v>
+        <v>210886215</v>
       </c>
       <c r="AE90" s="13" t="n">
-        <v>210886215</v>
+        <v>218944743</v>
       </c>
       <c r="AF90" s="13" t="n">
-        <v>218944743</v>
+        <v>222840012</v>
       </c>
       <c r="AG90" s="13" t="n">
-        <v>222840012</v>
+        <v>218826323</v>
       </c>
       <c r="AH90" s="13" t="n">
-        <v>218826323</v>
+        <v>203697448</v>
       </c>
       <c r="AI90" s="13" t="n">
-        <v>203697448</v>
+        <v>192510247</v>
       </c>
       <c r="AJ90" s="13" t="n">
-        <v>192510247</v>
+        <v>199377031</v>
       </c>
       <c r="AK90" s="13" t="n">
-        <v>199377031</v>
+        <v>265880655</v>
       </c>
       <c r="AL90" s="13" t="n">
-        <v>265880655</v>
-      </c>
-      <c r="AM90" s="13" t="n">
         <v>242113268</v>
+      </c>
+      <c r="AM90" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN90" s="13" t="s">
         <v>58</v>
@@ -13674,62 +13674,62 @@
       <c r="T91" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U91" s="16" t="s">
-        <v>58</v>
+      <c r="U91" s="16" t="n">
+        <v>20431152</v>
       </c>
       <c r="V91" s="16" t="n">
-        <v>20431152</v>
+        <v>26285153</v>
       </c>
       <c r="W91" s="16" t="n">
-        <v>26285153</v>
+        <v>32852138</v>
       </c>
       <c r="X91" s="16" t="n">
-        <v>32852138</v>
+        <v>40642486</v>
       </c>
       <c r="Y91" s="16" t="n">
-        <v>40642486</v>
+        <v>52675831</v>
       </c>
       <c r="Z91" s="16" t="n">
-        <v>52675831</v>
+        <v>68615031</v>
       </c>
       <c r="AA91" s="16" t="n">
-        <v>68615031</v>
+        <v>77822925</v>
       </c>
       <c r="AB91" s="16" t="n">
-        <v>77822925</v>
+        <v>76835860</v>
       </c>
       <c r="AC91" s="16" t="n">
-        <v>76835860</v>
+        <v>72209630</v>
       </c>
       <c r="AD91" s="16" t="n">
-        <v>72209630</v>
+        <v>67326329</v>
       </c>
       <c r="AE91" s="16" t="n">
-        <v>67326329</v>
+        <v>67463596</v>
       </c>
       <c r="AF91" s="16" t="n">
-        <v>67463596</v>
+        <v>63396222</v>
       </c>
       <c r="AG91" s="16" t="n">
-        <v>63396222</v>
+        <v>62448068</v>
       </c>
       <c r="AH91" s="16" t="n">
-        <v>62448068</v>
+        <v>71393102</v>
       </c>
       <c r="AI91" s="16" t="n">
-        <v>71393102</v>
+        <v>75944379</v>
       </c>
       <c r="AJ91" s="16" t="n">
-        <v>75944379</v>
+        <v>90216342</v>
       </c>
       <c r="AK91" s="16" t="n">
-        <v>90216342</v>
+        <v>90682870</v>
       </c>
       <c r="AL91" s="16" t="n">
-        <v>90682870</v>
-      </c>
-      <c r="AM91" s="16" t="n">
         <v>85128495</v>
+      </c>
+      <c r="AM91" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN91" s="16" t="s">
         <v>58</v>
@@ -13860,80 +13860,80 @@
       <c r="AC92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD92" s="13" t="s">
-        <v>58</v>
+      <c r="AD92" s="13" t="n">
+        <v>8542394</v>
       </c>
       <c r="AE92" s="13" t="n">
-        <v>8542394</v>
+        <v>5664041</v>
       </c>
       <c r="AF92" s="13" t="n">
-        <v>5664041</v>
+        <v>6518583</v>
       </c>
       <c r="AG92" s="13" t="n">
-        <v>6518583</v>
+        <v>7049071</v>
       </c>
       <c r="AH92" s="13" t="n">
-        <v>7049071</v>
+        <v>6391902</v>
       </c>
       <c r="AI92" s="13" t="n">
-        <v>6391902</v>
+        <v>7827133</v>
       </c>
       <c r="AJ92" s="13" t="n">
-        <v>7827133</v>
+        <v>8214167</v>
       </c>
       <c r="AK92" s="13" t="n">
-        <v>8214167</v>
+        <v>135000000</v>
       </c>
       <c r="AL92" s="13" t="n">
-        <v>135000000</v>
+        <v>11600711</v>
       </c>
       <c r="AM92" s="13" t="n">
-        <v>11600711</v>
+        <v>11307991</v>
       </c>
       <c r="AN92" s="13" t="n">
-        <v>11307991</v>
+        <v>12974115</v>
       </c>
       <c r="AO92" s="13" t="n">
-        <v>12974115</v>
+        <v>14359050</v>
       </c>
       <c r="AP92" s="13" t="n">
-        <v>14359050</v>
+        <v>13077541</v>
       </c>
       <c r="AQ92" s="13" t="n">
-        <v>13077541</v>
+        <v>6290394</v>
       </c>
       <c r="AR92" s="13" t="n">
-        <v>6290394</v>
+        <v>3550725</v>
       </c>
       <c r="AS92" s="13" t="n">
-        <v>3550725</v>
+        <v>21964784</v>
       </c>
       <c r="AT92" s="13" t="n">
-        <v>21964784</v>
+        <v>6311205</v>
       </c>
       <c r="AU92" s="13" t="n">
-        <v>6311205</v>
+        <v>5344554</v>
       </c>
       <c r="AV92" s="13" t="n">
-        <v>5344554</v>
+        <v>7744200</v>
       </c>
       <c r="AW92" s="13" t="n">
-        <v>7744200</v>
+        <v>11440622</v>
       </c>
       <c r="AX92" s="13" t="n">
-        <v>11440622</v>
+        <v>6923313</v>
       </c>
       <c r="AY92" s="13" t="n">
-        <v>6923313</v>
+        <v>16864035</v>
       </c>
       <c r="AZ92" s="13" t="n">
-        <v>16864035</v>
+        <v>18533881</v>
       </c>
       <c r="BA92" s="13" t="n">
-        <v>18533881</v>
+        <v>5204452</v>
       </c>
       <c r="BB92" s="13" t="n">
-        <v>5204452</v>
+        <v>5887250</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14103,53 +14103,53 @@
       <c r="AL94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM94" s="13" t="s">
-        <v>58</v>
+      <c r="AM94" s="13" t="n">
+        <v>78333050</v>
       </c>
       <c r="AN94" s="13" t="n">
-        <v>78333050</v>
+        <v>80062351</v>
       </c>
       <c r="AO94" s="13" t="n">
-        <v>80062351</v>
+        <v>87020932</v>
       </c>
       <c r="AP94" s="13" t="n">
-        <v>87020932</v>
+        <v>84988416</v>
       </c>
       <c r="AQ94" s="13" t="n">
-        <v>84988416</v>
+        <v>86188631</v>
       </c>
       <c r="AR94" s="13" t="n">
-        <v>86188631</v>
+        <v>80818764</v>
       </c>
       <c r="AS94" s="13" t="n">
-        <v>80818764</v>
+        <v>63460066</v>
       </c>
       <c r="AT94" s="13" t="n">
-        <v>63460066</v>
+        <v>64439121</v>
       </c>
       <c r="AU94" s="13" t="n">
-        <v>64439121</v>
+        <v>83477516</v>
       </c>
       <c r="AV94" s="13" t="n">
-        <v>83477516</v>
+        <v>72345978</v>
       </c>
       <c r="AW94" s="13" t="n">
-        <v>72345978</v>
+        <v>84583039</v>
       </c>
       <c r="AX94" s="13" t="n">
-        <v>84583039</v>
+        <v>87125018</v>
       </c>
       <c r="AY94" s="13" t="n">
-        <v>87125018</v>
-      </c>
-      <c r="AZ94" s="13" t="n">
         <v>84856911</v>
       </c>
-      <c r="BA94" s="13" t="s">
-        <v>58</v>
+      <c r="AZ94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA94" s="13" t="n">
+        <v>113218081</v>
       </c>
       <c r="BB94" s="13" t="n">
-        <v>113464819</v>
+        <v>108881745</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14262,53 +14262,53 @@
       <c r="AL95" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM95" s="16" t="s">
-        <v>58</v>
+      <c r="AM95" s="16" t="n">
+        <v>283772727</v>
       </c>
       <c r="AN95" s="16" t="n">
-        <v>283772727</v>
+        <v>163324338</v>
       </c>
       <c r="AO95" s="16" t="n">
-        <v>163324338</v>
+        <v>190488372</v>
       </c>
       <c r="AP95" s="16" t="n">
-        <v>190488372</v>
+        <v>134668759</v>
       </c>
       <c r="AQ95" s="16" t="n">
-        <v>134668759</v>
+        <v>170967626</v>
       </c>
       <c r="AR95" s="16" t="n">
-        <v>170967626</v>
+        <v>189252174</v>
       </c>
       <c r="AS95" s="16" t="n">
-        <v>189252174</v>
+        <v>178709677</v>
       </c>
       <c r="AT95" s="16" t="n">
-        <v>178709677</v>
+        <v>174555556</v>
       </c>
       <c r="AU95" s="16" t="n">
-        <v>174555556</v>
+        <v>176867841</v>
       </c>
       <c r="AV95" s="16" t="n">
-        <v>176867841</v>
+        <v>239717949</v>
       </c>
       <c r="AW95" s="16" t="n">
-        <v>239717949</v>
+        <v>210699115</v>
       </c>
       <c r="AX95" s="16" t="n">
-        <v>210699115</v>
+        <v>257894737</v>
       </c>
       <c r="AY95" s="16" t="n">
-        <v>257894737</v>
+        <v>112508106</v>
       </c>
       <c r="AZ95" s="16" t="n">
-        <v>112508106</v>
+        <v>119953083</v>
       </c>
       <c r="BA95" s="16" t="n">
-        <v>119953083</v>
+        <v>152140263</v>
       </c>
       <c r="BB95" s="16" t="n">
-        <v>152140263</v>
+        <v>139881608</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14367,62 +14367,62 @@
       <c r="T96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U96" s="13" t="s">
-        <v>58</v>
+      <c r="U96" s="13" t="n">
+        <v>26581753</v>
       </c>
       <c r="V96" s="13" t="n">
-        <v>26581753</v>
+        <v>28712225</v>
       </c>
       <c r="W96" s="13" t="n">
-        <v>28712225</v>
+        <v>40621428</v>
       </c>
       <c r="X96" s="13" t="n">
-        <v>40621428</v>
+        <v>49384344</v>
       </c>
       <c r="Y96" s="13" t="n">
-        <v>49384344</v>
+        <v>56441106</v>
       </c>
       <c r="Z96" s="13" t="n">
-        <v>56441106</v>
+        <v>71337700</v>
       </c>
       <c r="AA96" s="13" t="n">
-        <v>71337700</v>
+        <v>85126785</v>
       </c>
       <c r="AB96" s="13" t="n">
-        <v>85126785</v>
+        <v>72055972</v>
       </c>
       <c r="AC96" s="13" t="n">
-        <v>72055972</v>
+        <v>72522861</v>
       </c>
       <c r="AD96" s="13" t="n">
-        <v>72522861</v>
+        <v>70650641</v>
       </c>
       <c r="AE96" s="13" t="n">
-        <v>70650641</v>
+        <v>68540090</v>
       </c>
       <c r="AF96" s="13" t="n">
-        <v>68540090</v>
+        <v>67638711</v>
       </c>
       <c r="AG96" s="13" t="n">
-        <v>67638711</v>
+        <v>67700172</v>
       </c>
       <c r="AH96" s="13" t="n">
-        <v>67700172</v>
+        <v>72519334</v>
       </c>
       <c r="AI96" s="13" t="n">
-        <v>72519334</v>
+        <v>76082783</v>
       </c>
       <c r="AJ96" s="13" t="n">
-        <v>76082783</v>
+        <v>106280625</v>
       </c>
       <c r="AK96" s="13" t="n">
-        <v>106280625</v>
+        <v>89781628</v>
       </c>
       <c r="AL96" s="13" t="n">
-        <v>89781628</v>
-      </c>
-      <c r="AM96" s="13" t="n">
         <v>77190047</v>
+      </c>
+      <c r="AM96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN96" s="13" t="s">
         <v>58</v>
@@ -14526,62 +14526,62 @@
       <c r="T97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U97" s="16" t="s">
-        <v>58</v>
+      <c r="U97" s="16" t="n">
+        <v>32051500</v>
       </c>
       <c r="V97" s="16" t="n">
-        <v>32051500</v>
+        <v>32594238</v>
       </c>
       <c r="W97" s="16" t="n">
-        <v>32594238</v>
+        <v>39724161</v>
       </c>
       <c r="X97" s="16" t="n">
-        <v>39724161</v>
+        <v>60528356</v>
       </c>
       <c r="Y97" s="16" t="n">
-        <v>60528356</v>
+        <v>60125701</v>
       </c>
       <c r="Z97" s="16" t="n">
-        <v>60125701</v>
+        <v>86215311</v>
       </c>
       <c r="AA97" s="16" t="n">
-        <v>86215311</v>
+        <v>83286411</v>
       </c>
       <c r="AB97" s="16" t="n">
-        <v>83286411</v>
+        <v>140699453</v>
       </c>
       <c r="AC97" s="16" t="n">
-        <v>140699453</v>
+        <v>176592577</v>
       </c>
       <c r="AD97" s="16" t="n">
-        <v>176592577</v>
+        <v>204859002</v>
       </c>
       <c r="AE97" s="16" t="n">
-        <v>204859002</v>
+        <v>173206849</v>
       </c>
       <c r="AF97" s="16" t="n">
-        <v>173206849</v>
+        <v>183614155</v>
       </c>
       <c r="AG97" s="16" t="n">
-        <v>183614155</v>
+        <v>175189681</v>
       </c>
       <c r="AH97" s="16" t="n">
-        <v>175189681</v>
+        <v>210850962</v>
       </c>
       <c r="AI97" s="16" t="n">
-        <v>210850962</v>
+        <v>193233896</v>
       </c>
       <c r="AJ97" s="16" t="n">
-        <v>193233896</v>
+        <v>179582702</v>
       </c>
       <c r="AK97" s="16" t="n">
-        <v>179582702</v>
+        <v>274472086</v>
       </c>
       <c r="AL97" s="16" t="n">
-        <v>274472086</v>
-      </c>
-      <c r="AM97" s="16" t="n">
         <v>265461150</v>
+      </c>
+      <c r="AM97" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN97" s="16" t="s">
         <v>58</v>
